--- a/input_data/admin_data/SLV/_clean/total-SLV.xlsx
+++ b/input_data/admin_data/SLV/_clean/total-SLV.xlsx
@@ -28,7 +28,823 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="1088">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -2524,25 +3340,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>544</v>
+        <v>816</v>
       </c>
       <c r="B1" t="s">
-        <v>545</v>
+        <v>817</v>
       </c>
       <c r="C1" t="s">
-        <v>556</v>
+        <v>828</v>
       </c>
       <c r="D1" t="s">
-        <v>557</v>
+        <v>829</v>
       </c>
       <c r="E1" t="s">
-        <v>558</v>
+        <v>830</v>
       </c>
       <c r="F1" t="s">
-        <v>559</v>
+        <v>831</v>
       </c>
       <c r="G1" t="s">
-        <v>560</v>
+        <v>832</v>
       </c>
     </row>
     <row r="2">
@@ -2550,7 +3366,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>546</v>
+        <v>818</v>
       </c>
       <c r="C2">
         <v>6272353</v>
@@ -2571,7 +3387,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>547</v>
+        <v>819</v>
       </c>
       <c r="C3">
         <v>6272353</v>
@@ -2592,7 +3408,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>548</v>
+        <v>820</v>
       </c>
       <c r="C4">
         <v>6272353</v>
@@ -2613,7 +3429,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>549</v>
+        <v>821</v>
       </c>
       <c r="C5">
         <v>6272353</v>
@@ -2634,7 +3450,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>550</v>
+        <v>822</v>
       </c>
       <c r="C6">
         <v>6272353</v>
@@ -2655,7 +3471,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>551</v>
+        <v>823</v>
       </c>
       <c r="C7">
         <v>6272353</v>
@@ -2676,7 +3492,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>552</v>
+        <v>824</v>
       </c>
       <c r="C8">
         <v>6272353</v>
@@ -2697,7 +3513,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>553</v>
+        <v>825</v>
       </c>
       <c r="C9">
         <v>6272353</v>
@@ -2718,7 +3534,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>554</v>
+        <v>826</v>
       </c>
       <c r="C10">
         <v>6272353</v>
@@ -2739,7 +3555,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>555</v>
+        <v>827</v>
       </c>
       <c r="C11">
         <v>6272353</v>
@@ -2768,25 +3584,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>697</v>
+        <v>969</v>
       </c>
       <c r="B1" t="s">
-        <v>698</v>
+        <v>970</v>
       </c>
       <c r="C1" t="s">
-        <v>709</v>
+        <v>981</v>
       </c>
       <c r="D1" t="s">
-        <v>710</v>
+        <v>982</v>
       </c>
       <c r="E1" t="s">
-        <v>711</v>
+        <v>983</v>
       </c>
       <c r="F1" t="s">
-        <v>712</v>
+        <v>984</v>
       </c>
       <c r="G1" t="s">
-        <v>713</v>
+        <v>985</v>
       </c>
     </row>
     <row r="2">
@@ -2794,7 +3610,7 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>699</v>
+        <v>971</v>
       </c>
       <c r="C2">
         <v>6181405</v>
@@ -2815,7 +3631,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>700</v>
+        <v>972</v>
       </c>
       <c r="C3">
         <v>6181405</v>
@@ -2836,7 +3652,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>701</v>
+        <v>973</v>
       </c>
       <c r="C4">
         <v>6181405</v>
@@ -2857,7 +3673,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>702</v>
+        <v>974</v>
       </c>
       <c r="C5">
         <v>6181405</v>
@@ -2878,7 +3694,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>703</v>
+        <v>975</v>
       </c>
       <c r="C6">
         <v>6181405</v>
@@ -2899,7 +3715,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>704</v>
+        <v>976</v>
       </c>
       <c r="C7">
         <v>6181405</v>
@@ -2920,7 +3736,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>705</v>
+        <v>977</v>
       </c>
       <c r="C8">
         <v>6181405</v>
@@ -2941,7 +3757,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>706</v>
+        <v>978</v>
       </c>
       <c r="C9">
         <v>6181405</v>
@@ -2962,7 +3778,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>707</v>
+        <v>979</v>
       </c>
       <c r="C10">
         <v>6181405</v>
@@ -2983,7 +3799,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>708</v>
+        <v>980</v>
       </c>
       <c r="C11">
         <v>6181405</v>
@@ -3012,25 +3828,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>714</v>
+        <v>986</v>
       </c>
       <c r="B1" t="s">
-        <v>715</v>
+        <v>987</v>
       </c>
       <c r="C1" t="s">
-        <v>726</v>
+        <v>998</v>
       </c>
       <c r="D1" t="s">
-        <v>727</v>
+        <v>999</v>
       </c>
       <c r="E1" t="s">
-        <v>728</v>
+        <v>1000</v>
       </c>
       <c r="F1" t="s">
-        <v>729</v>
+        <v>1001</v>
       </c>
       <c r="G1" t="s">
-        <v>730</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="2">
@@ -3038,7 +3854,7 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>716</v>
+        <v>988</v>
       </c>
       <c r="C2">
         <v>6249262</v>
@@ -3059,7 +3875,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>717</v>
+        <v>989</v>
       </c>
       <c r="C3">
         <v>6249262</v>
@@ -3080,7 +3896,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>718</v>
+        <v>990</v>
       </c>
       <c r="C4">
         <v>6249262</v>
@@ -3101,7 +3917,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>719</v>
+        <v>991</v>
       </c>
       <c r="C5">
         <v>6249262</v>
@@ -3122,7 +3938,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>720</v>
+        <v>992</v>
       </c>
       <c r="C6">
         <v>6249262</v>
@@ -3143,7 +3959,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>721</v>
+        <v>993</v>
       </c>
       <c r="C7">
         <v>6249262</v>
@@ -3164,7 +3980,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>722</v>
+        <v>994</v>
       </c>
       <c r="C8">
         <v>6249262</v>
@@ -3185,7 +4001,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>723</v>
+        <v>995</v>
       </c>
       <c r="C9">
         <v>6249262</v>
@@ -3206,7 +4022,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>724</v>
+        <v>996</v>
       </c>
       <c r="C10">
         <v>6249262</v>
@@ -3227,7 +4043,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>725</v>
+        <v>997</v>
       </c>
       <c r="C11">
         <v>6249262</v>
@@ -3256,25 +4072,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>731</v>
+        <v>1003</v>
       </c>
       <c r="B1" t="s">
-        <v>732</v>
+        <v>1004</v>
       </c>
       <c r="C1" t="s">
-        <v>743</v>
+        <v>1015</v>
       </c>
       <c r="D1" t="s">
-        <v>744</v>
+        <v>1016</v>
       </c>
       <c r="E1" t="s">
-        <v>745</v>
+        <v>1017</v>
       </c>
       <c r="F1" t="s">
-        <v>746</v>
+        <v>1018</v>
       </c>
       <c r="G1" t="s">
-        <v>747</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="2">
@@ -3282,7 +4098,7 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>733</v>
+        <v>1005</v>
       </c>
       <c r="C2">
         <v>6290383</v>
@@ -3303,7 +4119,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>734</v>
+        <v>1006</v>
       </c>
       <c r="C3">
         <v>6290383</v>
@@ -3324,7 +4140,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>735</v>
+        <v>1007</v>
       </c>
       <c r="C4">
         <v>6290383</v>
@@ -3345,7 +4161,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>736</v>
+        <v>1008</v>
       </c>
       <c r="C5">
         <v>6290383</v>
@@ -3366,7 +4182,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>737</v>
+        <v>1009</v>
       </c>
       <c r="C6">
         <v>6290383</v>
@@ -3387,7 +4203,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>738</v>
+        <v>1010</v>
       </c>
       <c r="C7">
         <v>6290383</v>
@@ -3408,7 +4224,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>739</v>
+        <v>1011</v>
       </c>
       <c r="C8">
         <v>6290383</v>
@@ -3429,7 +4245,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>740</v>
+        <v>1012</v>
       </c>
       <c r="C9">
         <v>6290383</v>
@@ -3450,7 +4266,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>741</v>
+        <v>1013</v>
       </c>
       <c r="C10">
         <v>6290383</v>
@@ -3471,7 +4287,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>742</v>
+        <v>1014</v>
       </c>
       <c r="C11">
         <v>6290383</v>
@@ -3500,25 +4316,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>748</v>
+        <v>1020</v>
       </c>
       <c r="B1" t="s">
-        <v>749</v>
+        <v>1021</v>
       </c>
       <c r="C1" t="s">
-        <v>760</v>
+        <v>1032</v>
       </c>
       <c r="D1" t="s">
-        <v>761</v>
+        <v>1033</v>
       </c>
       <c r="E1" t="s">
-        <v>762</v>
+        <v>1034</v>
       </c>
       <c r="F1" t="s">
-        <v>763</v>
+        <v>1035</v>
       </c>
       <c r="G1" t="s">
-        <v>764</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="2">
@@ -3526,7 +4342,7 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>750</v>
+        <v>1022</v>
       </c>
       <c r="C2">
         <v>6401415</v>
@@ -3547,7 +4363,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>751</v>
+        <v>1023</v>
       </c>
       <c r="C3">
         <v>6401415</v>
@@ -3568,7 +4384,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>752</v>
+        <v>1024</v>
       </c>
       <c r="C4">
         <v>6401415</v>
@@ -3589,7 +4405,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>753</v>
+        <v>1025</v>
       </c>
       <c r="C5">
         <v>6401415</v>
@@ -3610,7 +4426,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>754</v>
+        <v>1026</v>
       </c>
       <c r="C6">
         <v>6401415</v>
@@ -3631,7 +4447,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>755</v>
+        <v>1027</v>
       </c>
       <c r="C7">
         <v>6401415</v>
@@ -3652,7 +4468,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>756</v>
+        <v>1028</v>
       </c>
       <c r="C8">
         <v>6401415</v>
@@ -3673,7 +4489,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="C9">
         <v>6401415</v>
@@ -3694,7 +4510,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>758</v>
+        <v>1030</v>
       </c>
       <c r="C10">
         <v>6401415</v>
@@ -3715,7 +4531,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>759</v>
+        <v>1031</v>
       </c>
       <c r="C11">
         <v>6401415</v>
@@ -3744,25 +4560,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>765</v>
+        <v>1037</v>
       </c>
       <c r="B1" t="s">
-        <v>766</v>
+        <v>1038</v>
       </c>
       <c r="C1" t="s">
-        <v>777</v>
+        <v>1049</v>
       </c>
       <c r="D1" t="s">
-        <v>778</v>
+        <v>1050</v>
       </c>
       <c r="E1" t="s">
-        <v>779</v>
+        <v>1051</v>
       </c>
       <c r="F1" t="s">
-        <v>780</v>
+        <v>1052</v>
       </c>
       <c r="G1" t="s">
-        <v>781</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="2">
@@ -3770,7 +4586,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>767</v>
+        <v>1039</v>
       </c>
       <c r="C2">
         <v>6459911</v>
@@ -3791,7 +4607,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>768</v>
+        <v>1040</v>
       </c>
       <c r="C3">
         <v>6459911</v>
@@ -3812,7 +4628,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>769</v>
+        <v>1041</v>
       </c>
       <c r="C4">
         <v>6459911</v>
@@ -3833,7 +4649,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>770</v>
+        <v>1042</v>
       </c>
       <c r="C5">
         <v>6459911</v>
@@ -3854,7 +4670,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>771</v>
+        <v>1043</v>
       </c>
       <c r="C6">
         <v>6459911</v>
@@ -3875,7 +4691,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>772</v>
+        <v>1044</v>
       </c>
       <c r="C7">
         <v>6459911</v>
@@ -3896,7 +4712,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>773</v>
+        <v>1045</v>
       </c>
       <c r="C8">
         <v>6459911</v>
@@ -3917,7 +4733,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>774</v>
+        <v>1046</v>
       </c>
       <c r="C9">
         <v>6459911</v>
@@ -3938,7 +4754,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>775</v>
+        <v>1047</v>
       </c>
       <c r="C10">
         <v>6459911</v>
@@ -3959,7 +4775,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>776</v>
+        <v>1048</v>
       </c>
       <c r="C11">
         <v>6459911</v>
@@ -3988,25 +4804,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>782</v>
+        <v>1054</v>
       </c>
       <c r="B1" t="s">
-        <v>783</v>
+        <v>1055</v>
       </c>
       <c r="C1" t="s">
-        <v>794</v>
+        <v>1066</v>
       </c>
       <c r="D1" t="s">
-        <v>795</v>
+        <v>1067</v>
       </c>
       <c r="E1" t="s">
-        <v>796</v>
+        <v>1068</v>
       </c>
       <c r="F1" t="s">
-        <v>797</v>
+        <v>1069</v>
       </c>
       <c r="G1" t="s">
-        <v>798</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="2">
@@ -4014,7 +4830,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>784</v>
+        <v>1056</v>
       </c>
       <c r="C2">
         <v>6522419</v>
@@ -4035,7 +4851,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>785</v>
+        <v>1057</v>
       </c>
       <c r="C3">
         <v>6522419</v>
@@ -4056,7 +4872,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>786</v>
+        <v>1058</v>
       </c>
       <c r="C4">
         <v>6522419</v>
@@ -4077,7 +4893,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>787</v>
+        <v>1059</v>
       </c>
       <c r="C5">
         <v>6522419</v>
@@ -4098,7 +4914,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>788</v>
+        <v>1060</v>
       </c>
       <c r="C6">
         <v>6522419</v>
@@ -4119,7 +4935,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>789</v>
+        <v>1061</v>
       </c>
       <c r="C7">
         <v>6522419</v>
@@ -4140,7 +4956,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>790</v>
+        <v>1062</v>
       </c>
       <c r="C8">
         <v>6522419</v>
@@ -4161,7 +4977,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>791</v>
+        <v>1063</v>
       </c>
       <c r="C9">
         <v>6522419</v>
@@ -4182,7 +4998,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>792</v>
+        <v>1064</v>
       </c>
       <c r="C10">
         <v>6522419</v>
@@ -4203,7 +5019,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>793</v>
+        <v>1065</v>
       </c>
       <c r="C11">
         <v>6522419</v>
@@ -4232,25 +5048,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>799</v>
+        <v>1071</v>
       </c>
       <c r="B1" t="s">
-        <v>800</v>
+        <v>1072</v>
       </c>
       <c r="C1" t="s">
-        <v>811</v>
+        <v>1083</v>
       </c>
       <c r="D1" t="s">
-        <v>812</v>
+        <v>1084</v>
       </c>
       <c r="E1" t="s">
-        <v>813</v>
+        <v>1085</v>
       </c>
       <c r="F1" t="s">
-        <v>814</v>
+        <v>1086</v>
       </c>
       <c r="G1" t="s">
-        <v>815</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="2">
@@ -4258,7 +5074,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>801</v>
+        <v>1073</v>
       </c>
       <c r="C2">
         <v>6581860</v>
@@ -4279,7 +5095,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>802</v>
+        <v>1074</v>
       </c>
       <c r="C3">
         <v>6581860</v>
@@ -4300,7 +5116,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>803</v>
+        <v>1075</v>
       </c>
       <c r="C4">
         <v>6581860</v>
@@ -4321,7 +5137,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>804</v>
+        <v>1076</v>
       </c>
       <c r="C5">
         <v>6581860</v>
@@ -4342,7 +5158,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>805</v>
+        <v>1077</v>
       </c>
       <c r="C6">
         <v>6581860</v>
@@ -4363,7 +5179,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>806</v>
+        <v>1078</v>
       </c>
       <c r="C7">
         <v>6581860</v>
@@ -4384,7 +5200,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>807</v>
+        <v>1079</v>
       </c>
       <c r="C8">
         <v>6581860</v>
@@ -4405,7 +5221,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>808</v>
+        <v>1080</v>
       </c>
       <c r="C9">
         <v>6581860</v>
@@ -4426,7 +5242,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>809</v>
+        <v>1081</v>
       </c>
       <c r="C10">
         <v>6581860</v>
@@ -4447,7 +5263,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>810</v>
+        <v>1082</v>
       </c>
       <c r="C11">
         <v>6581860</v>
@@ -4476,25 +5292,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>561</v>
+        <v>833</v>
       </c>
       <c r="B1" t="s">
-        <v>562</v>
+        <v>834</v>
       </c>
       <c r="C1" t="s">
-        <v>573</v>
+        <v>845</v>
       </c>
       <c r="D1" t="s">
-        <v>574</v>
+        <v>846</v>
       </c>
       <c r="E1" t="s">
-        <v>575</v>
+        <v>847</v>
       </c>
       <c r="F1" t="s">
-        <v>576</v>
+        <v>848</v>
       </c>
       <c r="G1" t="s">
-        <v>577</v>
+        <v>849</v>
       </c>
     </row>
     <row r="2">
@@ -4502,7 +5318,7 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>563</v>
+        <v>835</v>
       </c>
       <c r="C2">
         <v>6428672</v>
@@ -4523,7 +5339,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>564</v>
+        <v>836</v>
       </c>
       <c r="C3">
         <v>6428672</v>
@@ -4544,7 +5360,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>565</v>
+        <v>837</v>
       </c>
       <c r="C4">
         <v>6428672</v>
@@ -4565,7 +5381,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>566</v>
+        <v>838</v>
       </c>
       <c r="C5">
         <v>6428672</v>
@@ -4586,7 +5402,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>567</v>
+        <v>839</v>
       </c>
       <c r="C6">
         <v>6428672</v>
@@ -4607,7 +5423,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>568</v>
+        <v>840</v>
       </c>
       <c r="C7">
         <v>6428672</v>
@@ -4628,7 +5444,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>569</v>
+        <v>841</v>
       </c>
       <c r="C8">
         <v>6428672</v>
@@ -4649,7 +5465,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>570</v>
+        <v>842</v>
       </c>
       <c r="C9">
         <v>6428672</v>
@@ -4670,7 +5486,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>571</v>
+        <v>843</v>
       </c>
       <c r="C10">
         <v>6428672</v>
@@ -4691,7 +5507,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>572</v>
+        <v>844</v>
       </c>
       <c r="C11">
         <v>6428672</v>
@@ -4720,25 +5536,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>578</v>
+        <v>850</v>
       </c>
       <c r="B1" t="s">
-        <v>579</v>
+        <v>851</v>
       </c>
       <c r="C1" t="s">
-        <v>590</v>
+        <v>862</v>
       </c>
       <c r="D1" t="s">
-        <v>591</v>
+        <v>863</v>
       </c>
       <c r="E1" t="s">
-        <v>592</v>
+        <v>864</v>
       </c>
       <c r="F1" t="s">
-        <v>593</v>
+        <v>865</v>
       </c>
       <c r="G1" t="s">
-        <v>594</v>
+        <v>866</v>
       </c>
     </row>
     <row r="2">
@@ -4746,7 +5562,7 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>580</v>
+        <v>852</v>
       </c>
       <c r="C2">
         <v>6510348</v>
@@ -4767,7 +5583,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>581</v>
+        <v>853</v>
       </c>
       <c r="C3">
         <v>6510348</v>
@@ -4788,7 +5604,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>582</v>
+        <v>854</v>
       </c>
       <c r="C4">
         <v>6510348</v>
@@ -4809,7 +5625,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>583</v>
+        <v>855</v>
       </c>
       <c r="C5">
         <v>6510348</v>
@@ -4830,7 +5646,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>584</v>
+        <v>856</v>
       </c>
       <c r="C6">
         <v>6510348</v>
@@ -4851,7 +5667,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>585</v>
+        <v>857</v>
       </c>
       <c r="C7">
         <v>6510348</v>
@@ -4872,7 +5688,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>586</v>
+        <v>858</v>
       </c>
       <c r="C8">
         <v>6510348</v>
@@ -4893,7 +5709,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>587</v>
+        <v>859</v>
       </c>
       <c r="C9">
         <v>6510348</v>
@@ -4914,7 +5730,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>588</v>
+        <v>860</v>
       </c>
       <c r="C10">
         <v>6510348</v>
@@ -4935,7 +5751,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>589</v>
+        <v>861</v>
       </c>
       <c r="C11">
         <v>6510348</v>
@@ -4964,25 +5780,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>595</v>
+        <v>867</v>
       </c>
       <c r="B1" t="s">
-        <v>596</v>
+        <v>868</v>
       </c>
       <c r="C1" t="s">
-        <v>607</v>
+        <v>879</v>
       </c>
       <c r="D1" t="s">
-        <v>608</v>
+        <v>880</v>
       </c>
       <c r="E1" t="s">
-        <v>609</v>
+        <v>881</v>
       </c>
       <c r="F1" t="s">
-        <v>610</v>
+        <v>882</v>
       </c>
       <c r="G1" t="s">
-        <v>611</v>
+        <v>883</v>
       </c>
     </row>
     <row r="2">
@@ -4990,7 +5806,7 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>597</v>
+        <v>869</v>
       </c>
       <c r="C2">
         <v>6639010</v>
@@ -5011,7 +5827,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>598</v>
+        <v>870</v>
       </c>
       <c r="C3">
         <v>6639010</v>
@@ -5032,7 +5848,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>599</v>
+        <v>871</v>
       </c>
       <c r="C4">
         <v>6639010</v>
@@ -5053,7 +5869,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>600</v>
+        <v>872</v>
       </c>
       <c r="C5">
         <v>6639010</v>
@@ -5074,7 +5890,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>601</v>
+        <v>873</v>
       </c>
       <c r="C6">
         <v>6639010</v>
@@ -5095,7 +5911,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>602</v>
+        <v>874</v>
       </c>
       <c r="C7">
         <v>6639010</v>
@@ -5116,7 +5932,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>603</v>
+        <v>875</v>
       </c>
       <c r="C8">
         <v>6639010</v>
@@ -5137,7 +5953,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>604</v>
+        <v>876</v>
       </c>
       <c r="C9">
         <v>6639010</v>
@@ -5158,7 +5974,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>605</v>
+        <v>877</v>
       </c>
       <c r="C10">
         <v>6639010</v>
@@ -5179,7 +5995,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>606</v>
+        <v>878</v>
       </c>
       <c r="C11">
         <v>6639010</v>
@@ -5208,25 +6024,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>612</v>
+        <v>884</v>
       </c>
       <c r="B1" t="s">
-        <v>613</v>
+        <v>885</v>
       </c>
       <c r="C1" t="s">
-        <v>624</v>
+        <v>896</v>
       </c>
       <c r="D1" t="s">
-        <v>625</v>
+        <v>897</v>
       </c>
       <c r="E1" t="s">
-        <v>626</v>
+        <v>898</v>
       </c>
       <c r="F1" t="s">
-        <v>627</v>
+        <v>899</v>
       </c>
       <c r="G1" t="s">
-        <v>628</v>
+        <v>900</v>
       </c>
     </row>
     <row r="2">
@@ -5234,7 +6050,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>614</v>
+        <v>886</v>
       </c>
       <c r="C2">
         <v>6756786</v>
@@ -5255,7 +6071,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>615</v>
+        <v>887</v>
       </c>
       <c r="C3">
         <v>6756786</v>
@@ -5276,7 +6092,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>616</v>
+        <v>888</v>
       </c>
       <c r="C4">
         <v>6756786</v>
@@ -5297,7 +6113,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>617</v>
+        <v>889</v>
       </c>
       <c r="C5">
         <v>6756786</v>
@@ -5318,7 +6134,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>618</v>
+        <v>890</v>
       </c>
       <c r="C6">
         <v>6756786</v>
@@ -5339,7 +6155,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>619</v>
+        <v>891</v>
       </c>
       <c r="C7">
         <v>6756786</v>
@@ -5360,7 +6176,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>620</v>
+        <v>892</v>
       </c>
       <c r="C8">
         <v>6756786</v>
@@ -5381,7 +6197,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>621</v>
+        <v>893</v>
       </c>
       <c r="C9">
         <v>6756786</v>
@@ -5402,7 +6218,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>622</v>
+        <v>894</v>
       </c>
       <c r="C10">
         <v>6756786</v>
@@ -5423,7 +6239,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>623</v>
+        <v>895</v>
       </c>
       <c r="C11">
         <v>6756786</v>
@@ -5452,25 +6268,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>629</v>
+        <v>901</v>
       </c>
       <c r="B1" t="s">
-        <v>630</v>
+        <v>902</v>
       </c>
       <c r="C1" t="s">
-        <v>641</v>
+        <v>913</v>
       </c>
       <c r="D1" t="s">
-        <v>642</v>
+        <v>914</v>
       </c>
       <c r="E1" t="s">
-        <v>643</v>
+        <v>915</v>
       </c>
       <c r="F1" t="s">
-        <v>644</v>
+        <v>916</v>
       </c>
       <c r="G1" t="s">
-        <v>645</v>
+        <v>917</v>
       </c>
     </row>
     <row r="2">
@@ -5478,7 +6294,7 @@
         <v>2005</v>
       </c>
       <c r="B2" t="s">
-        <v>631</v>
+        <v>903</v>
       </c>
       <c r="C2">
         <v>6864080</v>
@@ -5499,7 +6315,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>632</v>
+        <v>904</v>
       </c>
       <c r="C3">
         <v>6864080</v>
@@ -5520,7 +6336,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>633</v>
+        <v>905</v>
       </c>
       <c r="C4">
         <v>6864080</v>
@@ -5541,7 +6357,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>634</v>
+        <v>906</v>
       </c>
       <c r="C5">
         <v>6864080</v>
@@ -5562,7 +6378,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>635</v>
+        <v>907</v>
       </c>
       <c r="C6">
         <v>6864080</v>
@@ -5583,7 +6399,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>636</v>
+        <v>908</v>
       </c>
       <c r="C7">
         <v>6864080</v>
@@ -5604,7 +6420,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>637</v>
+        <v>909</v>
       </c>
       <c r="C8">
         <v>6864080</v>
@@ -5625,7 +6441,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>638</v>
+        <v>910</v>
       </c>
       <c r="C9">
         <v>6864080</v>
@@ -5646,7 +6462,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>639</v>
+        <v>911</v>
       </c>
       <c r="C10">
         <v>6864080</v>
@@ -5667,7 +6483,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>640</v>
+        <v>912</v>
       </c>
       <c r="C11">
         <v>6864080</v>
@@ -5696,25 +6512,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>646</v>
+        <v>918</v>
       </c>
       <c r="B1" t="s">
-        <v>647</v>
+        <v>919</v>
       </c>
       <c r="C1" t="s">
-        <v>658</v>
+        <v>930</v>
       </c>
       <c r="D1" t="s">
-        <v>659</v>
+        <v>931</v>
       </c>
       <c r="E1" t="s">
-        <v>660</v>
+        <v>932</v>
       </c>
       <c r="F1" t="s">
-        <v>661</v>
+        <v>933</v>
       </c>
       <c r="G1" t="s">
-        <v>662</v>
+        <v>934</v>
       </c>
     </row>
     <row r="2">
@@ -5722,7 +6538,7 @@
         <v>2006</v>
       </c>
       <c r="B2" t="s">
-        <v>648</v>
+        <v>920</v>
       </c>
       <c r="C2">
         <v>6980279</v>
@@ -5743,7 +6559,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>649</v>
+        <v>921</v>
       </c>
       <c r="C3">
         <v>6980279</v>
@@ -5764,7 +6580,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>650</v>
+        <v>922</v>
       </c>
       <c r="C4">
         <v>6980279</v>
@@ -5785,7 +6601,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>651</v>
+        <v>923</v>
       </c>
       <c r="C5">
         <v>6980279</v>
@@ -5806,7 +6622,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>652</v>
+        <v>924</v>
       </c>
       <c r="C6">
         <v>6980279</v>
@@ -5827,7 +6643,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>653</v>
+        <v>925</v>
       </c>
       <c r="C7">
         <v>6980279</v>
@@ -5848,7 +6664,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>654</v>
+        <v>926</v>
       </c>
       <c r="C8">
         <v>6980279</v>
@@ -5869,7 +6685,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>655</v>
+        <v>927</v>
       </c>
       <c r="C9">
         <v>6980279</v>
@@ -5890,7 +6706,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>656</v>
+        <v>928</v>
       </c>
       <c r="C10">
         <v>6980279</v>
@@ -5911,7 +6727,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>657</v>
+        <v>929</v>
       </c>
       <c r="C11">
         <v>6980279</v>
@@ -5940,25 +6756,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>663</v>
+        <v>935</v>
       </c>
       <c r="B1" t="s">
-        <v>664</v>
+        <v>936</v>
       </c>
       <c r="C1" t="s">
-        <v>675</v>
+        <v>947</v>
       </c>
       <c r="D1" t="s">
-        <v>676</v>
+        <v>948</v>
       </c>
       <c r="E1" t="s">
-        <v>677</v>
+        <v>949</v>
       </c>
       <c r="F1" t="s">
-        <v>678</v>
+        <v>950</v>
       </c>
       <c r="G1" t="s">
-        <v>679</v>
+        <v>951</v>
       </c>
     </row>
     <row r="2">
@@ -5966,7 +6782,7 @@
         <v>2007</v>
       </c>
       <c r="B2" t="s">
-        <v>665</v>
+        <v>937</v>
       </c>
       <c r="C2">
         <v>5744575</v>
@@ -5987,7 +6803,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>666</v>
+        <v>938</v>
       </c>
       <c r="C3">
         <v>5744575</v>
@@ -6008,7 +6824,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>667</v>
+        <v>939</v>
       </c>
       <c r="C4">
         <v>5744575</v>
@@ -6029,7 +6845,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>668</v>
+        <v>940</v>
       </c>
       <c r="C5">
         <v>5744575</v>
@@ -6050,7 +6866,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>669</v>
+        <v>941</v>
       </c>
       <c r="C6">
         <v>5744575</v>
@@ -6071,7 +6887,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>670</v>
+        <v>942</v>
       </c>
       <c r="C7">
         <v>5744575</v>
@@ -6092,7 +6908,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>671</v>
+        <v>943</v>
       </c>
       <c r="C8">
         <v>5744575</v>
@@ -6113,7 +6929,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>672</v>
+        <v>944</v>
       </c>
       <c r="C9">
         <v>5744575</v>
@@ -6134,7 +6950,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>673</v>
+        <v>945</v>
       </c>
       <c r="C10">
         <v>5744575</v>
@@ -6155,7 +6971,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>674</v>
+        <v>946</v>
       </c>
       <c r="C11">
         <v>5744575</v>
@@ -6184,25 +7000,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>680</v>
+        <v>952</v>
       </c>
       <c r="B1" t="s">
-        <v>681</v>
+        <v>953</v>
       </c>
       <c r="C1" t="s">
-        <v>692</v>
+        <v>964</v>
       </c>
       <c r="D1" t="s">
-        <v>693</v>
+        <v>965</v>
       </c>
       <c r="E1" t="s">
-        <v>694</v>
+        <v>966</v>
       </c>
       <c r="F1" t="s">
-        <v>695</v>
+        <v>967</v>
       </c>
       <c r="G1" t="s">
-        <v>696</v>
+        <v>968</v>
       </c>
     </row>
     <row r="2">
@@ -6210,7 +7026,7 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>682</v>
+        <v>954</v>
       </c>
       <c r="C2">
         <v>6150953</v>
@@ -6231,7 +7047,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>683</v>
+        <v>955</v>
       </c>
       <c r="C3">
         <v>6150953</v>
@@ -6252,7 +7068,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>684</v>
+        <v>956</v>
       </c>
       <c r="C4">
         <v>6150953</v>
@@ -6273,7 +7089,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>685</v>
+        <v>957</v>
       </c>
       <c r="C5">
         <v>6150953</v>
@@ -6294,7 +7110,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>686</v>
+        <v>958</v>
       </c>
       <c r="C6">
         <v>6150953</v>
@@ -6315,7 +7131,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>687</v>
+        <v>959</v>
       </c>
       <c r="C7">
         <v>6150953</v>
@@ -6336,7 +7152,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>688</v>
+        <v>960</v>
       </c>
       <c r="C8">
         <v>6150953</v>
@@ -6357,7 +7173,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>689</v>
+        <v>961</v>
       </c>
       <c r="C9">
         <v>6150953</v>
@@ -6378,7 +7194,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>690</v>
+        <v>962</v>
       </c>
       <c r="C10">
         <v>6150953</v>
@@ -6399,7 +7215,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>691</v>
+        <v>963</v>
       </c>
       <c r="C11">
         <v>6150953</v>

--- a/input_data/admin_data/SLV/_clean/total-SLV.xlsx
+++ b/input_data/admin_data/SLV/_clean/total-SLV.xlsx
@@ -28,7 +28,1639 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="1632">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -3340,25 +4972,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>816</v>
+        <v>1360</v>
       </c>
       <c r="B1" t="s">
-        <v>817</v>
+        <v>1361</v>
       </c>
       <c r="C1" t="s">
-        <v>828</v>
+        <v>1372</v>
       </c>
       <c r="D1" t="s">
-        <v>829</v>
+        <v>1373</v>
       </c>
       <c r="E1" t="s">
-        <v>830</v>
+        <v>1374</v>
       </c>
       <c r="F1" t="s">
-        <v>831</v>
+        <v>1375</v>
       </c>
       <c r="G1" t="s">
-        <v>832</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2">
@@ -3366,7 +4998,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>818</v>
+        <v>1362</v>
       </c>
       <c r="C2">
         <v>6272353</v>
@@ -3387,7 +5019,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>819</v>
+        <v>1363</v>
       </c>
       <c r="C3">
         <v>6272353</v>
@@ -3408,7 +5040,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>820</v>
+        <v>1364</v>
       </c>
       <c r="C4">
         <v>6272353</v>
@@ -3429,7 +5061,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>821</v>
+        <v>1365</v>
       </c>
       <c r="C5">
         <v>6272353</v>
@@ -3450,7 +5082,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>822</v>
+        <v>1366</v>
       </c>
       <c r="C6">
         <v>6272353</v>
@@ -3471,7 +5103,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>823</v>
+        <v>1367</v>
       </c>
       <c r="C7">
         <v>6272353</v>
@@ -3492,7 +5124,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>824</v>
+        <v>1368</v>
       </c>
       <c r="C8">
         <v>6272353</v>
@@ -3513,7 +5145,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>825</v>
+        <v>1369</v>
       </c>
       <c r="C9">
         <v>6272353</v>
@@ -3534,7 +5166,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>826</v>
+        <v>1370</v>
       </c>
       <c r="C10">
         <v>6272353</v>
@@ -3555,7 +5187,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>827</v>
+        <v>1371</v>
       </c>
       <c r="C11">
         <v>6272353</v>
@@ -3584,25 +5216,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>969</v>
+        <v>1513</v>
       </c>
       <c r="B1" t="s">
-        <v>970</v>
+        <v>1514</v>
       </c>
       <c r="C1" t="s">
-        <v>981</v>
+        <v>1525</v>
       </c>
       <c r="D1" t="s">
-        <v>982</v>
+        <v>1526</v>
       </c>
       <c r="E1" t="s">
-        <v>983</v>
+        <v>1527</v>
       </c>
       <c r="F1" t="s">
-        <v>984</v>
+        <v>1528</v>
       </c>
       <c r="G1" t="s">
-        <v>985</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="2">
@@ -3610,7 +5242,7 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>971</v>
+        <v>1515</v>
       </c>
       <c r="C2">
         <v>6181405</v>
@@ -3631,7 +5263,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>972</v>
+        <v>1516</v>
       </c>
       <c r="C3">
         <v>6181405</v>
@@ -3652,7 +5284,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>973</v>
+        <v>1517</v>
       </c>
       <c r="C4">
         <v>6181405</v>
@@ -3673,7 +5305,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>974</v>
+        <v>1518</v>
       </c>
       <c r="C5">
         <v>6181405</v>
@@ -3694,7 +5326,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>975</v>
+        <v>1519</v>
       </c>
       <c r="C6">
         <v>6181405</v>
@@ -3715,7 +5347,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>976</v>
+        <v>1520</v>
       </c>
       <c r="C7">
         <v>6181405</v>
@@ -3736,7 +5368,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>977</v>
+        <v>1521</v>
       </c>
       <c r="C8">
         <v>6181405</v>
@@ -3757,7 +5389,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>978</v>
+        <v>1522</v>
       </c>
       <c r="C9">
         <v>6181405</v>
@@ -3778,7 +5410,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>979</v>
+        <v>1523</v>
       </c>
       <c r="C10">
         <v>6181405</v>
@@ -3799,7 +5431,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>980</v>
+        <v>1524</v>
       </c>
       <c r="C11">
         <v>6181405</v>
@@ -3828,25 +5460,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>986</v>
+        <v>1530</v>
       </c>
       <c r="B1" t="s">
-        <v>987</v>
+        <v>1531</v>
       </c>
       <c r="C1" t="s">
-        <v>998</v>
+        <v>1542</v>
       </c>
       <c r="D1" t="s">
-        <v>999</v>
+        <v>1543</v>
       </c>
       <c r="E1" t="s">
-        <v>1000</v>
+        <v>1544</v>
       </c>
       <c r="F1" t="s">
-        <v>1001</v>
+        <v>1545</v>
       </c>
       <c r="G1" t="s">
-        <v>1002</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="2">
@@ -3854,7 +5486,7 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>988</v>
+        <v>1532</v>
       </c>
       <c r="C2">
         <v>6249262</v>
@@ -3875,7 +5507,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>989</v>
+        <v>1533</v>
       </c>
       <c r="C3">
         <v>6249262</v>
@@ -3896,7 +5528,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>990</v>
+        <v>1534</v>
       </c>
       <c r="C4">
         <v>6249262</v>
@@ -3917,7 +5549,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>991</v>
+        <v>1535</v>
       </c>
       <c r="C5">
         <v>6249262</v>
@@ -3938,7 +5570,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>992</v>
+        <v>1536</v>
       </c>
       <c r="C6">
         <v>6249262</v>
@@ -3959,7 +5591,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>993</v>
+        <v>1537</v>
       </c>
       <c r="C7">
         <v>6249262</v>
@@ -3980,7 +5612,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>994</v>
+        <v>1538</v>
       </c>
       <c r="C8">
         <v>6249262</v>
@@ -4001,7 +5633,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>995</v>
+        <v>1539</v>
       </c>
       <c r="C9">
         <v>6249262</v>
@@ -4022,7 +5654,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>996</v>
+        <v>1540</v>
       </c>
       <c r="C10">
         <v>6249262</v>
@@ -4043,7 +5675,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>997</v>
+        <v>1541</v>
       </c>
       <c r="C11">
         <v>6249262</v>
@@ -4072,25 +5704,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1003</v>
+        <v>1547</v>
       </c>
       <c r="B1" t="s">
-        <v>1004</v>
+        <v>1548</v>
       </c>
       <c r="C1" t="s">
-        <v>1015</v>
+        <v>1559</v>
       </c>
       <c r="D1" t="s">
-        <v>1016</v>
+        <v>1560</v>
       </c>
       <c r="E1" t="s">
-        <v>1017</v>
+        <v>1561</v>
       </c>
       <c r="F1" t="s">
-        <v>1018</v>
+        <v>1562</v>
       </c>
       <c r="G1" t="s">
-        <v>1019</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="2">
@@ -4098,7 +5730,7 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>1005</v>
+        <v>1549</v>
       </c>
       <c r="C2">
         <v>6290383</v>
@@ -4119,7 +5751,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1006</v>
+        <v>1550</v>
       </c>
       <c r="C3">
         <v>6290383</v>
@@ -4140,7 +5772,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1007</v>
+        <v>1551</v>
       </c>
       <c r="C4">
         <v>6290383</v>
@@ -4161,7 +5793,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1008</v>
+        <v>1552</v>
       </c>
       <c r="C5">
         <v>6290383</v>
@@ -4182,7 +5814,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1009</v>
+        <v>1553</v>
       </c>
       <c r="C6">
         <v>6290383</v>
@@ -4203,7 +5835,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1010</v>
+        <v>1554</v>
       </c>
       <c r="C7">
         <v>6290383</v>
@@ -4224,7 +5856,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1011</v>
+        <v>1555</v>
       </c>
       <c r="C8">
         <v>6290383</v>
@@ -4245,7 +5877,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1012</v>
+        <v>1556</v>
       </c>
       <c r="C9">
         <v>6290383</v>
@@ -4266,7 +5898,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1013</v>
+        <v>1557</v>
       </c>
       <c r="C10">
         <v>6290383</v>
@@ -4287,7 +5919,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1014</v>
+        <v>1558</v>
       </c>
       <c r="C11">
         <v>6290383</v>
@@ -4316,25 +5948,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1020</v>
+        <v>1564</v>
       </c>
       <c r="B1" t="s">
-        <v>1021</v>
+        <v>1565</v>
       </c>
       <c r="C1" t="s">
-        <v>1032</v>
+        <v>1576</v>
       </c>
       <c r="D1" t="s">
-        <v>1033</v>
+        <v>1577</v>
       </c>
       <c r="E1" t="s">
-        <v>1034</v>
+        <v>1578</v>
       </c>
       <c r="F1" t="s">
-        <v>1035</v>
+        <v>1579</v>
       </c>
       <c r="G1" t="s">
-        <v>1036</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="2">
@@ -4342,7 +5974,7 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>1022</v>
+        <v>1566</v>
       </c>
       <c r="C2">
         <v>6401415</v>
@@ -4363,7 +5995,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1023</v>
+        <v>1567</v>
       </c>
       <c r="C3">
         <v>6401415</v>
@@ -4384,7 +6016,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1024</v>
+        <v>1568</v>
       </c>
       <c r="C4">
         <v>6401415</v>
@@ -4405,7 +6037,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1025</v>
+        <v>1569</v>
       </c>
       <c r="C5">
         <v>6401415</v>
@@ -4426,7 +6058,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1026</v>
+        <v>1570</v>
       </c>
       <c r="C6">
         <v>6401415</v>
@@ -4447,7 +6079,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1027</v>
+        <v>1571</v>
       </c>
       <c r="C7">
         <v>6401415</v>
@@ -4468,7 +6100,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1028</v>
+        <v>1572</v>
       </c>
       <c r="C8">
         <v>6401415</v>
@@ -4489,7 +6121,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1029</v>
+        <v>1573</v>
       </c>
       <c r="C9">
         <v>6401415</v>
@@ -4510,7 +6142,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1030</v>
+        <v>1574</v>
       </c>
       <c r="C10">
         <v>6401415</v>
@@ -4531,7 +6163,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1031</v>
+        <v>1575</v>
       </c>
       <c r="C11">
         <v>6401415</v>
@@ -4560,25 +6192,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1037</v>
+        <v>1581</v>
       </c>
       <c r="B1" t="s">
-        <v>1038</v>
+        <v>1582</v>
       </c>
       <c r="C1" t="s">
-        <v>1049</v>
+        <v>1593</v>
       </c>
       <c r="D1" t="s">
-        <v>1050</v>
+        <v>1594</v>
       </c>
       <c r="E1" t="s">
-        <v>1051</v>
+        <v>1595</v>
       </c>
       <c r="F1" t="s">
-        <v>1052</v>
+        <v>1596</v>
       </c>
       <c r="G1" t="s">
-        <v>1053</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="2">
@@ -4586,7 +6218,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>1039</v>
+        <v>1583</v>
       </c>
       <c r="C2">
         <v>6459911</v>
@@ -4607,7 +6239,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1040</v>
+        <v>1584</v>
       </c>
       <c r="C3">
         <v>6459911</v>
@@ -4628,7 +6260,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1041</v>
+        <v>1585</v>
       </c>
       <c r="C4">
         <v>6459911</v>
@@ -4649,7 +6281,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1042</v>
+        <v>1586</v>
       </c>
       <c r="C5">
         <v>6459911</v>
@@ -4670,7 +6302,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1043</v>
+        <v>1587</v>
       </c>
       <c r="C6">
         <v>6459911</v>
@@ -4691,7 +6323,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1044</v>
+        <v>1588</v>
       </c>
       <c r="C7">
         <v>6459911</v>
@@ -4712,7 +6344,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1045</v>
+        <v>1589</v>
       </c>
       <c r="C8">
         <v>6459911</v>
@@ -4733,7 +6365,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1046</v>
+        <v>1590</v>
       </c>
       <c r="C9">
         <v>6459911</v>
@@ -4754,7 +6386,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1047</v>
+        <v>1591</v>
       </c>
       <c r="C10">
         <v>6459911</v>
@@ -4775,7 +6407,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1048</v>
+        <v>1592</v>
       </c>
       <c r="C11">
         <v>6459911</v>
@@ -4804,25 +6436,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1054</v>
+        <v>1598</v>
       </c>
       <c r="B1" t="s">
-        <v>1055</v>
+        <v>1599</v>
       </c>
       <c r="C1" t="s">
-        <v>1066</v>
+        <v>1610</v>
       </c>
       <c r="D1" t="s">
-        <v>1067</v>
+        <v>1611</v>
       </c>
       <c r="E1" t="s">
-        <v>1068</v>
+        <v>1612</v>
       </c>
       <c r="F1" t="s">
-        <v>1069</v>
+        <v>1613</v>
       </c>
       <c r="G1" t="s">
-        <v>1070</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="2">
@@ -4830,7 +6462,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>1056</v>
+        <v>1600</v>
       </c>
       <c r="C2">
         <v>6522419</v>
@@ -4851,7 +6483,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1057</v>
+        <v>1601</v>
       </c>
       <c r="C3">
         <v>6522419</v>
@@ -4872,7 +6504,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1058</v>
+        <v>1602</v>
       </c>
       <c r="C4">
         <v>6522419</v>
@@ -4893,7 +6525,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1059</v>
+        <v>1603</v>
       </c>
       <c r="C5">
         <v>6522419</v>
@@ -4914,7 +6546,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1060</v>
+        <v>1604</v>
       </c>
       <c r="C6">
         <v>6522419</v>
@@ -4935,7 +6567,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1061</v>
+        <v>1605</v>
       </c>
       <c r="C7">
         <v>6522419</v>
@@ -4956,7 +6588,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1062</v>
+        <v>1606</v>
       </c>
       <c r="C8">
         <v>6522419</v>
@@ -4977,7 +6609,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1063</v>
+        <v>1607</v>
       </c>
       <c r="C9">
         <v>6522419</v>
@@ -4998,7 +6630,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1064</v>
+        <v>1608</v>
       </c>
       <c r="C10">
         <v>6522419</v>
@@ -5019,7 +6651,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1065</v>
+        <v>1609</v>
       </c>
       <c r="C11">
         <v>6522419</v>
@@ -5048,25 +6680,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1071</v>
+        <v>1615</v>
       </c>
       <c r="B1" t="s">
-        <v>1072</v>
+        <v>1616</v>
       </c>
       <c r="C1" t="s">
-        <v>1083</v>
+        <v>1627</v>
       </c>
       <c r="D1" t="s">
-        <v>1084</v>
+        <v>1628</v>
       </c>
       <c r="E1" t="s">
-        <v>1085</v>
+        <v>1629</v>
       </c>
       <c r="F1" t="s">
-        <v>1086</v>
+        <v>1630</v>
       </c>
       <c r="G1" t="s">
-        <v>1087</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="2">
@@ -5074,7 +6706,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>1073</v>
+        <v>1617</v>
       </c>
       <c r="C2">
         <v>6581860</v>
@@ -5095,7 +6727,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1074</v>
+        <v>1618</v>
       </c>
       <c r="C3">
         <v>6581860</v>
@@ -5116,7 +6748,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1075</v>
+        <v>1619</v>
       </c>
       <c r="C4">
         <v>6581860</v>
@@ -5137,7 +6769,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1076</v>
+        <v>1620</v>
       </c>
       <c r="C5">
         <v>6581860</v>
@@ -5158,7 +6790,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1077</v>
+        <v>1621</v>
       </c>
       <c r="C6">
         <v>6581860</v>
@@ -5179,7 +6811,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1078</v>
+        <v>1622</v>
       </c>
       <c r="C7">
         <v>6581860</v>
@@ -5200,7 +6832,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1079</v>
+        <v>1623</v>
       </c>
       <c r="C8">
         <v>6581860</v>
@@ -5221,7 +6853,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1080</v>
+        <v>1624</v>
       </c>
       <c r="C9">
         <v>6581860</v>
@@ -5242,7 +6874,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1081</v>
+        <v>1625</v>
       </c>
       <c r="C10">
         <v>6581860</v>
@@ -5263,7 +6895,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1082</v>
+        <v>1626</v>
       </c>
       <c r="C11">
         <v>6581860</v>
@@ -5292,25 +6924,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>833</v>
+        <v>1377</v>
       </c>
       <c r="B1" t="s">
-        <v>834</v>
+        <v>1378</v>
       </c>
       <c r="C1" t="s">
-        <v>845</v>
+        <v>1389</v>
       </c>
       <c r="D1" t="s">
-        <v>846</v>
+        <v>1390</v>
       </c>
       <c r="E1" t="s">
-        <v>847</v>
+        <v>1391</v>
       </c>
       <c r="F1" t="s">
-        <v>848</v>
+        <v>1392</v>
       </c>
       <c r="G1" t="s">
-        <v>849</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="2">
@@ -5318,7 +6950,7 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>835</v>
+        <v>1379</v>
       </c>
       <c r="C2">
         <v>6428672</v>
@@ -5339,7 +6971,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>836</v>
+        <v>1380</v>
       </c>
       <c r="C3">
         <v>6428672</v>
@@ -5360,7 +6992,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>837</v>
+        <v>1381</v>
       </c>
       <c r="C4">
         <v>6428672</v>
@@ -5381,7 +7013,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>838</v>
+        <v>1382</v>
       </c>
       <c r="C5">
         <v>6428672</v>
@@ -5402,7 +7034,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>839</v>
+        <v>1383</v>
       </c>
       <c r="C6">
         <v>6428672</v>
@@ -5423,7 +7055,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>840</v>
+        <v>1384</v>
       </c>
       <c r="C7">
         <v>6428672</v>
@@ -5444,7 +7076,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>841</v>
+        <v>1385</v>
       </c>
       <c r="C8">
         <v>6428672</v>
@@ -5465,7 +7097,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>842</v>
+        <v>1386</v>
       </c>
       <c r="C9">
         <v>6428672</v>
@@ -5486,7 +7118,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>843</v>
+        <v>1387</v>
       </c>
       <c r="C10">
         <v>6428672</v>
@@ -5507,7 +7139,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>844</v>
+        <v>1388</v>
       </c>
       <c r="C11">
         <v>6428672</v>
@@ -5536,25 +7168,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>850</v>
+        <v>1394</v>
       </c>
       <c r="B1" t="s">
-        <v>851</v>
+        <v>1395</v>
       </c>
       <c r="C1" t="s">
-        <v>862</v>
+        <v>1406</v>
       </c>
       <c r="D1" t="s">
-        <v>863</v>
+        <v>1407</v>
       </c>
       <c r="E1" t="s">
-        <v>864</v>
+        <v>1408</v>
       </c>
       <c r="F1" t="s">
-        <v>865</v>
+        <v>1409</v>
       </c>
       <c r="G1" t="s">
-        <v>866</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="2">
@@ -5562,7 +7194,7 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>852</v>
+        <v>1396</v>
       </c>
       <c r="C2">
         <v>6510348</v>
@@ -5583,7 +7215,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>853</v>
+        <v>1397</v>
       </c>
       <c r="C3">
         <v>6510348</v>
@@ -5604,7 +7236,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>854</v>
+        <v>1398</v>
       </c>
       <c r="C4">
         <v>6510348</v>
@@ -5625,7 +7257,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>855</v>
+        <v>1399</v>
       </c>
       <c r="C5">
         <v>6510348</v>
@@ -5646,7 +7278,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>856</v>
+        <v>1400</v>
       </c>
       <c r="C6">
         <v>6510348</v>
@@ -5667,7 +7299,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>857</v>
+        <v>1401</v>
       </c>
       <c r="C7">
         <v>6510348</v>
@@ -5688,7 +7320,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>858</v>
+        <v>1402</v>
       </c>
       <c r="C8">
         <v>6510348</v>
@@ -5709,7 +7341,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>859</v>
+        <v>1403</v>
       </c>
       <c r="C9">
         <v>6510348</v>
@@ -5730,7 +7362,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>860</v>
+        <v>1404</v>
       </c>
       <c r="C10">
         <v>6510348</v>
@@ -5751,7 +7383,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>861</v>
+        <v>1405</v>
       </c>
       <c r="C11">
         <v>6510348</v>
@@ -5780,25 +7412,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>867</v>
+        <v>1411</v>
       </c>
       <c r="B1" t="s">
-        <v>868</v>
+        <v>1412</v>
       </c>
       <c r="C1" t="s">
-        <v>879</v>
+        <v>1423</v>
       </c>
       <c r="D1" t="s">
-        <v>880</v>
+        <v>1424</v>
       </c>
       <c r="E1" t="s">
-        <v>881</v>
+        <v>1425</v>
       </c>
       <c r="F1" t="s">
-        <v>882</v>
+        <v>1426</v>
       </c>
       <c r="G1" t="s">
-        <v>883</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="2">
@@ -5806,7 +7438,7 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>869</v>
+        <v>1413</v>
       </c>
       <c r="C2">
         <v>6639010</v>
@@ -5827,7 +7459,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>870</v>
+        <v>1414</v>
       </c>
       <c r="C3">
         <v>6639010</v>
@@ -5848,7 +7480,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>871</v>
+        <v>1415</v>
       </c>
       <c r="C4">
         <v>6639010</v>
@@ -5869,7 +7501,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>872</v>
+        <v>1416</v>
       </c>
       <c r="C5">
         <v>6639010</v>
@@ -5890,7 +7522,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>873</v>
+        <v>1417</v>
       </c>
       <c r="C6">
         <v>6639010</v>
@@ -5911,7 +7543,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>874</v>
+        <v>1418</v>
       </c>
       <c r="C7">
         <v>6639010</v>
@@ -5932,7 +7564,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>875</v>
+        <v>1419</v>
       </c>
       <c r="C8">
         <v>6639010</v>
@@ -5953,7 +7585,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>876</v>
+        <v>1420</v>
       </c>
       <c r="C9">
         <v>6639010</v>
@@ -5974,7 +7606,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>877</v>
+        <v>1421</v>
       </c>
       <c r="C10">
         <v>6639010</v>
@@ -5995,7 +7627,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>878</v>
+        <v>1422</v>
       </c>
       <c r="C11">
         <v>6639010</v>
@@ -6024,25 +7656,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>884</v>
+        <v>1428</v>
       </c>
       <c r="B1" t="s">
-        <v>885</v>
+        <v>1429</v>
       </c>
       <c r="C1" t="s">
-        <v>896</v>
+        <v>1440</v>
       </c>
       <c r="D1" t="s">
-        <v>897</v>
+        <v>1441</v>
       </c>
       <c r="E1" t="s">
-        <v>898</v>
+        <v>1442</v>
       </c>
       <c r="F1" t="s">
-        <v>899</v>
+        <v>1443</v>
       </c>
       <c r="G1" t="s">
-        <v>900</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="2">
@@ -6050,7 +7682,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>886</v>
+        <v>1430</v>
       </c>
       <c r="C2">
         <v>6756786</v>
@@ -6071,7 +7703,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>887</v>
+        <v>1431</v>
       </c>
       <c r="C3">
         <v>6756786</v>
@@ -6092,7 +7724,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>888</v>
+        <v>1432</v>
       </c>
       <c r="C4">
         <v>6756786</v>
@@ -6113,7 +7745,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>889</v>
+        <v>1433</v>
       </c>
       <c r="C5">
         <v>6756786</v>
@@ -6134,7 +7766,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>890</v>
+        <v>1434</v>
       </c>
       <c r="C6">
         <v>6756786</v>
@@ -6155,7 +7787,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>891</v>
+        <v>1435</v>
       </c>
       <c r="C7">
         <v>6756786</v>
@@ -6176,7 +7808,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>892</v>
+        <v>1436</v>
       </c>
       <c r="C8">
         <v>6756786</v>
@@ -6197,7 +7829,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>893</v>
+        <v>1437</v>
       </c>
       <c r="C9">
         <v>6756786</v>
@@ -6218,7 +7850,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>894</v>
+        <v>1438</v>
       </c>
       <c r="C10">
         <v>6756786</v>
@@ -6239,7 +7871,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>895</v>
+        <v>1439</v>
       </c>
       <c r="C11">
         <v>6756786</v>
@@ -6268,25 +7900,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>901</v>
+        <v>1445</v>
       </c>
       <c r="B1" t="s">
-        <v>902</v>
+        <v>1446</v>
       </c>
       <c r="C1" t="s">
-        <v>913</v>
+        <v>1457</v>
       </c>
       <c r="D1" t="s">
-        <v>914</v>
+        <v>1458</v>
       </c>
       <c r="E1" t="s">
-        <v>915</v>
+        <v>1459</v>
       </c>
       <c r="F1" t="s">
-        <v>916</v>
+        <v>1460</v>
       </c>
       <c r="G1" t="s">
-        <v>917</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="2">
@@ -6294,7 +7926,7 @@
         <v>2005</v>
       </c>
       <c r="B2" t="s">
-        <v>903</v>
+        <v>1447</v>
       </c>
       <c r="C2">
         <v>6864080</v>
@@ -6315,7 +7947,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>904</v>
+        <v>1448</v>
       </c>
       <c r="C3">
         <v>6864080</v>
@@ -6336,7 +7968,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>905</v>
+        <v>1449</v>
       </c>
       <c r="C4">
         <v>6864080</v>
@@ -6357,7 +7989,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>906</v>
+        <v>1450</v>
       </c>
       <c r="C5">
         <v>6864080</v>
@@ -6378,7 +8010,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>907</v>
+        <v>1451</v>
       </c>
       <c r="C6">
         <v>6864080</v>
@@ -6399,7 +8031,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>908</v>
+        <v>1452</v>
       </c>
       <c r="C7">
         <v>6864080</v>
@@ -6420,7 +8052,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>909</v>
+        <v>1453</v>
       </c>
       <c r="C8">
         <v>6864080</v>
@@ -6441,7 +8073,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>910</v>
+        <v>1454</v>
       </c>
       <c r="C9">
         <v>6864080</v>
@@ -6462,7 +8094,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>911</v>
+        <v>1455</v>
       </c>
       <c r="C10">
         <v>6864080</v>
@@ -6483,7 +8115,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>912</v>
+        <v>1456</v>
       </c>
       <c r="C11">
         <v>6864080</v>
@@ -6512,25 +8144,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>918</v>
+        <v>1462</v>
       </c>
       <c r="B1" t="s">
-        <v>919</v>
+        <v>1463</v>
       </c>
       <c r="C1" t="s">
-        <v>930</v>
+        <v>1474</v>
       </c>
       <c r="D1" t="s">
-        <v>931</v>
+        <v>1475</v>
       </c>
       <c r="E1" t="s">
-        <v>932</v>
+        <v>1476</v>
       </c>
       <c r="F1" t="s">
-        <v>933</v>
+        <v>1477</v>
       </c>
       <c r="G1" t="s">
-        <v>934</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="2">
@@ -6538,7 +8170,7 @@
         <v>2006</v>
       </c>
       <c r="B2" t="s">
-        <v>920</v>
+        <v>1464</v>
       </c>
       <c r="C2">
         <v>6980279</v>
@@ -6559,7 +8191,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>921</v>
+        <v>1465</v>
       </c>
       <c r="C3">
         <v>6980279</v>
@@ -6580,7 +8212,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>922</v>
+        <v>1466</v>
       </c>
       <c r="C4">
         <v>6980279</v>
@@ -6601,7 +8233,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>923</v>
+        <v>1467</v>
       </c>
       <c r="C5">
         <v>6980279</v>
@@ -6622,7 +8254,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>924</v>
+        <v>1468</v>
       </c>
       <c r="C6">
         <v>6980279</v>
@@ -6643,7 +8275,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>925</v>
+        <v>1469</v>
       </c>
       <c r="C7">
         <v>6980279</v>
@@ -6664,7 +8296,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>926</v>
+        <v>1470</v>
       </c>
       <c r="C8">
         <v>6980279</v>
@@ -6685,7 +8317,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>927</v>
+        <v>1471</v>
       </c>
       <c r="C9">
         <v>6980279</v>
@@ -6706,7 +8338,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>928</v>
+        <v>1472</v>
       </c>
       <c r="C10">
         <v>6980279</v>
@@ -6727,7 +8359,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>929</v>
+        <v>1473</v>
       </c>
       <c r="C11">
         <v>6980279</v>
@@ -6756,25 +8388,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>935</v>
+        <v>1479</v>
       </c>
       <c r="B1" t="s">
-        <v>936</v>
+        <v>1480</v>
       </c>
       <c r="C1" t="s">
-        <v>947</v>
+        <v>1491</v>
       </c>
       <c r="D1" t="s">
-        <v>948</v>
+        <v>1492</v>
       </c>
       <c r="E1" t="s">
-        <v>949</v>
+        <v>1493</v>
       </c>
       <c r="F1" t="s">
-        <v>950</v>
+        <v>1494</v>
       </c>
       <c r="G1" t="s">
-        <v>951</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="2">
@@ -6782,7 +8414,7 @@
         <v>2007</v>
       </c>
       <c r="B2" t="s">
-        <v>937</v>
+        <v>1481</v>
       </c>
       <c r="C2">
         <v>5744575</v>
@@ -6803,7 +8435,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>938</v>
+        <v>1482</v>
       </c>
       <c r="C3">
         <v>5744575</v>
@@ -6824,7 +8456,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>939</v>
+        <v>1483</v>
       </c>
       <c r="C4">
         <v>5744575</v>
@@ -6845,7 +8477,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>940</v>
+        <v>1484</v>
       </c>
       <c r="C5">
         <v>5744575</v>
@@ -6866,7 +8498,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>941</v>
+        <v>1485</v>
       </c>
       <c r="C6">
         <v>5744575</v>
@@ -6887,7 +8519,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>942</v>
+        <v>1486</v>
       </c>
       <c r="C7">
         <v>5744575</v>
@@ -6908,7 +8540,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>943</v>
+        <v>1487</v>
       </c>
       <c r="C8">
         <v>5744575</v>
@@ -6929,7 +8561,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>944</v>
+        <v>1488</v>
       </c>
       <c r="C9">
         <v>5744575</v>
@@ -6950,7 +8582,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>945</v>
+        <v>1489</v>
       </c>
       <c r="C10">
         <v>5744575</v>
@@ -6971,7 +8603,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>946</v>
+        <v>1490</v>
       </c>
       <c r="C11">
         <v>5744575</v>
@@ -7000,25 +8632,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>952</v>
+        <v>1496</v>
       </c>
       <c r="B1" t="s">
-        <v>953</v>
+        <v>1497</v>
       </c>
       <c r="C1" t="s">
-        <v>964</v>
+        <v>1508</v>
       </c>
       <c r="D1" t="s">
-        <v>965</v>
+        <v>1509</v>
       </c>
       <c r="E1" t="s">
-        <v>966</v>
+        <v>1510</v>
       </c>
       <c r="F1" t="s">
-        <v>967</v>
+        <v>1511</v>
       </c>
       <c r="G1" t="s">
-        <v>968</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="2">
@@ -7026,7 +8658,7 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>954</v>
+        <v>1498</v>
       </c>
       <c r="C2">
         <v>6150953</v>
@@ -7047,7 +8679,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>955</v>
+        <v>1499</v>
       </c>
       <c r="C3">
         <v>6150953</v>
@@ -7068,7 +8700,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>956</v>
+        <v>1500</v>
       </c>
       <c r="C4">
         <v>6150953</v>
@@ -7089,7 +8721,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>957</v>
+        <v>1501</v>
       </c>
       <c r="C5">
         <v>6150953</v>
@@ -7110,7 +8742,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>958</v>
+        <v>1502</v>
       </c>
       <c r="C6">
         <v>6150953</v>
@@ -7131,7 +8763,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>959</v>
+        <v>1503</v>
       </c>
       <c r="C7">
         <v>6150953</v>
@@ -7152,7 +8784,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>960</v>
+        <v>1504</v>
       </c>
       <c r="C8">
         <v>6150953</v>
@@ -7173,7 +8805,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>961</v>
+        <v>1505</v>
       </c>
       <c r="C9">
         <v>6150953</v>
@@ -7194,7 +8826,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>962</v>
+        <v>1506</v>
       </c>
       <c r="C10">
         <v>6150953</v>
@@ -7215,7 +8847,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>963</v>
+        <v>1507</v>
       </c>
       <c r="C11">
         <v>6150953</v>

--- a/input_data/admin_data/SLV/_clean/total-SLV.xlsx
+++ b/input_data/admin_data/SLV/_clean/total-SLV.xlsx
@@ -28,7 +28,823 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="1632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="1904">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -4972,25 +5788,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1360</v>
+        <v>1632</v>
       </c>
       <c r="B1" t="s">
-        <v>1361</v>
+        <v>1633</v>
       </c>
       <c r="C1" t="s">
-        <v>1372</v>
+        <v>1644</v>
       </c>
       <c r="D1" t="s">
-        <v>1373</v>
+        <v>1645</v>
       </c>
       <c r="E1" t="s">
-        <v>1374</v>
+        <v>1646</v>
       </c>
       <c r="F1" t="s">
-        <v>1375</v>
+        <v>1647</v>
       </c>
       <c r="G1" t="s">
-        <v>1376</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="2">
@@ -4998,7 +5814,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>1362</v>
+        <v>1634</v>
       </c>
       <c r="C2">
         <v>6272353</v>
@@ -5019,7 +5835,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1363</v>
+        <v>1635</v>
       </c>
       <c r="C3">
         <v>6272353</v>
@@ -5040,7 +5856,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1364</v>
+        <v>1636</v>
       </c>
       <c r="C4">
         <v>6272353</v>
@@ -5061,7 +5877,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1365</v>
+        <v>1637</v>
       </c>
       <c r="C5">
         <v>6272353</v>
@@ -5082,7 +5898,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1366</v>
+        <v>1638</v>
       </c>
       <c r="C6">
         <v>6272353</v>
@@ -5103,7 +5919,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1367</v>
+        <v>1639</v>
       </c>
       <c r="C7">
         <v>6272353</v>
@@ -5124,7 +5940,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1368</v>
+        <v>1640</v>
       </c>
       <c r="C8">
         <v>6272353</v>
@@ -5145,7 +5961,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1369</v>
+        <v>1641</v>
       </c>
       <c r="C9">
         <v>6272353</v>
@@ -5166,7 +5982,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1370</v>
+        <v>1642</v>
       </c>
       <c r="C10">
         <v>6272353</v>
@@ -5187,7 +6003,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1371</v>
+        <v>1643</v>
       </c>
       <c r="C11">
         <v>6272353</v>
@@ -5216,25 +6032,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1513</v>
+        <v>1785</v>
       </c>
       <c r="B1" t="s">
-        <v>1514</v>
+        <v>1786</v>
       </c>
       <c r="C1" t="s">
-        <v>1525</v>
+        <v>1797</v>
       </c>
       <c r="D1" t="s">
-        <v>1526</v>
+        <v>1798</v>
       </c>
       <c r="E1" t="s">
-        <v>1527</v>
+        <v>1799</v>
       </c>
       <c r="F1" t="s">
-        <v>1528</v>
+        <v>1800</v>
       </c>
       <c r="G1" t="s">
-        <v>1529</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="2">
@@ -5242,7 +6058,7 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>1515</v>
+        <v>1787</v>
       </c>
       <c r="C2">
         <v>6181405</v>
@@ -5263,7 +6079,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1516</v>
+        <v>1788</v>
       </c>
       <c r="C3">
         <v>6181405</v>
@@ -5284,7 +6100,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1517</v>
+        <v>1789</v>
       </c>
       <c r="C4">
         <v>6181405</v>
@@ -5305,7 +6121,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1518</v>
+        <v>1790</v>
       </c>
       <c r="C5">
         <v>6181405</v>
@@ -5326,7 +6142,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1519</v>
+        <v>1791</v>
       </c>
       <c r="C6">
         <v>6181405</v>
@@ -5347,7 +6163,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1520</v>
+        <v>1792</v>
       </c>
       <c r="C7">
         <v>6181405</v>
@@ -5368,7 +6184,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1521</v>
+        <v>1793</v>
       </c>
       <c r="C8">
         <v>6181405</v>
@@ -5389,7 +6205,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1522</v>
+        <v>1794</v>
       </c>
       <c r="C9">
         <v>6181405</v>
@@ -5410,7 +6226,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1523</v>
+        <v>1795</v>
       </c>
       <c r="C10">
         <v>6181405</v>
@@ -5431,7 +6247,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1524</v>
+        <v>1796</v>
       </c>
       <c r="C11">
         <v>6181405</v>
@@ -5460,25 +6276,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1530</v>
+        <v>1802</v>
       </c>
       <c r="B1" t="s">
-        <v>1531</v>
+        <v>1803</v>
       </c>
       <c r="C1" t="s">
-        <v>1542</v>
+        <v>1814</v>
       </c>
       <c r="D1" t="s">
-        <v>1543</v>
+        <v>1815</v>
       </c>
       <c r="E1" t="s">
-        <v>1544</v>
+        <v>1816</v>
       </c>
       <c r="F1" t="s">
-        <v>1545</v>
+        <v>1817</v>
       </c>
       <c r="G1" t="s">
-        <v>1546</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="2">
@@ -5486,7 +6302,7 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>1532</v>
+        <v>1804</v>
       </c>
       <c r="C2">
         <v>6249262</v>
@@ -5507,7 +6323,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1533</v>
+        <v>1805</v>
       </c>
       <c r="C3">
         <v>6249262</v>
@@ -5528,7 +6344,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1534</v>
+        <v>1806</v>
       </c>
       <c r="C4">
         <v>6249262</v>
@@ -5549,7 +6365,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1535</v>
+        <v>1807</v>
       </c>
       <c r="C5">
         <v>6249262</v>
@@ -5570,7 +6386,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1536</v>
+        <v>1808</v>
       </c>
       <c r="C6">
         <v>6249262</v>
@@ -5591,7 +6407,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1537</v>
+        <v>1809</v>
       </c>
       <c r="C7">
         <v>6249262</v>
@@ -5612,7 +6428,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1538</v>
+        <v>1810</v>
       </c>
       <c r="C8">
         <v>6249262</v>
@@ -5633,7 +6449,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1539</v>
+        <v>1811</v>
       </c>
       <c r="C9">
         <v>6249262</v>
@@ -5654,7 +6470,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1540</v>
+        <v>1812</v>
       </c>
       <c r="C10">
         <v>6249262</v>
@@ -5675,7 +6491,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1541</v>
+        <v>1813</v>
       </c>
       <c r="C11">
         <v>6249262</v>
@@ -5704,25 +6520,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1547</v>
+        <v>1819</v>
       </c>
       <c r="B1" t="s">
-        <v>1548</v>
+        <v>1820</v>
       </c>
       <c r="C1" t="s">
-        <v>1559</v>
+        <v>1831</v>
       </c>
       <c r="D1" t="s">
-        <v>1560</v>
+        <v>1832</v>
       </c>
       <c r="E1" t="s">
-        <v>1561</v>
+        <v>1833</v>
       </c>
       <c r="F1" t="s">
-        <v>1562</v>
+        <v>1834</v>
       </c>
       <c r="G1" t="s">
-        <v>1563</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="2">
@@ -5730,7 +6546,7 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>1549</v>
+        <v>1821</v>
       </c>
       <c r="C2">
         <v>6290383</v>
@@ -5751,7 +6567,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1550</v>
+        <v>1822</v>
       </c>
       <c r="C3">
         <v>6290383</v>
@@ -5772,7 +6588,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1551</v>
+        <v>1823</v>
       </c>
       <c r="C4">
         <v>6290383</v>
@@ -5793,7 +6609,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1552</v>
+        <v>1824</v>
       </c>
       <c r="C5">
         <v>6290383</v>
@@ -5814,7 +6630,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1553</v>
+        <v>1825</v>
       </c>
       <c r="C6">
         <v>6290383</v>
@@ -5835,7 +6651,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1554</v>
+        <v>1826</v>
       </c>
       <c r="C7">
         <v>6290383</v>
@@ -5856,7 +6672,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1555</v>
+        <v>1827</v>
       </c>
       <c r="C8">
         <v>6290383</v>
@@ -5877,7 +6693,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1556</v>
+        <v>1828</v>
       </c>
       <c r="C9">
         <v>6290383</v>
@@ -5898,7 +6714,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1557</v>
+        <v>1829</v>
       </c>
       <c r="C10">
         <v>6290383</v>
@@ -5919,7 +6735,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1558</v>
+        <v>1830</v>
       </c>
       <c r="C11">
         <v>6290383</v>
@@ -5948,25 +6764,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1564</v>
+        <v>1836</v>
       </c>
       <c r="B1" t="s">
-        <v>1565</v>
+        <v>1837</v>
       </c>
       <c r="C1" t="s">
-        <v>1576</v>
+        <v>1848</v>
       </c>
       <c r="D1" t="s">
-        <v>1577</v>
+        <v>1849</v>
       </c>
       <c r="E1" t="s">
-        <v>1578</v>
+        <v>1850</v>
       </c>
       <c r="F1" t="s">
-        <v>1579</v>
+        <v>1851</v>
       </c>
       <c r="G1" t="s">
-        <v>1580</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="2">
@@ -5974,7 +6790,7 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>1566</v>
+        <v>1838</v>
       </c>
       <c r="C2">
         <v>6401415</v>
@@ -5995,7 +6811,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1567</v>
+        <v>1839</v>
       </c>
       <c r="C3">
         <v>6401415</v>
@@ -6016,7 +6832,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1568</v>
+        <v>1840</v>
       </c>
       <c r="C4">
         <v>6401415</v>
@@ -6037,7 +6853,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1569</v>
+        <v>1841</v>
       </c>
       <c r="C5">
         <v>6401415</v>
@@ -6058,7 +6874,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1570</v>
+        <v>1842</v>
       </c>
       <c r="C6">
         <v>6401415</v>
@@ -6079,7 +6895,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1571</v>
+        <v>1843</v>
       </c>
       <c r="C7">
         <v>6401415</v>
@@ -6100,7 +6916,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1572</v>
+        <v>1844</v>
       </c>
       <c r="C8">
         <v>6401415</v>
@@ -6121,7 +6937,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1573</v>
+        <v>1845</v>
       </c>
       <c r="C9">
         <v>6401415</v>
@@ -6142,7 +6958,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1574</v>
+        <v>1846</v>
       </c>
       <c r="C10">
         <v>6401415</v>
@@ -6163,7 +6979,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1575</v>
+        <v>1847</v>
       </c>
       <c r="C11">
         <v>6401415</v>
@@ -6192,25 +7008,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1581</v>
+        <v>1853</v>
       </c>
       <c r="B1" t="s">
-        <v>1582</v>
+        <v>1854</v>
       </c>
       <c r="C1" t="s">
-        <v>1593</v>
+        <v>1865</v>
       </c>
       <c r="D1" t="s">
-        <v>1594</v>
+        <v>1866</v>
       </c>
       <c r="E1" t="s">
-        <v>1595</v>
+        <v>1867</v>
       </c>
       <c r="F1" t="s">
-        <v>1596</v>
+        <v>1868</v>
       </c>
       <c r="G1" t="s">
-        <v>1597</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="2">
@@ -6218,7 +7034,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>1583</v>
+        <v>1855</v>
       </c>
       <c r="C2">
         <v>6459911</v>
@@ -6239,7 +7055,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1584</v>
+        <v>1856</v>
       </c>
       <c r="C3">
         <v>6459911</v>
@@ -6260,7 +7076,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1585</v>
+        <v>1857</v>
       </c>
       <c r="C4">
         <v>6459911</v>
@@ -6281,7 +7097,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1586</v>
+        <v>1858</v>
       </c>
       <c r="C5">
         <v>6459911</v>
@@ -6302,7 +7118,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1587</v>
+        <v>1859</v>
       </c>
       <c r="C6">
         <v>6459911</v>
@@ -6323,7 +7139,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1588</v>
+        <v>1860</v>
       </c>
       <c r="C7">
         <v>6459911</v>
@@ -6344,7 +7160,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1589</v>
+        <v>1861</v>
       </c>
       <c r="C8">
         <v>6459911</v>
@@ -6365,7 +7181,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1590</v>
+        <v>1862</v>
       </c>
       <c r="C9">
         <v>6459911</v>
@@ -6386,7 +7202,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1591</v>
+        <v>1863</v>
       </c>
       <c r="C10">
         <v>6459911</v>
@@ -6407,7 +7223,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1592</v>
+        <v>1864</v>
       </c>
       <c r="C11">
         <v>6459911</v>
@@ -6436,25 +7252,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1598</v>
+        <v>1870</v>
       </c>
       <c r="B1" t="s">
-        <v>1599</v>
+        <v>1871</v>
       </c>
       <c r="C1" t="s">
-        <v>1610</v>
+        <v>1882</v>
       </c>
       <c r="D1" t="s">
-        <v>1611</v>
+        <v>1883</v>
       </c>
       <c r="E1" t="s">
-        <v>1612</v>
+        <v>1884</v>
       </c>
       <c r="F1" t="s">
-        <v>1613</v>
+        <v>1885</v>
       </c>
       <c r="G1" t="s">
-        <v>1614</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="2">
@@ -6462,7 +7278,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>1600</v>
+        <v>1872</v>
       </c>
       <c r="C2">
         <v>6522419</v>
@@ -6483,7 +7299,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1601</v>
+        <v>1873</v>
       </c>
       <c r="C3">
         <v>6522419</v>
@@ -6504,7 +7320,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1602</v>
+        <v>1874</v>
       </c>
       <c r="C4">
         <v>6522419</v>
@@ -6525,7 +7341,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1603</v>
+        <v>1875</v>
       </c>
       <c r="C5">
         <v>6522419</v>
@@ -6546,7 +7362,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1604</v>
+        <v>1876</v>
       </c>
       <c r="C6">
         <v>6522419</v>
@@ -6567,7 +7383,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1605</v>
+        <v>1877</v>
       </c>
       <c r="C7">
         <v>6522419</v>
@@ -6588,7 +7404,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1606</v>
+        <v>1878</v>
       </c>
       <c r="C8">
         <v>6522419</v>
@@ -6609,7 +7425,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1607</v>
+        <v>1879</v>
       </c>
       <c r="C9">
         <v>6522419</v>
@@ -6630,7 +7446,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1608</v>
+        <v>1880</v>
       </c>
       <c r="C10">
         <v>6522419</v>
@@ -6651,7 +7467,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1609</v>
+        <v>1881</v>
       </c>
       <c r="C11">
         <v>6522419</v>
@@ -6680,25 +7496,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1615</v>
+        <v>1887</v>
       </c>
       <c r="B1" t="s">
-        <v>1616</v>
+        <v>1888</v>
       </c>
       <c r="C1" t="s">
-        <v>1627</v>
+        <v>1899</v>
       </c>
       <c r="D1" t="s">
-        <v>1628</v>
+        <v>1900</v>
       </c>
       <c r="E1" t="s">
-        <v>1629</v>
+        <v>1901</v>
       </c>
       <c r="F1" t="s">
-        <v>1630</v>
+        <v>1902</v>
       </c>
       <c r="G1" t="s">
-        <v>1631</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="2">
@@ -6706,7 +7522,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>1617</v>
+        <v>1889</v>
       </c>
       <c r="C2">
         <v>6581860</v>
@@ -6727,7 +7543,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1618</v>
+        <v>1890</v>
       </c>
       <c r="C3">
         <v>6581860</v>
@@ -6748,7 +7564,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1619</v>
+        <v>1891</v>
       </c>
       <c r="C4">
         <v>6581860</v>
@@ -6769,7 +7585,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1620</v>
+        <v>1892</v>
       </c>
       <c r="C5">
         <v>6581860</v>
@@ -6790,7 +7606,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1621</v>
+        <v>1893</v>
       </c>
       <c r="C6">
         <v>6581860</v>
@@ -6811,7 +7627,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1622</v>
+        <v>1894</v>
       </c>
       <c r="C7">
         <v>6581860</v>
@@ -6832,7 +7648,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1623</v>
+        <v>1895</v>
       </c>
       <c r="C8">
         <v>6581860</v>
@@ -6853,7 +7669,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1624</v>
+        <v>1896</v>
       </c>
       <c r="C9">
         <v>6581860</v>
@@ -6874,7 +7690,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1625</v>
+        <v>1897</v>
       </c>
       <c r="C10">
         <v>6581860</v>
@@ -6895,7 +7711,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1626</v>
+        <v>1898</v>
       </c>
       <c r="C11">
         <v>6581860</v>
@@ -6924,25 +7740,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1377</v>
+        <v>1649</v>
       </c>
       <c r="B1" t="s">
-        <v>1378</v>
+        <v>1650</v>
       </c>
       <c r="C1" t="s">
-        <v>1389</v>
+        <v>1661</v>
       </c>
       <c r="D1" t="s">
-        <v>1390</v>
+        <v>1662</v>
       </c>
       <c r="E1" t="s">
-        <v>1391</v>
+        <v>1663</v>
       </c>
       <c r="F1" t="s">
-        <v>1392</v>
+        <v>1664</v>
       </c>
       <c r="G1" t="s">
-        <v>1393</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="2">
@@ -6950,7 +7766,7 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>1379</v>
+        <v>1651</v>
       </c>
       <c r="C2">
         <v>6428672</v>
@@ -6971,7 +7787,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1380</v>
+        <v>1652</v>
       </c>
       <c r="C3">
         <v>6428672</v>
@@ -6992,7 +7808,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1381</v>
+        <v>1653</v>
       </c>
       <c r="C4">
         <v>6428672</v>
@@ -7013,7 +7829,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1382</v>
+        <v>1654</v>
       </c>
       <c r="C5">
         <v>6428672</v>
@@ -7034,7 +7850,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1383</v>
+        <v>1655</v>
       </c>
       <c r="C6">
         <v>6428672</v>
@@ -7055,7 +7871,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1384</v>
+        <v>1656</v>
       </c>
       <c r="C7">
         <v>6428672</v>
@@ -7076,7 +7892,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1385</v>
+        <v>1657</v>
       </c>
       <c r="C8">
         <v>6428672</v>
@@ -7097,7 +7913,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1386</v>
+        <v>1658</v>
       </c>
       <c r="C9">
         <v>6428672</v>
@@ -7118,7 +7934,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1387</v>
+        <v>1659</v>
       </c>
       <c r="C10">
         <v>6428672</v>
@@ -7139,7 +7955,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1388</v>
+        <v>1660</v>
       </c>
       <c r="C11">
         <v>6428672</v>
@@ -7168,25 +7984,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1394</v>
+        <v>1666</v>
       </c>
       <c r="B1" t="s">
-        <v>1395</v>
+        <v>1667</v>
       </c>
       <c r="C1" t="s">
-        <v>1406</v>
+        <v>1678</v>
       </c>
       <c r="D1" t="s">
-        <v>1407</v>
+        <v>1679</v>
       </c>
       <c r="E1" t="s">
-        <v>1408</v>
+        <v>1680</v>
       </c>
       <c r="F1" t="s">
-        <v>1409</v>
+        <v>1681</v>
       </c>
       <c r="G1" t="s">
-        <v>1410</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="2">
@@ -7194,7 +8010,7 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>1396</v>
+        <v>1668</v>
       </c>
       <c r="C2">
         <v>6510348</v>
@@ -7215,7 +8031,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1397</v>
+        <v>1669</v>
       </c>
       <c r="C3">
         <v>6510348</v>
@@ -7236,7 +8052,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1398</v>
+        <v>1670</v>
       </c>
       <c r="C4">
         <v>6510348</v>
@@ -7257,7 +8073,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1399</v>
+        <v>1671</v>
       </c>
       <c r="C5">
         <v>6510348</v>
@@ -7278,7 +8094,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1400</v>
+        <v>1672</v>
       </c>
       <c r="C6">
         <v>6510348</v>
@@ -7299,7 +8115,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1401</v>
+        <v>1673</v>
       </c>
       <c r="C7">
         <v>6510348</v>
@@ -7320,7 +8136,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1402</v>
+        <v>1674</v>
       </c>
       <c r="C8">
         <v>6510348</v>
@@ -7341,7 +8157,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1403</v>
+        <v>1675</v>
       </c>
       <c r="C9">
         <v>6510348</v>
@@ -7362,7 +8178,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1404</v>
+        <v>1676</v>
       </c>
       <c r="C10">
         <v>6510348</v>
@@ -7383,7 +8199,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1405</v>
+        <v>1677</v>
       </c>
       <c r="C11">
         <v>6510348</v>
@@ -7412,25 +8228,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1411</v>
+        <v>1683</v>
       </c>
       <c r="B1" t="s">
-        <v>1412</v>
+        <v>1684</v>
       </c>
       <c r="C1" t="s">
-        <v>1423</v>
+        <v>1695</v>
       </c>
       <c r="D1" t="s">
-        <v>1424</v>
+        <v>1696</v>
       </c>
       <c r="E1" t="s">
-        <v>1425</v>
+        <v>1697</v>
       </c>
       <c r="F1" t="s">
-        <v>1426</v>
+        <v>1698</v>
       </c>
       <c r="G1" t="s">
-        <v>1427</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="2">
@@ -7438,7 +8254,7 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>1413</v>
+        <v>1685</v>
       </c>
       <c r="C2">
         <v>6639010</v>
@@ -7459,7 +8275,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1414</v>
+        <v>1686</v>
       </c>
       <c r="C3">
         <v>6639010</v>
@@ -7480,7 +8296,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1415</v>
+        <v>1687</v>
       </c>
       <c r="C4">
         <v>6639010</v>
@@ -7501,7 +8317,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1416</v>
+        <v>1688</v>
       </c>
       <c r="C5">
         <v>6639010</v>
@@ -7522,7 +8338,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1417</v>
+        <v>1689</v>
       </c>
       <c r="C6">
         <v>6639010</v>
@@ -7543,7 +8359,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1418</v>
+        <v>1690</v>
       </c>
       <c r="C7">
         <v>6639010</v>
@@ -7564,7 +8380,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1419</v>
+        <v>1691</v>
       </c>
       <c r="C8">
         <v>6639010</v>
@@ -7585,7 +8401,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1420</v>
+        <v>1692</v>
       </c>
       <c r="C9">
         <v>6639010</v>
@@ -7606,7 +8422,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1421</v>
+        <v>1693</v>
       </c>
       <c r="C10">
         <v>6639010</v>
@@ -7627,7 +8443,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1422</v>
+        <v>1694</v>
       </c>
       <c r="C11">
         <v>6639010</v>
@@ -7656,25 +8472,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1428</v>
+        <v>1700</v>
       </c>
       <c r="B1" t="s">
-        <v>1429</v>
+        <v>1701</v>
       </c>
       <c r="C1" t="s">
-        <v>1440</v>
+        <v>1712</v>
       </c>
       <c r="D1" t="s">
-        <v>1441</v>
+        <v>1713</v>
       </c>
       <c r="E1" t="s">
-        <v>1442</v>
+        <v>1714</v>
       </c>
       <c r="F1" t="s">
-        <v>1443</v>
+        <v>1715</v>
       </c>
       <c r="G1" t="s">
-        <v>1444</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="2">
@@ -7682,7 +8498,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>1430</v>
+        <v>1702</v>
       </c>
       <c r="C2">
         <v>6756786</v>
@@ -7703,7 +8519,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1431</v>
+        <v>1703</v>
       </c>
       <c r="C3">
         <v>6756786</v>
@@ -7724,7 +8540,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1432</v>
+        <v>1704</v>
       </c>
       <c r="C4">
         <v>6756786</v>
@@ -7745,7 +8561,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1433</v>
+        <v>1705</v>
       </c>
       <c r="C5">
         <v>6756786</v>
@@ -7766,7 +8582,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1434</v>
+        <v>1706</v>
       </c>
       <c r="C6">
         <v>6756786</v>
@@ -7787,7 +8603,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1435</v>
+        <v>1707</v>
       </c>
       <c r="C7">
         <v>6756786</v>
@@ -7808,7 +8624,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1436</v>
+        <v>1708</v>
       </c>
       <c r="C8">
         <v>6756786</v>
@@ -7829,7 +8645,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1437</v>
+        <v>1709</v>
       </c>
       <c r="C9">
         <v>6756786</v>
@@ -7850,7 +8666,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1438</v>
+        <v>1710</v>
       </c>
       <c r="C10">
         <v>6756786</v>
@@ -7871,7 +8687,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1439</v>
+        <v>1711</v>
       </c>
       <c r="C11">
         <v>6756786</v>
@@ -7900,25 +8716,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1445</v>
+        <v>1717</v>
       </c>
       <c r="B1" t="s">
-        <v>1446</v>
+        <v>1718</v>
       </c>
       <c r="C1" t="s">
-        <v>1457</v>
+        <v>1729</v>
       </c>
       <c r="D1" t="s">
-        <v>1458</v>
+        <v>1730</v>
       </c>
       <c r="E1" t="s">
-        <v>1459</v>
+        <v>1731</v>
       </c>
       <c r="F1" t="s">
-        <v>1460</v>
+        <v>1732</v>
       </c>
       <c r="G1" t="s">
-        <v>1461</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="2">
@@ -7926,7 +8742,7 @@
         <v>2005</v>
       </c>
       <c r="B2" t="s">
-        <v>1447</v>
+        <v>1719</v>
       </c>
       <c r="C2">
         <v>6864080</v>
@@ -7947,7 +8763,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1448</v>
+        <v>1720</v>
       </c>
       <c r="C3">
         <v>6864080</v>
@@ -7968,7 +8784,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1449</v>
+        <v>1721</v>
       </c>
       <c r="C4">
         <v>6864080</v>
@@ -7989,7 +8805,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1450</v>
+        <v>1722</v>
       </c>
       <c r="C5">
         <v>6864080</v>
@@ -8010,7 +8826,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1451</v>
+        <v>1723</v>
       </c>
       <c r="C6">
         <v>6864080</v>
@@ -8031,7 +8847,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1452</v>
+        <v>1724</v>
       </c>
       <c r="C7">
         <v>6864080</v>
@@ -8052,7 +8868,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1453</v>
+        <v>1725</v>
       </c>
       <c r="C8">
         <v>6864080</v>
@@ -8073,7 +8889,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1454</v>
+        <v>1726</v>
       </c>
       <c r="C9">
         <v>6864080</v>
@@ -8094,7 +8910,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1455</v>
+        <v>1727</v>
       </c>
       <c r="C10">
         <v>6864080</v>
@@ -8115,7 +8931,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1456</v>
+        <v>1728</v>
       </c>
       <c r="C11">
         <v>6864080</v>
@@ -8144,25 +8960,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1462</v>
+        <v>1734</v>
       </c>
       <c r="B1" t="s">
-        <v>1463</v>
+        <v>1735</v>
       </c>
       <c r="C1" t="s">
-        <v>1474</v>
+        <v>1746</v>
       </c>
       <c r="D1" t="s">
-        <v>1475</v>
+        <v>1747</v>
       </c>
       <c r="E1" t="s">
-        <v>1476</v>
+        <v>1748</v>
       </c>
       <c r="F1" t="s">
-        <v>1477</v>
+        <v>1749</v>
       </c>
       <c r="G1" t="s">
-        <v>1478</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="2">
@@ -8170,7 +8986,7 @@
         <v>2006</v>
       </c>
       <c r="B2" t="s">
-        <v>1464</v>
+        <v>1736</v>
       </c>
       <c r="C2">
         <v>6980279</v>
@@ -8191,7 +9007,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1465</v>
+        <v>1737</v>
       </c>
       <c r="C3">
         <v>6980279</v>
@@ -8212,7 +9028,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1466</v>
+        <v>1738</v>
       </c>
       <c r="C4">
         <v>6980279</v>
@@ -8233,7 +9049,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1467</v>
+        <v>1739</v>
       </c>
       <c r="C5">
         <v>6980279</v>
@@ -8254,7 +9070,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1468</v>
+        <v>1740</v>
       </c>
       <c r="C6">
         <v>6980279</v>
@@ -8275,7 +9091,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1469</v>
+        <v>1741</v>
       </c>
       <c r="C7">
         <v>6980279</v>
@@ -8296,7 +9112,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1470</v>
+        <v>1742</v>
       </c>
       <c r="C8">
         <v>6980279</v>
@@ -8317,7 +9133,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1471</v>
+        <v>1743</v>
       </c>
       <c r="C9">
         <v>6980279</v>
@@ -8338,7 +9154,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1472</v>
+        <v>1744</v>
       </c>
       <c r="C10">
         <v>6980279</v>
@@ -8359,7 +9175,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1473</v>
+        <v>1745</v>
       </c>
       <c r="C11">
         <v>6980279</v>
@@ -8388,25 +9204,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1479</v>
+        <v>1751</v>
       </c>
       <c r="B1" t="s">
-        <v>1480</v>
+        <v>1752</v>
       </c>
       <c r="C1" t="s">
-        <v>1491</v>
+        <v>1763</v>
       </c>
       <c r="D1" t="s">
-        <v>1492</v>
+        <v>1764</v>
       </c>
       <c r="E1" t="s">
-        <v>1493</v>
+        <v>1765</v>
       </c>
       <c r="F1" t="s">
-        <v>1494</v>
+        <v>1766</v>
       </c>
       <c r="G1" t="s">
-        <v>1495</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="2">
@@ -8414,7 +9230,7 @@
         <v>2007</v>
       </c>
       <c r="B2" t="s">
-        <v>1481</v>
+        <v>1753</v>
       </c>
       <c r="C2">
         <v>5744575</v>
@@ -8435,7 +9251,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1482</v>
+        <v>1754</v>
       </c>
       <c r="C3">
         <v>5744575</v>
@@ -8456,7 +9272,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1483</v>
+        <v>1755</v>
       </c>
       <c r="C4">
         <v>5744575</v>
@@ -8477,7 +9293,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1484</v>
+        <v>1756</v>
       </c>
       <c r="C5">
         <v>5744575</v>
@@ -8498,7 +9314,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1485</v>
+        <v>1757</v>
       </c>
       <c r="C6">
         <v>5744575</v>
@@ -8519,7 +9335,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1486</v>
+        <v>1758</v>
       </c>
       <c r="C7">
         <v>5744575</v>
@@ -8540,7 +9356,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1487</v>
+        <v>1759</v>
       </c>
       <c r="C8">
         <v>5744575</v>
@@ -8561,7 +9377,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1488</v>
+        <v>1760</v>
       </c>
       <c r="C9">
         <v>5744575</v>
@@ -8582,7 +9398,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1489</v>
+        <v>1761</v>
       </c>
       <c r="C10">
         <v>5744575</v>
@@ -8603,7 +9419,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1490</v>
+        <v>1762</v>
       </c>
       <c r="C11">
         <v>5744575</v>
@@ -8632,25 +9448,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1496</v>
+        <v>1768</v>
       </c>
       <c r="B1" t="s">
-        <v>1497</v>
+        <v>1769</v>
       </c>
       <c r="C1" t="s">
-        <v>1508</v>
+        <v>1780</v>
       </c>
       <c r="D1" t="s">
-        <v>1509</v>
+        <v>1781</v>
       </c>
       <c r="E1" t="s">
-        <v>1510</v>
+        <v>1782</v>
       </c>
       <c r="F1" t="s">
-        <v>1511</v>
+        <v>1783</v>
       </c>
       <c r="G1" t="s">
-        <v>1512</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="2">
@@ -8658,7 +9474,7 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>1498</v>
+        <v>1770</v>
       </c>
       <c r="C2">
         <v>6150953</v>
@@ -8679,7 +9495,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1499</v>
+        <v>1771</v>
       </c>
       <c r="C3">
         <v>6150953</v>
@@ -8700,7 +9516,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1500</v>
+        <v>1772</v>
       </c>
       <c r="C4">
         <v>6150953</v>
@@ -8721,7 +9537,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1501</v>
+        <v>1773</v>
       </c>
       <c r="C5">
         <v>6150953</v>
@@ -8742,7 +9558,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1502</v>
+        <v>1774</v>
       </c>
       <c r="C6">
         <v>6150953</v>
@@ -8763,7 +9579,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1503</v>
+        <v>1775</v>
       </c>
       <c r="C7">
         <v>6150953</v>
@@ -8784,7 +9600,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1504</v>
+        <v>1776</v>
       </c>
       <c r="C8">
         <v>6150953</v>
@@ -8805,7 +9621,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1505</v>
+        <v>1777</v>
       </c>
       <c r="C9">
         <v>6150953</v>
@@ -8826,7 +9642,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1506</v>
+        <v>1778</v>
       </c>
       <c r="C10">
         <v>6150953</v>
@@ -8847,7 +9663,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1507</v>
+        <v>1779</v>
       </c>
       <c r="C11">
         <v>6150953</v>

--- a/input_data/admin_data/SLV/_clean/total-SLV.xlsx
+++ b/input_data/admin_data/SLV/_clean/total-SLV.xlsx
@@ -28,7 +28,823 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="1904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="2176">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -5788,25 +6604,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1632</v>
+        <v>1904</v>
       </c>
       <c r="B1" t="s">
-        <v>1633</v>
+        <v>1905</v>
       </c>
       <c r="C1" t="s">
-        <v>1644</v>
+        <v>1916</v>
       </c>
       <c r="D1" t="s">
-        <v>1645</v>
+        <v>1917</v>
       </c>
       <c r="E1" t="s">
-        <v>1646</v>
+        <v>1918</v>
       </c>
       <c r="F1" t="s">
-        <v>1647</v>
+        <v>1919</v>
       </c>
       <c r="G1" t="s">
-        <v>1648</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="2">
@@ -5814,7 +6630,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>1634</v>
+        <v>1906</v>
       </c>
       <c r="C2">
         <v>6272353</v>
@@ -5835,7 +6651,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1635</v>
+        <v>1907</v>
       </c>
       <c r="C3">
         <v>6272353</v>
@@ -5856,7 +6672,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1636</v>
+        <v>1908</v>
       </c>
       <c r="C4">
         <v>6272353</v>
@@ -5877,7 +6693,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1637</v>
+        <v>1909</v>
       </c>
       <c r="C5">
         <v>6272353</v>
@@ -5898,7 +6714,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1638</v>
+        <v>1910</v>
       </c>
       <c r="C6">
         <v>6272353</v>
@@ -5919,7 +6735,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1639</v>
+        <v>1911</v>
       </c>
       <c r="C7">
         <v>6272353</v>
@@ -5940,7 +6756,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1640</v>
+        <v>1912</v>
       </c>
       <c r="C8">
         <v>6272353</v>
@@ -5961,7 +6777,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1641</v>
+        <v>1913</v>
       </c>
       <c r="C9">
         <v>6272353</v>
@@ -5982,7 +6798,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1642</v>
+        <v>1914</v>
       </c>
       <c r="C10">
         <v>6272353</v>
@@ -6003,7 +6819,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1643</v>
+        <v>1915</v>
       </c>
       <c r="C11">
         <v>6272353</v>
@@ -6032,25 +6848,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1785</v>
+        <v>2057</v>
       </c>
       <c r="B1" t="s">
-        <v>1786</v>
+        <v>2058</v>
       </c>
       <c r="C1" t="s">
-        <v>1797</v>
+        <v>2069</v>
       </c>
       <c r="D1" t="s">
-        <v>1798</v>
+        <v>2070</v>
       </c>
       <c r="E1" t="s">
-        <v>1799</v>
+        <v>2071</v>
       </c>
       <c r="F1" t="s">
-        <v>1800</v>
+        <v>2072</v>
       </c>
       <c r="G1" t="s">
-        <v>1801</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="2">
@@ -6058,7 +6874,7 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>1787</v>
+        <v>2059</v>
       </c>
       <c r="C2">
         <v>6181405</v>
@@ -6079,7 +6895,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1788</v>
+        <v>2060</v>
       </c>
       <c r="C3">
         <v>6181405</v>
@@ -6100,7 +6916,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1789</v>
+        <v>2061</v>
       </c>
       <c r="C4">
         <v>6181405</v>
@@ -6121,7 +6937,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1790</v>
+        <v>2062</v>
       </c>
       <c r="C5">
         <v>6181405</v>
@@ -6142,7 +6958,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1791</v>
+        <v>2063</v>
       </c>
       <c r="C6">
         <v>6181405</v>
@@ -6163,7 +6979,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1792</v>
+        <v>2064</v>
       </c>
       <c r="C7">
         <v>6181405</v>
@@ -6184,7 +7000,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1793</v>
+        <v>2065</v>
       </c>
       <c r="C8">
         <v>6181405</v>
@@ -6205,7 +7021,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1794</v>
+        <v>2066</v>
       </c>
       <c r="C9">
         <v>6181405</v>
@@ -6226,7 +7042,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1795</v>
+        <v>2067</v>
       </c>
       <c r="C10">
         <v>6181405</v>
@@ -6247,7 +7063,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1796</v>
+        <v>2068</v>
       </c>
       <c r="C11">
         <v>6181405</v>
@@ -6276,25 +7092,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1802</v>
+        <v>2074</v>
       </c>
       <c r="B1" t="s">
-        <v>1803</v>
+        <v>2075</v>
       </c>
       <c r="C1" t="s">
-        <v>1814</v>
+        <v>2086</v>
       </c>
       <c r="D1" t="s">
-        <v>1815</v>
+        <v>2087</v>
       </c>
       <c r="E1" t="s">
-        <v>1816</v>
+        <v>2088</v>
       </c>
       <c r="F1" t="s">
-        <v>1817</v>
+        <v>2089</v>
       </c>
       <c r="G1" t="s">
-        <v>1818</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="2">
@@ -6302,7 +7118,7 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>1804</v>
+        <v>2076</v>
       </c>
       <c r="C2">
         <v>6249262</v>
@@ -6323,7 +7139,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1805</v>
+        <v>2077</v>
       </c>
       <c r="C3">
         <v>6249262</v>
@@ -6344,7 +7160,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1806</v>
+        <v>2078</v>
       </c>
       <c r="C4">
         <v>6249262</v>
@@ -6365,7 +7181,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1807</v>
+        <v>2079</v>
       </c>
       <c r="C5">
         <v>6249262</v>
@@ -6386,7 +7202,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1808</v>
+        <v>2080</v>
       </c>
       <c r="C6">
         <v>6249262</v>
@@ -6407,7 +7223,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1809</v>
+        <v>2081</v>
       </c>
       <c r="C7">
         <v>6249262</v>
@@ -6428,7 +7244,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1810</v>
+        <v>2082</v>
       </c>
       <c r="C8">
         <v>6249262</v>
@@ -6449,7 +7265,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1811</v>
+        <v>2083</v>
       </c>
       <c r="C9">
         <v>6249262</v>
@@ -6470,7 +7286,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1812</v>
+        <v>2084</v>
       </c>
       <c r="C10">
         <v>6249262</v>
@@ -6491,7 +7307,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1813</v>
+        <v>2085</v>
       </c>
       <c r="C11">
         <v>6249262</v>
@@ -6520,25 +7336,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1819</v>
+        <v>2091</v>
       </c>
       <c r="B1" t="s">
-        <v>1820</v>
+        <v>2092</v>
       </c>
       <c r="C1" t="s">
-        <v>1831</v>
+        <v>2103</v>
       </c>
       <c r="D1" t="s">
-        <v>1832</v>
+        <v>2104</v>
       </c>
       <c r="E1" t="s">
-        <v>1833</v>
+        <v>2105</v>
       </c>
       <c r="F1" t="s">
-        <v>1834</v>
+        <v>2106</v>
       </c>
       <c r="G1" t="s">
-        <v>1835</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="2">
@@ -6546,7 +7362,7 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>1821</v>
+        <v>2093</v>
       </c>
       <c r="C2">
         <v>6290383</v>
@@ -6567,7 +7383,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1822</v>
+        <v>2094</v>
       </c>
       <c r="C3">
         <v>6290383</v>
@@ -6588,7 +7404,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1823</v>
+        <v>2095</v>
       </c>
       <c r="C4">
         <v>6290383</v>
@@ -6609,7 +7425,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1824</v>
+        <v>2096</v>
       </c>
       <c r="C5">
         <v>6290383</v>
@@ -6630,7 +7446,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1825</v>
+        <v>2097</v>
       </c>
       <c r="C6">
         <v>6290383</v>
@@ -6651,7 +7467,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1826</v>
+        <v>2098</v>
       </c>
       <c r="C7">
         <v>6290383</v>
@@ -6672,7 +7488,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1827</v>
+        <v>2099</v>
       </c>
       <c r="C8">
         <v>6290383</v>
@@ -6693,7 +7509,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1828</v>
+        <v>2100</v>
       </c>
       <c r="C9">
         <v>6290383</v>
@@ -6714,7 +7530,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1829</v>
+        <v>2101</v>
       </c>
       <c r="C10">
         <v>6290383</v>
@@ -6735,7 +7551,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1830</v>
+        <v>2102</v>
       </c>
       <c r="C11">
         <v>6290383</v>
@@ -6764,25 +7580,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1836</v>
+        <v>2108</v>
       </c>
       <c r="B1" t="s">
-        <v>1837</v>
+        <v>2109</v>
       </c>
       <c r="C1" t="s">
-        <v>1848</v>
+        <v>2120</v>
       </c>
       <c r="D1" t="s">
-        <v>1849</v>
+        <v>2121</v>
       </c>
       <c r="E1" t="s">
-        <v>1850</v>
+        <v>2122</v>
       </c>
       <c r="F1" t="s">
-        <v>1851</v>
+        <v>2123</v>
       </c>
       <c r="G1" t="s">
-        <v>1852</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="2">
@@ -6790,7 +7606,7 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>1838</v>
+        <v>2110</v>
       </c>
       <c r="C2">
         <v>6401415</v>
@@ -6811,7 +7627,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1839</v>
+        <v>2111</v>
       </c>
       <c r="C3">
         <v>6401415</v>
@@ -6832,7 +7648,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1840</v>
+        <v>2112</v>
       </c>
       <c r="C4">
         <v>6401415</v>
@@ -6853,7 +7669,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1841</v>
+        <v>2113</v>
       </c>
       <c r="C5">
         <v>6401415</v>
@@ -6874,7 +7690,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1842</v>
+        <v>2114</v>
       </c>
       <c r="C6">
         <v>6401415</v>
@@ -6895,7 +7711,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1843</v>
+        <v>2115</v>
       </c>
       <c r="C7">
         <v>6401415</v>
@@ -6916,7 +7732,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1844</v>
+        <v>2116</v>
       </c>
       <c r="C8">
         <v>6401415</v>
@@ -6937,7 +7753,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1845</v>
+        <v>2117</v>
       </c>
       <c r="C9">
         <v>6401415</v>
@@ -6958,7 +7774,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1846</v>
+        <v>2118</v>
       </c>
       <c r="C10">
         <v>6401415</v>
@@ -6979,7 +7795,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1847</v>
+        <v>2119</v>
       </c>
       <c r="C11">
         <v>6401415</v>
@@ -7008,25 +7824,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1853</v>
+        <v>2125</v>
       </c>
       <c r="B1" t="s">
-        <v>1854</v>
+        <v>2126</v>
       </c>
       <c r="C1" t="s">
-        <v>1865</v>
+        <v>2137</v>
       </c>
       <c r="D1" t="s">
-        <v>1866</v>
+        <v>2138</v>
       </c>
       <c r="E1" t="s">
-        <v>1867</v>
+        <v>2139</v>
       </c>
       <c r="F1" t="s">
-        <v>1868</v>
+        <v>2140</v>
       </c>
       <c r="G1" t="s">
-        <v>1869</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="2">
@@ -7034,7 +7850,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>1855</v>
+        <v>2127</v>
       </c>
       <c r="C2">
         <v>6459911</v>
@@ -7055,7 +7871,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1856</v>
+        <v>2128</v>
       </c>
       <c r="C3">
         <v>6459911</v>
@@ -7076,7 +7892,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1857</v>
+        <v>2129</v>
       </c>
       <c r="C4">
         <v>6459911</v>
@@ -7097,7 +7913,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1858</v>
+        <v>2130</v>
       </c>
       <c r="C5">
         <v>6459911</v>
@@ -7118,7 +7934,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1859</v>
+        <v>2131</v>
       </c>
       <c r="C6">
         <v>6459911</v>
@@ -7139,7 +7955,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1860</v>
+        <v>2132</v>
       </c>
       <c r="C7">
         <v>6459911</v>
@@ -7160,7 +7976,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1861</v>
+        <v>2133</v>
       </c>
       <c r="C8">
         <v>6459911</v>
@@ -7181,7 +7997,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1862</v>
+        <v>2134</v>
       </c>
       <c r="C9">
         <v>6459911</v>
@@ -7202,7 +8018,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1863</v>
+        <v>2135</v>
       </c>
       <c r="C10">
         <v>6459911</v>
@@ -7223,7 +8039,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1864</v>
+        <v>2136</v>
       </c>
       <c r="C11">
         <v>6459911</v>
@@ -7252,25 +8068,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1870</v>
+        <v>2142</v>
       </c>
       <c r="B1" t="s">
-        <v>1871</v>
+        <v>2143</v>
       </c>
       <c r="C1" t="s">
-        <v>1882</v>
+        <v>2154</v>
       </c>
       <c r="D1" t="s">
-        <v>1883</v>
+        <v>2155</v>
       </c>
       <c r="E1" t="s">
-        <v>1884</v>
+        <v>2156</v>
       </c>
       <c r="F1" t="s">
-        <v>1885</v>
+        <v>2157</v>
       </c>
       <c r="G1" t="s">
-        <v>1886</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="2">
@@ -7278,7 +8094,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>1872</v>
+        <v>2144</v>
       </c>
       <c r="C2">
         <v>6522419</v>
@@ -7299,7 +8115,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1873</v>
+        <v>2145</v>
       </c>
       <c r="C3">
         <v>6522419</v>
@@ -7320,7 +8136,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1874</v>
+        <v>2146</v>
       </c>
       <c r="C4">
         <v>6522419</v>
@@ -7341,7 +8157,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1875</v>
+        <v>2147</v>
       </c>
       <c r="C5">
         <v>6522419</v>
@@ -7362,7 +8178,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1876</v>
+        <v>2148</v>
       </c>
       <c r="C6">
         <v>6522419</v>
@@ -7383,7 +8199,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1877</v>
+        <v>2149</v>
       </c>
       <c r="C7">
         <v>6522419</v>
@@ -7404,7 +8220,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1878</v>
+        <v>2150</v>
       </c>
       <c r="C8">
         <v>6522419</v>
@@ -7425,7 +8241,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1879</v>
+        <v>2151</v>
       </c>
       <c r="C9">
         <v>6522419</v>
@@ -7446,7 +8262,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1880</v>
+        <v>2152</v>
       </c>
       <c r="C10">
         <v>6522419</v>
@@ -7467,7 +8283,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1881</v>
+        <v>2153</v>
       </c>
       <c r="C11">
         <v>6522419</v>
@@ -7496,25 +8312,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1887</v>
+        <v>2159</v>
       </c>
       <c r="B1" t="s">
-        <v>1888</v>
+        <v>2160</v>
       </c>
       <c r="C1" t="s">
-        <v>1899</v>
+        <v>2171</v>
       </c>
       <c r="D1" t="s">
-        <v>1900</v>
+        <v>2172</v>
       </c>
       <c r="E1" t="s">
-        <v>1901</v>
+        <v>2173</v>
       </c>
       <c r="F1" t="s">
-        <v>1902</v>
+        <v>2174</v>
       </c>
       <c r="G1" t="s">
-        <v>1903</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="2">
@@ -7522,7 +8338,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>1889</v>
+        <v>2161</v>
       </c>
       <c r="C2">
         <v>6581860</v>
@@ -7543,7 +8359,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1890</v>
+        <v>2162</v>
       </c>
       <c r="C3">
         <v>6581860</v>
@@ -7564,7 +8380,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1891</v>
+        <v>2163</v>
       </c>
       <c r="C4">
         <v>6581860</v>
@@ -7585,7 +8401,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1892</v>
+        <v>2164</v>
       </c>
       <c r="C5">
         <v>6581860</v>
@@ -7606,7 +8422,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1893</v>
+        <v>2165</v>
       </c>
       <c r="C6">
         <v>6581860</v>
@@ -7627,7 +8443,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1894</v>
+        <v>2166</v>
       </c>
       <c r="C7">
         <v>6581860</v>
@@ -7648,7 +8464,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1895</v>
+        <v>2167</v>
       </c>
       <c r="C8">
         <v>6581860</v>
@@ -7669,7 +8485,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1896</v>
+        <v>2168</v>
       </c>
       <c r="C9">
         <v>6581860</v>
@@ -7690,7 +8506,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1897</v>
+        <v>2169</v>
       </c>
       <c r="C10">
         <v>6581860</v>
@@ -7711,7 +8527,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1898</v>
+        <v>2170</v>
       </c>
       <c r="C11">
         <v>6581860</v>
@@ -7740,25 +8556,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1649</v>
+        <v>1921</v>
       </c>
       <c r="B1" t="s">
-        <v>1650</v>
+        <v>1922</v>
       </c>
       <c r="C1" t="s">
-        <v>1661</v>
+        <v>1933</v>
       </c>
       <c r="D1" t="s">
-        <v>1662</v>
+        <v>1934</v>
       </c>
       <c r="E1" t="s">
-        <v>1663</v>
+        <v>1935</v>
       </c>
       <c r="F1" t="s">
-        <v>1664</v>
+        <v>1936</v>
       </c>
       <c r="G1" t="s">
-        <v>1665</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="2">
@@ -7766,7 +8582,7 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>1651</v>
+        <v>1923</v>
       </c>
       <c r="C2">
         <v>6428672</v>
@@ -7787,7 +8603,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1652</v>
+        <v>1924</v>
       </c>
       <c r="C3">
         <v>6428672</v>
@@ -7808,7 +8624,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1653</v>
+        <v>1925</v>
       </c>
       <c r="C4">
         <v>6428672</v>
@@ -7829,7 +8645,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1654</v>
+        <v>1926</v>
       </c>
       <c r="C5">
         <v>6428672</v>
@@ -7850,7 +8666,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1655</v>
+        <v>1927</v>
       </c>
       <c r="C6">
         <v>6428672</v>
@@ -7871,7 +8687,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1656</v>
+        <v>1928</v>
       </c>
       <c r="C7">
         <v>6428672</v>
@@ -7892,7 +8708,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1657</v>
+        <v>1929</v>
       </c>
       <c r="C8">
         <v>6428672</v>
@@ -7913,7 +8729,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1658</v>
+        <v>1930</v>
       </c>
       <c r="C9">
         <v>6428672</v>
@@ -7934,7 +8750,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1659</v>
+        <v>1931</v>
       </c>
       <c r="C10">
         <v>6428672</v>
@@ -7955,7 +8771,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1660</v>
+        <v>1932</v>
       </c>
       <c r="C11">
         <v>6428672</v>
@@ -7984,25 +8800,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1666</v>
+        <v>1938</v>
       </c>
       <c r="B1" t="s">
-        <v>1667</v>
+        <v>1939</v>
       </c>
       <c r="C1" t="s">
-        <v>1678</v>
+        <v>1950</v>
       </c>
       <c r="D1" t="s">
-        <v>1679</v>
+        <v>1951</v>
       </c>
       <c r="E1" t="s">
-        <v>1680</v>
+        <v>1952</v>
       </c>
       <c r="F1" t="s">
-        <v>1681</v>
+        <v>1953</v>
       </c>
       <c r="G1" t="s">
-        <v>1682</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="2">
@@ -8010,7 +8826,7 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>1668</v>
+        <v>1940</v>
       </c>
       <c r="C2">
         <v>6510348</v>
@@ -8031,7 +8847,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1669</v>
+        <v>1941</v>
       </c>
       <c r="C3">
         <v>6510348</v>
@@ -8052,7 +8868,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1670</v>
+        <v>1942</v>
       </c>
       <c r="C4">
         <v>6510348</v>
@@ -8073,7 +8889,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1671</v>
+        <v>1943</v>
       </c>
       <c r="C5">
         <v>6510348</v>
@@ -8094,7 +8910,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1672</v>
+        <v>1944</v>
       </c>
       <c r="C6">
         <v>6510348</v>
@@ -8115,7 +8931,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1673</v>
+        <v>1945</v>
       </c>
       <c r="C7">
         <v>6510348</v>
@@ -8136,7 +8952,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1674</v>
+        <v>1946</v>
       </c>
       <c r="C8">
         <v>6510348</v>
@@ -8157,7 +8973,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1675</v>
+        <v>1947</v>
       </c>
       <c r="C9">
         <v>6510348</v>
@@ -8178,7 +8994,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1676</v>
+        <v>1948</v>
       </c>
       <c r="C10">
         <v>6510348</v>
@@ -8199,7 +9015,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1677</v>
+        <v>1949</v>
       </c>
       <c r="C11">
         <v>6510348</v>
@@ -8228,25 +9044,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1683</v>
+        <v>1955</v>
       </c>
       <c r="B1" t="s">
-        <v>1684</v>
+        <v>1956</v>
       </c>
       <c r="C1" t="s">
-        <v>1695</v>
+        <v>1967</v>
       </c>
       <c r="D1" t="s">
-        <v>1696</v>
+        <v>1968</v>
       </c>
       <c r="E1" t="s">
-        <v>1697</v>
+        <v>1969</v>
       </c>
       <c r="F1" t="s">
-        <v>1698</v>
+        <v>1970</v>
       </c>
       <c r="G1" t="s">
-        <v>1699</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="2">
@@ -8254,7 +9070,7 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>1685</v>
+        <v>1957</v>
       </c>
       <c r="C2">
         <v>6639010</v>
@@ -8275,7 +9091,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1686</v>
+        <v>1958</v>
       </c>
       <c r="C3">
         <v>6639010</v>
@@ -8296,7 +9112,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1687</v>
+        <v>1959</v>
       </c>
       <c r="C4">
         <v>6639010</v>
@@ -8317,7 +9133,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1688</v>
+        <v>1960</v>
       </c>
       <c r="C5">
         <v>6639010</v>
@@ -8338,7 +9154,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1689</v>
+        <v>1961</v>
       </c>
       <c r="C6">
         <v>6639010</v>
@@ -8359,7 +9175,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1690</v>
+        <v>1962</v>
       </c>
       <c r="C7">
         <v>6639010</v>
@@ -8380,7 +9196,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1691</v>
+        <v>1963</v>
       </c>
       <c r="C8">
         <v>6639010</v>
@@ -8401,7 +9217,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1692</v>
+        <v>1964</v>
       </c>
       <c r="C9">
         <v>6639010</v>
@@ -8422,7 +9238,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1693</v>
+        <v>1965</v>
       </c>
       <c r="C10">
         <v>6639010</v>
@@ -8443,7 +9259,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1694</v>
+        <v>1966</v>
       </c>
       <c r="C11">
         <v>6639010</v>
@@ -8472,25 +9288,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1700</v>
+        <v>1972</v>
       </c>
       <c r="B1" t="s">
-        <v>1701</v>
+        <v>1973</v>
       </c>
       <c r="C1" t="s">
-        <v>1712</v>
+        <v>1984</v>
       </c>
       <c r="D1" t="s">
-        <v>1713</v>
+        <v>1985</v>
       </c>
       <c r="E1" t="s">
-        <v>1714</v>
+        <v>1986</v>
       </c>
       <c r="F1" t="s">
-        <v>1715</v>
+        <v>1987</v>
       </c>
       <c r="G1" t="s">
-        <v>1716</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="2">
@@ -8498,7 +9314,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>1702</v>
+        <v>1974</v>
       </c>
       <c r="C2">
         <v>6756786</v>
@@ -8519,7 +9335,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1703</v>
+        <v>1975</v>
       </c>
       <c r="C3">
         <v>6756786</v>
@@ -8540,7 +9356,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1704</v>
+        <v>1976</v>
       </c>
       <c r="C4">
         <v>6756786</v>
@@ -8561,7 +9377,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1705</v>
+        <v>1977</v>
       </c>
       <c r="C5">
         <v>6756786</v>
@@ -8582,7 +9398,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1706</v>
+        <v>1978</v>
       </c>
       <c r="C6">
         <v>6756786</v>
@@ -8603,7 +9419,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1707</v>
+        <v>1979</v>
       </c>
       <c r="C7">
         <v>6756786</v>
@@ -8624,7 +9440,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1708</v>
+        <v>1980</v>
       </c>
       <c r="C8">
         <v>6756786</v>
@@ -8645,7 +9461,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1709</v>
+        <v>1981</v>
       </c>
       <c r="C9">
         <v>6756786</v>
@@ -8666,7 +9482,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1710</v>
+        <v>1982</v>
       </c>
       <c r="C10">
         <v>6756786</v>
@@ -8687,7 +9503,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1711</v>
+        <v>1983</v>
       </c>
       <c r="C11">
         <v>6756786</v>
@@ -8716,25 +9532,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1717</v>
+        <v>1989</v>
       </c>
       <c r="B1" t="s">
-        <v>1718</v>
+        <v>1990</v>
       </c>
       <c r="C1" t="s">
-        <v>1729</v>
+        <v>2001</v>
       </c>
       <c r="D1" t="s">
-        <v>1730</v>
+        <v>2002</v>
       </c>
       <c r="E1" t="s">
-        <v>1731</v>
+        <v>2003</v>
       </c>
       <c r="F1" t="s">
-        <v>1732</v>
+        <v>2004</v>
       </c>
       <c r="G1" t="s">
-        <v>1733</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="2">
@@ -8742,7 +9558,7 @@
         <v>2005</v>
       </c>
       <c r="B2" t="s">
-        <v>1719</v>
+        <v>1991</v>
       </c>
       <c r="C2">
         <v>6864080</v>
@@ -8763,7 +9579,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1720</v>
+        <v>1992</v>
       </c>
       <c r="C3">
         <v>6864080</v>
@@ -8784,7 +9600,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1721</v>
+        <v>1993</v>
       </c>
       <c r="C4">
         <v>6864080</v>
@@ -8805,7 +9621,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1722</v>
+        <v>1994</v>
       </c>
       <c r="C5">
         <v>6864080</v>
@@ -8826,7 +9642,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1723</v>
+        <v>1995</v>
       </c>
       <c r="C6">
         <v>6864080</v>
@@ -8847,7 +9663,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1724</v>
+        <v>1996</v>
       </c>
       <c r="C7">
         <v>6864080</v>
@@ -8868,7 +9684,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1725</v>
+        <v>1997</v>
       </c>
       <c r="C8">
         <v>6864080</v>
@@ -8889,7 +9705,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1726</v>
+        <v>1998</v>
       </c>
       <c r="C9">
         <v>6864080</v>
@@ -8910,7 +9726,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1727</v>
+        <v>1999</v>
       </c>
       <c r="C10">
         <v>6864080</v>
@@ -8931,7 +9747,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1728</v>
+        <v>2000</v>
       </c>
       <c r="C11">
         <v>6864080</v>
@@ -8960,25 +9776,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1734</v>
+        <v>2006</v>
       </c>
       <c r="B1" t="s">
-        <v>1735</v>
+        <v>2007</v>
       </c>
       <c r="C1" t="s">
-        <v>1746</v>
+        <v>2018</v>
       </c>
       <c r="D1" t="s">
-        <v>1747</v>
+        <v>2019</v>
       </c>
       <c r="E1" t="s">
-        <v>1748</v>
+        <v>2020</v>
       </c>
       <c r="F1" t="s">
-        <v>1749</v>
+        <v>2021</v>
       </c>
       <c r="G1" t="s">
-        <v>1750</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="2">
@@ -8986,7 +9802,7 @@
         <v>2006</v>
       </c>
       <c r="B2" t="s">
-        <v>1736</v>
+        <v>2008</v>
       </c>
       <c r="C2">
         <v>6980279</v>
@@ -9007,7 +9823,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1737</v>
+        <v>2009</v>
       </c>
       <c r="C3">
         <v>6980279</v>
@@ -9028,7 +9844,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1738</v>
+        <v>2010</v>
       </c>
       <c r="C4">
         <v>6980279</v>
@@ -9049,7 +9865,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1739</v>
+        <v>2011</v>
       </c>
       <c r="C5">
         <v>6980279</v>
@@ -9070,7 +9886,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1740</v>
+        <v>2012</v>
       </c>
       <c r="C6">
         <v>6980279</v>
@@ -9091,7 +9907,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1741</v>
+        <v>2013</v>
       </c>
       <c r="C7">
         <v>6980279</v>
@@ -9112,7 +9928,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1742</v>
+        <v>2014</v>
       </c>
       <c r="C8">
         <v>6980279</v>
@@ -9133,7 +9949,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1743</v>
+        <v>2015</v>
       </c>
       <c r="C9">
         <v>6980279</v>
@@ -9154,7 +9970,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1744</v>
+        <v>2016</v>
       </c>
       <c r="C10">
         <v>6980279</v>
@@ -9175,7 +9991,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1745</v>
+        <v>2017</v>
       </c>
       <c r="C11">
         <v>6980279</v>
@@ -9204,25 +10020,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1751</v>
+        <v>2023</v>
       </c>
       <c r="B1" t="s">
-        <v>1752</v>
+        <v>2024</v>
       </c>
       <c r="C1" t="s">
-        <v>1763</v>
+        <v>2035</v>
       </c>
       <c r="D1" t="s">
-        <v>1764</v>
+        <v>2036</v>
       </c>
       <c r="E1" t="s">
-        <v>1765</v>
+        <v>2037</v>
       </c>
       <c r="F1" t="s">
-        <v>1766</v>
+        <v>2038</v>
       </c>
       <c r="G1" t="s">
-        <v>1767</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="2">
@@ -9230,7 +10046,7 @@
         <v>2007</v>
       </c>
       <c r="B2" t="s">
-        <v>1753</v>
+        <v>2025</v>
       </c>
       <c r="C2">
         <v>5744575</v>
@@ -9251,7 +10067,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1754</v>
+        <v>2026</v>
       </c>
       <c r="C3">
         <v>5744575</v>
@@ -9272,7 +10088,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1755</v>
+        <v>2027</v>
       </c>
       <c r="C4">
         <v>5744575</v>
@@ -9293,7 +10109,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1756</v>
+        <v>2028</v>
       </c>
       <c r="C5">
         <v>5744575</v>
@@ -9314,7 +10130,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1757</v>
+        <v>2029</v>
       </c>
       <c r="C6">
         <v>5744575</v>
@@ -9335,7 +10151,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1758</v>
+        <v>2030</v>
       </c>
       <c r="C7">
         <v>5744575</v>
@@ -9356,7 +10172,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1759</v>
+        <v>2031</v>
       </c>
       <c r="C8">
         <v>5744575</v>
@@ -9377,7 +10193,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1760</v>
+        <v>2032</v>
       </c>
       <c r="C9">
         <v>5744575</v>
@@ -9398,7 +10214,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1761</v>
+        <v>2033</v>
       </c>
       <c r="C10">
         <v>5744575</v>
@@ -9419,7 +10235,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1762</v>
+        <v>2034</v>
       </c>
       <c r="C11">
         <v>5744575</v>
@@ -9448,25 +10264,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1768</v>
+        <v>2040</v>
       </c>
       <c r="B1" t="s">
-        <v>1769</v>
+        <v>2041</v>
       </c>
       <c r="C1" t="s">
-        <v>1780</v>
+        <v>2052</v>
       </c>
       <c r="D1" t="s">
-        <v>1781</v>
+        <v>2053</v>
       </c>
       <c r="E1" t="s">
-        <v>1782</v>
+        <v>2054</v>
       </c>
       <c r="F1" t="s">
-        <v>1783</v>
+        <v>2055</v>
       </c>
       <c r="G1" t="s">
-        <v>1784</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="2">
@@ -9474,7 +10290,7 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>1770</v>
+        <v>2042</v>
       </c>
       <c r="C2">
         <v>6150953</v>
@@ -9495,7 +10311,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1771</v>
+        <v>2043</v>
       </c>
       <c r="C3">
         <v>6150953</v>
@@ -9516,7 +10332,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1772</v>
+        <v>2044</v>
       </c>
       <c r="C4">
         <v>6150953</v>
@@ -9537,7 +10353,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1773</v>
+        <v>2045</v>
       </c>
       <c r="C5">
         <v>6150953</v>
@@ -9558,7 +10374,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1774</v>
+        <v>2046</v>
       </c>
       <c r="C6">
         <v>6150953</v>
@@ -9579,7 +10395,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1775</v>
+        <v>2047</v>
       </c>
       <c r="C7">
         <v>6150953</v>
@@ -9600,7 +10416,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1776</v>
+        <v>2048</v>
       </c>
       <c r="C8">
         <v>6150953</v>
@@ -9621,7 +10437,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1777</v>
+        <v>2049</v>
       </c>
       <c r="C9">
         <v>6150953</v>
@@ -9642,7 +10458,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1778</v>
+        <v>2050</v>
       </c>
       <c r="C10">
         <v>6150953</v>
@@ -9663,7 +10479,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1779</v>
+        <v>2051</v>
       </c>
       <c r="C11">
         <v>6150953</v>

--- a/input_data/admin_data/SLV/_clean/total-SLV.xlsx
+++ b/input_data/admin_data/SLV/_clean/total-SLV.xlsx
@@ -28,7 +28,5719 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="2176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4080" uniqueCount="4080">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -6604,25 +12316,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1904</v>
+        <v>3808</v>
       </c>
       <c r="B1" t="s">
-        <v>1905</v>
+        <v>3809</v>
       </c>
       <c r="C1" t="s">
-        <v>1916</v>
+        <v>3820</v>
       </c>
       <c r="D1" t="s">
-        <v>1917</v>
+        <v>3821</v>
       </c>
       <c r="E1" t="s">
-        <v>1918</v>
+        <v>3822</v>
       </c>
       <c r="F1" t="s">
-        <v>1919</v>
+        <v>3823</v>
       </c>
       <c r="G1" t="s">
-        <v>1920</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="2">
@@ -6630,7 +12342,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>1906</v>
+        <v>3810</v>
       </c>
       <c r="C2">
         <v>6272353</v>
@@ -6651,7 +12363,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1907</v>
+        <v>3811</v>
       </c>
       <c r="C3">
         <v>6272353</v>
@@ -6672,7 +12384,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1908</v>
+        <v>3812</v>
       </c>
       <c r="C4">
         <v>6272353</v>
@@ -6693,7 +12405,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1909</v>
+        <v>3813</v>
       </c>
       <c r="C5">
         <v>6272353</v>
@@ -6714,7 +12426,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1910</v>
+        <v>3814</v>
       </c>
       <c r="C6">
         <v>6272353</v>
@@ -6735,7 +12447,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1911</v>
+        <v>3815</v>
       </c>
       <c r="C7">
         <v>6272353</v>
@@ -6756,7 +12468,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1912</v>
+        <v>3816</v>
       </c>
       <c r="C8">
         <v>6272353</v>
@@ -6777,7 +12489,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1913</v>
+        <v>3817</v>
       </c>
       <c r="C9">
         <v>6272353</v>
@@ -6798,7 +12510,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1914</v>
+        <v>3818</v>
       </c>
       <c r="C10">
         <v>6272353</v>
@@ -6819,7 +12531,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1915</v>
+        <v>3819</v>
       </c>
       <c r="C11">
         <v>6272353</v>
@@ -6848,25 +12560,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2057</v>
+        <v>3961</v>
       </c>
       <c r="B1" t="s">
-        <v>2058</v>
+        <v>3962</v>
       </c>
       <c r="C1" t="s">
-        <v>2069</v>
+        <v>3973</v>
       </c>
       <c r="D1" t="s">
-        <v>2070</v>
+        <v>3974</v>
       </c>
       <c r="E1" t="s">
-        <v>2071</v>
+        <v>3975</v>
       </c>
       <c r="F1" t="s">
-        <v>2072</v>
+        <v>3976</v>
       </c>
       <c r="G1" t="s">
-        <v>2073</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="2">
@@ -6874,7 +12586,7 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>2059</v>
+        <v>3963</v>
       </c>
       <c r="C2">
         <v>6181405</v>
@@ -6895,7 +12607,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>2060</v>
+        <v>3964</v>
       </c>
       <c r="C3">
         <v>6181405</v>
@@ -6916,7 +12628,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>2061</v>
+        <v>3965</v>
       </c>
       <c r="C4">
         <v>6181405</v>
@@ -6937,7 +12649,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>2062</v>
+        <v>3966</v>
       </c>
       <c r="C5">
         <v>6181405</v>
@@ -6958,7 +12670,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>2063</v>
+        <v>3967</v>
       </c>
       <c r="C6">
         <v>6181405</v>
@@ -6979,7 +12691,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>2064</v>
+        <v>3968</v>
       </c>
       <c r="C7">
         <v>6181405</v>
@@ -7000,7 +12712,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>2065</v>
+        <v>3969</v>
       </c>
       <c r="C8">
         <v>6181405</v>
@@ -7021,7 +12733,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>2066</v>
+        <v>3970</v>
       </c>
       <c r="C9">
         <v>6181405</v>
@@ -7042,7 +12754,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>2067</v>
+        <v>3971</v>
       </c>
       <c r="C10">
         <v>6181405</v>
@@ -7063,7 +12775,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>2068</v>
+        <v>3972</v>
       </c>
       <c r="C11">
         <v>6181405</v>
@@ -7092,25 +12804,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2074</v>
+        <v>3978</v>
       </c>
       <c r="B1" t="s">
-        <v>2075</v>
+        <v>3979</v>
       </c>
       <c r="C1" t="s">
-        <v>2086</v>
+        <v>3990</v>
       </c>
       <c r="D1" t="s">
-        <v>2087</v>
+        <v>3991</v>
       </c>
       <c r="E1" t="s">
-        <v>2088</v>
+        <v>3992</v>
       </c>
       <c r="F1" t="s">
-        <v>2089</v>
+        <v>3993</v>
       </c>
       <c r="G1" t="s">
-        <v>2090</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="2">
@@ -7118,7 +12830,7 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>2076</v>
+        <v>3980</v>
       </c>
       <c r="C2">
         <v>6249262</v>
@@ -7139,7 +12851,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>2077</v>
+        <v>3981</v>
       </c>
       <c r="C3">
         <v>6249262</v>
@@ -7160,7 +12872,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>2078</v>
+        <v>3982</v>
       </c>
       <c r="C4">
         <v>6249262</v>
@@ -7181,7 +12893,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>2079</v>
+        <v>3983</v>
       </c>
       <c r="C5">
         <v>6249262</v>
@@ -7202,7 +12914,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>2080</v>
+        <v>3984</v>
       </c>
       <c r="C6">
         <v>6249262</v>
@@ -7223,7 +12935,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>2081</v>
+        <v>3985</v>
       </c>
       <c r="C7">
         <v>6249262</v>
@@ -7244,7 +12956,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>2082</v>
+        <v>3986</v>
       </c>
       <c r="C8">
         <v>6249262</v>
@@ -7265,7 +12977,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>2083</v>
+        <v>3987</v>
       </c>
       <c r="C9">
         <v>6249262</v>
@@ -7286,7 +12998,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>2084</v>
+        <v>3988</v>
       </c>
       <c r="C10">
         <v>6249262</v>
@@ -7307,7 +13019,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>2085</v>
+        <v>3989</v>
       </c>
       <c r="C11">
         <v>6249262</v>
@@ -7336,25 +13048,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2091</v>
+        <v>3995</v>
       </c>
       <c r="B1" t="s">
-        <v>2092</v>
+        <v>3996</v>
       </c>
       <c r="C1" t="s">
-        <v>2103</v>
+        <v>4007</v>
       </c>
       <c r="D1" t="s">
-        <v>2104</v>
+        <v>4008</v>
       </c>
       <c r="E1" t="s">
-        <v>2105</v>
+        <v>4009</v>
       </c>
       <c r="F1" t="s">
-        <v>2106</v>
+        <v>4010</v>
       </c>
       <c r="G1" t="s">
-        <v>2107</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="2">
@@ -7362,7 +13074,7 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>2093</v>
+        <v>3997</v>
       </c>
       <c r="C2">
         <v>6290383</v>
@@ -7383,7 +13095,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>2094</v>
+        <v>3998</v>
       </c>
       <c r="C3">
         <v>6290383</v>
@@ -7404,7 +13116,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>2095</v>
+        <v>3999</v>
       </c>
       <c r="C4">
         <v>6290383</v>
@@ -7425,7 +13137,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>2096</v>
+        <v>4000</v>
       </c>
       <c r="C5">
         <v>6290383</v>
@@ -7446,7 +13158,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>2097</v>
+        <v>4001</v>
       </c>
       <c r="C6">
         <v>6290383</v>
@@ -7467,7 +13179,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>2098</v>
+        <v>4002</v>
       </c>
       <c r="C7">
         <v>6290383</v>
@@ -7488,7 +13200,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>2099</v>
+        <v>4003</v>
       </c>
       <c r="C8">
         <v>6290383</v>
@@ -7509,7 +13221,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>2100</v>
+        <v>4004</v>
       </c>
       <c r="C9">
         <v>6290383</v>
@@ -7530,7 +13242,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>2101</v>
+        <v>4005</v>
       </c>
       <c r="C10">
         <v>6290383</v>
@@ -7551,7 +13263,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>2102</v>
+        <v>4006</v>
       </c>
       <c r="C11">
         <v>6290383</v>
@@ -7580,25 +13292,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2108</v>
+        <v>4012</v>
       </c>
       <c r="B1" t="s">
-        <v>2109</v>
+        <v>4013</v>
       </c>
       <c r="C1" t="s">
-        <v>2120</v>
+        <v>4024</v>
       </c>
       <c r="D1" t="s">
-        <v>2121</v>
+        <v>4025</v>
       </c>
       <c r="E1" t="s">
-        <v>2122</v>
+        <v>4026</v>
       </c>
       <c r="F1" t="s">
-        <v>2123</v>
+        <v>4027</v>
       </c>
       <c r="G1" t="s">
-        <v>2124</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="2">
@@ -7606,7 +13318,7 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>2110</v>
+        <v>4014</v>
       </c>
       <c r="C2">
         <v>6401415</v>
@@ -7627,7 +13339,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>2111</v>
+        <v>4015</v>
       </c>
       <c r="C3">
         <v>6401415</v>
@@ -7648,7 +13360,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>2112</v>
+        <v>4016</v>
       </c>
       <c r="C4">
         <v>6401415</v>
@@ -7669,7 +13381,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>2113</v>
+        <v>4017</v>
       </c>
       <c r="C5">
         <v>6401415</v>
@@ -7690,7 +13402,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>2114</v>
+        <v>4018</v>
       </c>
       <c r="C6">
         <v>6401415</v>
@@ -7711,7 +13423,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>2115</v>
+        <v>4019</v>
       </c>
       <c r="C7">
         <v>6401415</v>
@@ -7732,7 +13444,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>2116</v>
+        <v>4020</v>
       </c>
       <c r="C8">
         <v>6401415</v>
@@ -7753,7 +13465,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>2117</v>
+        <v>4021</v>
       </c>
       <c r="C9">
         <v>6401415</v>
@@ -7774,7 +13486,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>2118</v>
+        <v>4022</v>
       </c>
       <c r="C10">
         <v>6401415</v>
@@ -7795,7 +13507,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>2119</v>
+        <v>4023</v>
       </c>
       <c r="C11">
         <v>6401415</v>
@@ -7824,25 +13536,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2125</v>
+        <v>4029</v>
       </c>
       <c r="B1" t="s">
-        <v>2126</v>
+        <v>4030</v>
       </c>
       <c r="C1" t="s">
-        <v>2137</v>
+        <v>4041</v>
       </c>
       <c r="D1" t="s">
-        <v>2138</v>
+        <v>4042</v>
       </c>
       <c r="E1" t="s">
-        <v>2139</v>
+        <v>4043</v>
       </c>
       <c r="F1" t="s">
-        <v>2140</v>
+        <v>4044</v>
       </c>
       <c r="G1" t="s">
-        <v>2141</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="2">
@@ -7850,7 +13562,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>2127</v>
+        <v>4031</v>
       </c>
       <c r="C2">
         <v>6459911</v>
@@ -7871,7 +13583,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>2128</v>
+        <v>4032</v>
       </c>
       <c r="C3">
         <v>6459911</v>
@@ -7892,7 +13604,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>2129</v>
+        <v>4033</v>
       </c>
       <c r="C4">
         <v>6459911</v>
@@ -7913,7 +13625,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>2130</v>
+        <v>4034</v>
       </c>
       <c r="C5">
         <v>6459911</v>
@@ -7934,7 +13646,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>2131</v>
+        <v>4035</v>
       </c>
       <c r="C6">
         <v>6459911</v>
@@ -7955,7 +13667,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>2132</v>
+        <v>4036</v>
       </c>
       <c r="C7">
         <v>6459911</v>
@@ -7976,7 +13688,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>2133</v>
+        <v>4037</v>
       </c>
       <c r="C8">
         <v>6459911</v>
@@ -7997,7 +13709,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>2134</v>
+        <v>4038</v>
       </c>
       <c r="C9">
         <v>6459911</v>
@@ -8018,7 +13730,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>2135</v>
+        <v>4039</v>
       </c>
       <c r="C10">
         <v>6459911</v>
@@ -8039,7 +13751,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>2136</v>
+        <v>4040</v>
       </c>
       <c r="C11">
         <v>6459911</v>
@@ -8068,25 +13780,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2142</v>
+        <v>4046</v>
       </c>
       <c r="B1" t="s">
-        <v>2143</v>
+        <v>4047</v>
       </c>
       <c r="C1" t="s">
-        <v>2154</v>
+        <v>4058</v>
       </c>
       <c r="D1" t="s">
-        <v>2155</v>
+        <v>4059</v>
       </c>
       <c r="E1" t="s">
-        <v>2156</v>
+        <v>4060</v>
       </c>
       <c r="F1" t="s">
-        <v>2157</v>
+        <v>4061</v>
       </c>
       <c r="G1" t="s">
-        <v>2158</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="2">
@@ -8094,7 +13806,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>2144</v>
+        <v>4048</v>
       </c>
       <c r="C2">
         <v>6522419</v>
@@ -8115,7 +13827,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>2145</v>
+        <v>4049</v>
       </c>
       <c r="C3">
         <v>6522419</v>
@@ -8136,7 +13848,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>2146</v>
+        <v>4050</v>
       </c>
       <c r="C4">
         <v>6522419</v>
@@ -8157,7 +13869,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>2147</v>
+        <v>4051</v>
       </c>
       <c r="C5">
         <v>6522419</v>
@@ -8178,7 +13890,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>2148</v>
+        <v>4052</v>
       </c>
       <c r="C6">
         <v>6522419</v>
@@ -8199,7 +13911,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>2149</v>
+        <v>4053</v>
       </c>
       <c r="C7">
         <v>6522419</v>
@@ -8220,7 +13932,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>2150</v>
+        <v>4054</v>
       </c>
       <c r="C8">
         <v>6522419</v>
@@ -8241,7 +13953,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>2151</v>
+        <v>4055</v>
       </c>
       <c r="C9">
         <v>6522419</v>
@@ -8262,7 +13974,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>2152</v>
+        <v>4056</v>
       </c>
       <c r="C10">
         <v>6522419</v>
@@ -8283,7 +13995,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>2153</v>
+        <v>4057</v>
       </c>
       <c r="C11">
         <v>6522419</v>
@@ -8312,25 +14024,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2159</v>
+        <v>4063</v>
       </c>
       <c r="B1" t="s">
-        <v>2160</v>
+        <v>4064</v>
       </c>
       <c r="C1" t="s">
-        <v>2171</v>
+        <v>4075</v>
       </c>
       <c r="D1" t="s">
-        <v>2172</v>
+        <v>4076</v>
       </c>
       <c r="E1" t="s">
-        <v>2173</v>
+        <v>4077</v>
       </c>
       <c r="F1" t="s">
-        <v>2174</v>
+        <v>4078</v>
       </c>
       <c r="G1" t="s">
-        <v>2175</v>
+        <v>4079</v>
       </c>
     </row>
     <row r="2">
@@ -8338,7 +14050,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>2161</v>
+        <v>4065</v>
       </c>
       <c r="C2">
         <v>6581860</v>
@@ -8359,7 +14071,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>2162</v>
+        <v>4066</v>
       </c>
       <c r="C3">
         <v>6581860</v>
@@ -8380,7 +14092,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>2163</v>
+        <v>4067</v>
       </c>
       <c r="C4">
         <v>6581860</v>
@@ -8401,7 +14113,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>2164</v>
+        <v>4068</v>
       </c>
       <c r="C5">
         <v>6581860</v>
@@ -8422,7 +14134,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>2165</v>
+        <v>4069</v>
       </c>
       <c r="C6">
         <v>6581860</v>
@@ -8443,7 +14155,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>2166</v>
+        <v>4070</v>
       </c>
       <c r="C7">
         <v>6581860</v>
@@ -8464,7 +14176,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>2167</v>
+        <v>4071</v>
       </c>
       <c r="C8">
         <v>6581860</v>
@@ -8485,7 +14197,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>2168</v>
+        <v>4072</v>
       </c>
       <c r="C9">
         <v>6581860</v>
@@ -8506,7 +14218,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>2169</v>
+        <v>4073</v>
       </c>
       <c r="C10">
         <v>6581860</v>
@@ -8527,7 +14239,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>2170</v>
+        <v>4074</v>
       </c>
       <c r="C11">
         <v>6581860</v>
@@ -8556,25 +14268,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1921</v>
+        <v>3825</v>
       </c>
       <c r="B1" t="s">
-        <v>1922</v>
+        <v>3826</v>
       </c>
       <c r="C1" t="s">
-        <v>1933</v>
+        <v>3837</v>
       </c>
       <c r="D1" t="s">
-        <v>1934</v>
+        <v>3838</v>
       </c>
       <c r="E1" t="s">
-        <v>1935</v>
+        <v>3839</v>
       </c>
       <c r="F1" t="s">
-        <v>1936</v>
+        <v>3840</v>
       </c>
       <c r="G1" t="s">
-        <v>1937</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="2">
@@ -8582,7 +14294,7 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>1923</v>
+        <v>3827</v>
       </c>
       <c r="C2">
         <v>6428672</v>
@@ -8603,7 +14315,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1924</v>
+        <v>3828</v>
       </c>
       <c r="C3">
         <v>6428672</v>
@@ -8624,7 +14336,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1925</v>
+        <v>3829</v>
       </c>
       <c r="C4">
         <v>6428672</v>
@@ -8645,7 +14357,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1926</v>
+        <v>3830</v>
       </c>
       <c r="C5">
         <v>6428672</v>
@@ -8666,7 +14378,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1927</v>
+        <v>3831</v>
       </c>
       <c r="C6">
         <v>6428672</v>
@@ -8687,7 +14399,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1928</v>
+        <v>3832</v>
       </c>
       <c r="C7">
         <v>6428672</v>
@@ -8708,7 +14420,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1929</v>
+        <v>3833</v>
       </c>
       <c r="C8">
         <v>6428672</v>
@@ -8729,7 +14441,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1930</v>
+        <v>3834</v>
       </c>
       <c r="C9">
         <v>6428672</v>
@@ -8750,7 +14462,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1931</v>
+        <v>3835</v>
       </c>
       <c r="C10">
         <v>6428672</v>
@@ -8771,7 +14483,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1932</v>
+        <v>3836</v>
       </c>
       <c r="C11">
         <v>6428672</v>
@@ -8800,25 +14512,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1938</v>
+        <v>3842</v>
       </c>
       <c r="B1" t="s">
-        <v>1939</v>
+        <v>3843</v>
       </c>
       <c r="C1" t="s">
-        <v>1950</v>
+        <v>3854</v>
       </c>
       <c r="D1" t="s">
-        <v>1951</v>
+        <v>3855</v>
       </c>
       <c r="E1" t="s">
-        <v>1952</v>
+        <v>3856</v>
       </c>
       <c r="F1" t="s">
-        <v>1953</v>
+        <v>3857</v>
       </c>
       <c r="G1" t="s">
-        <v>1954</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="2">
@@ -8826,7 +14538,7 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>1940</v>
+        <v>3844</v>
       </c>
       <c r="C2">
         <v>6510348</v>
@@ -8847,7 +14559,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1941</v>
+        <v>3845</v>
       </c>
       <c r="C3">
         <v>6510348</v>
@@ -8868,7 +14580,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1942</v>
+        <v>3846</v>
       </c>
       <c r="C4">
         <v>6510348</v>
@@ -8889,7 +14601,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1943</v>
+        <v>3847</v>
       </c>
       <c r="C5">
         <v>6510348</v>
@@ -8910,7 +14622,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1944</v>
+        <v>3848</v>
       </c>
       <c r="C6">
         <v>6510348</v>
@@ -8931,7 +14643,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1945</v>
+        <v>3849</v>
       </c>
       <c r="C7">
         <v>6510348</v>
@@ -8952,7 +14664,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1946</v>
+        <v>3850</v>
       </c>
       <c r="C8">
         <v>6510348</v>
@@ -8973,7 +14685,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1947</v>
+        <v>3851</v>
       </c>
       <c r="C9">
         <v>6510348</v>
@@ -8994,7 +14706,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1948</v>
+        <v>3852</v>
       </c>
       <c r="C10">
         <v>6510348</v>
@@ -9015,7 +14727,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1949</v>
+        <v>3853</v>
       </c>
       <c r="C11">
         <v>6510348</v>
@@ -9044,25 +14756,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1955</v>
+        <v>3859</v>
       </c>
       <c r="B1" t="s">
-        <v>1956</v>
+        <v>3860</v>
       </c>
       <c r="C1" t="s">
-        <v>1967</v>
+        <v>3871</v>
       </c>
       <c r="D1" t="s">
-        <v>1968</v>
+        <v>3872</v>
       </c>
       <c r="E1" t="s">
-        <v>1969</v>
+        <v>3873</v>
       </c>
       <c r="F1" t="s">
-        <v>1970</v>
+        <v>3874</v>
       </c>
       <c r="G1" t="s">
-        <v>1971</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="2">
@@ -9070,7 +14782,7 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>1957</v>
+        <v>3861</v>
       </c>
       <c r="C2">
         <v>6639010</v>
@@ -9091,7 +14803,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1958</v>
+        <v>3862</v>
       </c>
       <c r="C3">
         <v>6639010</v>
@@ -9112,7 +14824,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1959</v>
+        <v>3863</v>
       </c>
       <c r="C4">
         <v>6639010</v>
@@ -9133,7 +14845,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1960</v>
+        <v>3864</v>
       </c>
       <c r="C5">
         <v>6639010</v>
@@ -9154,7 +14866,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1961</v>
+        <v>3865</v>
       </c>
       <c r="C6">
         <v>6639010</v>
@@ -9175,7 +14887,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1962</v>
+        <v>3866</v>
       </c>
       <c r="C7">
         <v>6639010</v>
@@ -9196,7 +14908,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1963</v>
+        <v>3867</v>
       </c>
       <c r="C8">
         <v>6639010</v>
@@ -9217,7 +14929,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1964</v>
+        <v>3868</v>
       </c>
       <c r="C9">
         <v>6639010</v>
@@ -9238,7 +14950,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1965</v>
+        <v>3869</v>
       </c>
       <c r="C10">
         <v>6639010</v>
@@ -9259,7 +14971,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1966</v>
+        <v>3870</v>
       </c>
       <c r="C11">
         <v>6639010</v>
@@ -9288,25 +15000,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1972</v>
+        <v>3876</v>
       </c>
       <c r="B1" t="s">
-        <v>1973</v>
+        <v>3877</v>
       </c>
       <c r="C1" t="s">
-        <v>1984</v>
+        <v>3888</v>
       </c>
       <c r="D1" t="s">
-        <v>1985</v>
+        <v>3889</v>
       </c>
       <c r="E1" t="s">
-        <v>1986</v>
+        <v>3890</v>
       </c>
       <c r="F1" t="s">
-        <v>1987</v>
+        <v>3891</v>
       </c>
       <c r="G1" t="s">
-        <v>1988</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="2">
@@ -9314,7 +15026,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>1974</v>
+        <v>3878</v>
       </c>
       <c r="C2">
         <v>6756786</v>
@@ -9335,7 +15047,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1975</v>
+        <v>3879</v>
       </c>
       <c r="C3">
         <v>6756786</v>
@@ -9356,7 +15068,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1976</v>
+        <v>3880</v>
       </c>
       <c r="C4">
         <v>6756786</v>
@@ -9377,7 +15089,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1977</v>
+        <v>3881</v>
       </c>
       <c r="C5">
         <v>6756786</v>
@@ -9398,7 +15110,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1978</v>
+        <v>3882</v>
       </c>
       <c r="C6">
         <v>6756786</v>
@@ -9419,7 +15131,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1979</v>
+        <v>3883</v>
       </c>
       <c r="C7">
         <v>6756786</v>
@@ -9440,7 +15152,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1980</v>
+        <v>3884</v>
       </c>
       <c r="C8">
         <v>6756786</v>
@@ -9461,7 +15173,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1981</v>
+        <v>3885</v>
       </c>
       <c r="C9">
         <v>6756786</v>
@@ -9482,7 +15194,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1982</v>
+        <v>3886</v>
       </c>
       <c r="C10">
         <v>6756786</v>
@@ -9503,7 +15215,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1983</v>
+        <v>3887</v>
       </c>
       <c r="C11">
         <v>6756786</v>
@@ -9532,25 +15244,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1989</v>
+        <v>3893</v>
       </c>
       <c r="B1" t="s">
-        <v>1990</v>
+        <v>3894</v>
       </c>
       <c r="C1" t="s">
-        <v>2001</v>
+        <v>3905</v>
       </c>
       <c r="D1" t="s">
-        <v>2002</v>
+        <v>3906</v>
       </c>
       <c r="E1" t="s">
-        <v>2003</v>
+        <v>3907</v>
       </c>
       <c r="F1" t="s">
-        <v>2004</v>
+        <v>3908</v>
       </c>
       <c r="G1" t="s">
-        <v>2005</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="2">
@@ -9558,7 +15270,7 @@
         <v>2005</v>
       </c>
       <c r="B2" t="s">
-        <v>1991</v>
+        <v>3895</v>
       </c>
       <c r="C2">
         <v>6864080</v>
@@ -9579,7 +15291,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1992</v>
+        <v>3896</v>
       </c>
       <c r="C3">
         <v>6864080</v>
@@ -9600,7 +15312,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1993</v>
+        <v>3897</v>
       </c>
       <c r="C4">
         <v>6864080</v>
@@ -9621,7 +15333,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1994</v>
+        <v>3898</v>
       </c>
       <c r="C5">
         <v>6864080</v>
@@ -9642,7 +15354,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1995</v>
+        <v>3899</v>
       </c>
       <c r="C6">
         <v>6864080</v>
@@ -9663,7 +15375,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1996</v>
+        <v>3900</v>
       </c>
       <c r="C7">
         <v>6864080</v>
@@ -9684,7 +15396,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1997</v>
+        <v>3901</v>
       </c>
       <c r="C8">
         <v>6864080</v>
@@ -9705,7 +15417,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1998</v>
+        <v>3902</v>
       </c>
       <c r="C9">
         <v>6864080</v>
@@ -9726,7 +15438,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1999</v>
+        <v>3903</v>
       </c>
       <c r="C10">
         <v>6864080</v>
@@ -9747,7 +15459,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>2000</v>
+        <v>3904</v>
       </c>
       <c r="C11">
         <v>6864080</v>
@@ -9776,25 +15488,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2006</v>
+        <v>3910</v>
       </c>
       <c r="B1" t="s">
-        <v>2007</v>
+        <v>3911</v>
       </c>
       <c r="C1" t="s">
-        <v>2018</v>
+        <v>3922</v>
       </c>
       <c r="D1" t="s">
-        <v>2019</v>
+        <v>3923</v>
       </c>
       <c r="E1" t="s">
-        <v>2020</v>
+        <v>3924</v>
       </c>
       <c r="F1" t="s">
-        <v>2021</v>
+        <v>3925</v>
       </c>
       <c r="G1" t="s">
-        <v>2022</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="2">
@@ -9802,7 +15514,7 @@
         <v>2006</v>
       </c>
       <c r="B2" t="s">
-        <v>2008</v>
+        <v>3912</v>
       </c>
       <c r="C2">
         <v>6980279</v>
@@ -9823,7 +15535,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>2009</v>
+        <v>3913</v>
       </c>
       <c r="C3">
         <v>6980279</v>
@@ -9844,7 +15556,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>2010</v>
+        <v>3914</v>
       </c>
       <c r="C4">
         <v>6980279</v>
@@ -9865,7 +15577,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>2011</v>
+        <v>3915</v>
       </c>
       <c r="C5">
         <v>6980279</v>
@@ -9886,7 +15598,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>2012</v>
+        <v>3916</v>
       </c>
       <c r="C6">
         <v>6980279</v>
@@ -9907,7 +15619,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>2013</v>
+        <v>3917</v>
       </c>
       <c r="C7">
         <v>6980279</v>
@@ -9928,7 +15640,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>2014</v>
+        <v>3918</v>
       </c>
       <c r="C8">
         <v>6980279</v>
@@ -9949,7 +15661,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>2015</v>
+        <v>3919</v>
       </c>
       <c r="C9">
         <v>6980279</v>
@@ -9970,7 +15682,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>2016</v>
+        <v>3920</v>
       </c>
       <c r="C10">
         <v>6980279</v>
@@ -9991,7 +15703,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>2017</v>
+        <v>3921</v>
       </c>
       <c r="C11">
         <v>6980279</v>
@@ -10020,25 +15732,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2023</v>
+        <v>3927</v>
       </c>
       <c r="B1" t="s">
-        <v>2024</v>
+        <v>3928</v>
       </c>
       <c r="C1" t="s">
-        <v>2035</v>
+        <v>3939</v>
       </c>
       <c r="D1" t="s">
-        <v>2036</v>
+        <v>3940</v>
       </c>
       <c r="E1" t="s">
-        <v>2037</v>
+        <v>3941</v>
       </c>
       <c r="F1" t="s">
-        <v>2038</v>
+        <v>3942</v>
       </c>
       <c r="G1" t="s">
-        <v>2039</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="2">
@@ -10046,7 +15758,7 @@
         <v>2007</v>
       </c>
       <c r="B2" t="s">
-        <v>2025</v>
+        <v>3929</v>
       </c>
       <c r="C2">
         <v>5744575</v>
@@ -10067,7 +15779,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>2026</v>
+        <v>3930</v>
       </c>
       <c r="C3">
         <v>5744575</v>
@@ -10088,7 +15800,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>2027</v>
+        <v>3931</v>
       </c>
       <c r="C4">
         <v>5744575</v>
@@ -10109,7 +15821,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>2028</v>
+        <v>3932</v>
       </c>
       <c r="C5">
         <v>5744575</v>
@@ -10130,7 +15842,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>2029</v>
+        <v>3933</v>
       </c>
       <c r="C6">
         <v>5744575</v>
@@ -10151,7 +15863,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>2030</v>
+        <v>3934</v>
       </c>
       <c r="C7">
         <v>5744575</v>
@@ -10172,7 +15884,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>2031</v>
+        <v>3935</v>
       </c>
       <c r="C8">
         <v>5744575</v>
@@ -10193,7 +15905,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>2032</v>
+        <v>3936</v>
       </c>
       <c r="C9">
         <v>5744575</v>
@@ -10214,7 +15926,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>2033</v>
+        <v>3937</v>
       </c>
       <c r="C10">
         <v>5744575</v>
@@ -10235,7 +15947,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>2034</v>
+        <v>3938</v>
       </c>
       <c r="C11">
         <v>5744575</v>
@@ -10264,25 +15976,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2040</v>
+        <v>3944</v>
       </c>
       <c r="B1" t="s">
-        <v>2041</v>
+        <v>3945</v>
       </c>
       <c r="C1" t="s">
-        <v>2052</v>
+        <v>3956</v>
       </c>
       <c r="D1" t="s">
-        <v>2053</v>
+        <v>3957</v>
       </c>
       <c r="E1" t="s">
-        <v>2054</v>
+        <v>3958</v>
       </c>
       <c r="F1" t="s">
-        <v>2055</v>
+        <v>3959</v>
       </c>
       <c r="G1" t="s">
-        <v>2056</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="2">
@@ -10290,7 +16002,7 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>2042</v>
+        <v>3946</v>
       </c>
       <c r="C2">
         <v>6150953</v>
@@ -10311,7 +16023,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>2043</v>
+        <v>3947</v>
       </c>
       <c r="C3">
         <v>6150953</v>
@@ -10332,7 +16044,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>2044</v>
+        <v>3948</v>
       </c>
       <c r="C4">
         <v>6150953</v>
@@ -10353,7 +16065,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>2045</v>
+        <v>3949</v>
       </c>
       <c r="C5">
         <v>6150953</v>
@@ -10374,7 +16086,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>2046</v>
+        <v>3950</v>
       </c>
       <c r="C6">
         <v>6150953</v>
@@ -10395,7 +16107,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>2047</v>
+        <v>3951</v>
       </c>
       <c r="C7">
         <v>6150953</v>
@@ -10416,7 +16128,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>2048</v>
+        <v>3952</v>
       </c>
       <c r="C8">
         <v>6150953</v>
@@ -10437,7 +16149,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>2049</v>
+        <v>3953</v>
       </c>
       <c r="C9">
         <v>6150953</v>
@@ -10458,7 +16170,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>2050</v>
+        <v>3954</v>
       </c>
       <c r="C10">
         <v>6150953</v>
@@ -10479,7 +16191,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>2051</v>
+        <v>3955</v>
       </c>
       <c r="C11">
         <v>6150953</v>

--- a/input_data/admin_data/SLV/_clean/total-SLV.xlsx
+++ b/input_data/admin_data/SLV/_clean/total-SLV.xlsx
@@ -28,7 +28,2455 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4080" uniqueCount="4080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4896" uniqueCount="4896">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -12316,25 +14764,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3808</v>
+        <v>4624</v>
       </c>
       <c r="B1" t="s">
-        <v>3809</v>
+        <v>4625</v>
       </c>
       <c r="C1" t="s">
-        <v>3820</v>
+        <v>4636</v>
       </c>
       <c r="D1" t="s">
-        <v>3821</v>
+        <v>4637</v>
       </c>
       <c r="E1" t="s">
-        <v>3822</v>
+        <v>4638</v>
       </c>
       <c r="F1" t="s">
-        <v>3823</v>
+        <v>4639</v>
       </c>
       <c r="G1" t="s">
-        <v>3824</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="2">
@@ -12342,7 +14790,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>3810</v>
+        <v>4626</v>
       </c>
       <c r="C2">
         <v>6272353</v>
@@ -12363,7 +14811,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3811</v>
+        <v>4627</v>
       </c>
       <c r="C3">
         <v>6272353</v>
@@ -12384,7 +14832,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3812</v>
+        <v>4628</v>
       </c>
       <c r="C4">
         <v>6272353</v>
@@ -12405,7 +14853,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3813</v>
+        <v>4629</v>
       </c>
       <c r="C5">
         <v>6272353</v>
@@ -12426,7 +14874,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3814</v>
+        <v>4630</v>
       </c>
       <c r="C6">
         <v>6272353</v>
@@ -12447,7 +14895,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3815</v>
+        <v>4631</v>
       </c>
       <c r="C7">
         <v>6272353</v>
@@ -12468,7 +14916,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3816</v>
+        <v>4632</v>
       </c>
       <c r="C8">
         <v>6272353</v>
@@ -12489,7 +14937,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3817</v>
+        <v>4633</v>
       </c>
       <c r="C9">
         <v>6272353</v>
@@ -12510,7 +14958,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3818</v>
+        <v>4634</v>
       </c>
       <c r="C10">
         <v>6272353</v>
@@ -12531,7 +14979,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3819</v>
+        <v>4635</v>
       </c>
       <c r="C11">
         <v>6272353</v>
@@ -12560,25 +15008,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3961</v>
+        <v>4777</v>
       </c>
       <c r="B1" t="s">
-        <v>3962</v>
+        <v>4778</v>
       </c>
       <c r="C1" t="s">
-        <v>3973</v>
+        <v>4789</v>
       </c>
       <c r="D1" t="s">
-        <v>3974</v>
+        <v>4790</v>
       </c>
       <c r="E1" t="s">
-        <v>3975</v>
+        <v>4791</v>
       </c>
       <c r="F1" t="s">
-        <v>3976</v>
+        <v>4792</v>
       </c>
       <c r="G1" t="s">
-        <v>3977</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="2">
@@ -12586,7 +15034,7 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>3963</v>
+        <v>4779</v>
       </c>
       <c r="C2">
         <v>6181405</v>
@@ -12607,7 +15055,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3964</v>
+        <v>4780</v>
       </c>
       <c r="C3">
         <v>6181405</v>
@@ -12628,7 +15076,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3965</v>
+        <v>4781</v>
       </c>
       <c r="C4">
         <v>6181405</v>
@@ -12649,7 +15097,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3966</v>
+        <v>4782</v>
       </c>
       <c r="C5">
         <v>6181405</v>
@@ -12670,7 +15118,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3967</v>
+        <v>4783</v>
       </c>
       <c r="C6">
         <v>6181405</v>
@@ -12691,7 +15139,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3968</v>
+        <v>4784</v>
       </c>
       <c r="C7">
         <v>6181405</v>
@@ -12712,7 +15160,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3969</v>
+        <v>4785</v>
       </c>
       <c r="C8">
         <v>6181405</v>
@@ -12733,7 +15181,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3970</v>
+        <v>4786</v>
       </c>
       <c r="C9">
         <v>6181405</v>
@@ -12754,7 +15202,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3971</v>
+        <v>4787</v>
       </c>
       <c r="C10">
         <v>6181405</v>
@@ -12775,7 +15223,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3972</v>
+        <v>4788</v>
       </c>
       <c r="C11">
         <v>6181405</v>
@@ -12804,25 +15252,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3978</v>
+        <v>4794</v>
       </c>
       <c r="B1" t="s">
-        <v>3979</v>
+        <v>4795</v>
       </c>
       <c r="C1" t="s">
-        <v>3990</v>
+        <v>4806</v>
       </c>
       <c r="D1" t="s">
-        <v>3991</v>
+        <v>4807</v>
       </c>
       <c r="E1" t="s">
-        <v>3992</v>
+        <v>4808</v>
       </c>
       <c r="F1" t="s">
-        <v>3993</v>
+        <v>4809</v>
       </c>
       <c r="G1" t="s">
-        <v>3994</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="2">
@@ -12830,7 +15278,7 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>3980</v>
+        <v>4796</v>
       </c>
       <c r="C2">
         <v>6249262</v>
@@ -12851,7 +15299,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3981</v>
+        <v>4797</v>
       </c>
       <c r="C3">
         <v>6249262</v>
@@ -12872,7 +15320,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3982</v>
+        <v>4798</v>
       </c>
       <c r="C4">
         <v>6249262</v>
@@ -12893,7 +15341,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3983</v>
+        <v>4799</v>
       </c>
       <c r="C5">
         <v>6249262</v>
@@ -12914,7 +15362,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3984</v>
+        <v>4800</v>
       </c>
       <c r="C6">
         <v>6249262</v>
@@ -12935,7 +15383,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3985</v>
+        <v>4801</v>
       </c>
       <c r="C7">
         <v>6249262</v>
@@ -12956,7 +15404,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3986</v>
+        <v>4802</v>
       </c>
       <c r="C8">
         <v>6249262</v>
@@ -12977,7 +15425,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3987</v>
+        <v>4803</v>
       </c>
       <c r="C9">
         <v>6249262</v>
@@ -12998,7 +15446,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3988</v>
+        <v>4804</v>
       </c>
       <c r="C10">
         <v>6249262</v>
@@ -13019,7 +15467,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3989</v>
+        <v>4805</v>
       </c>
       <c r="C11">
         <v>6249262</v>
@@ -13048,25 +15496,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3995</v>
+        <v>4811</v>
       </c>
       <c r="B1" t="s">
-        <v>3996</v>
+        <v>4812</v>
       </c>
       <c r="C1" t="s">
-        <v>4007</v>
+        <v>4823</v>
       </c>
       <c r="D1" t="s">
-        <v>4008</v>
+        <v>4824</v>
       </c>
       <c r="E1" t="s">
-        <v>4009</v>
+        <v>4825</v>
       </c>
       <c r="F1" t="s">
-        <v>4010</v>
+        <v>4826</v>
       </c>
       <c r="G1" t="s">
-        <v>4011</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="2">
@@ -13074,7 +15522,7 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>3997</v>
+        <v>4813</v>
       </c>
       <c r="C2">
         <v>6290383</v>
@@ -13095,7 +15543,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3998</v>
+        <v>4814</v>
       </c>
       <c r="C3">
         <v>6290383</v>
@@ -13116,7 +15564,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3999</v>
+        <v>4815</v>
       </c>
       <c r="C4">
         <v>6290383</v>
@@ -13137,7 +15585,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4000</v>
+        <v>4816</v>
       </c>
       <c r="C5">
         <v>6290383</v>
@@ -13158,7 +15606,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4001</v>
+        <v>4817</v>
       </c>
       <c r="C6">
         <v>6290383</v>
@@ -13179,7 +15627,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4002</v>
+        <v>4818</v>
       </c>
       <c r="C7">
         <v>6290383</v>
@@ -13200,7 +15648,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4003</v>
+        <v>4819</v>
       </c>
       <c r="C8">
         <v>6290383</v>
@@ -13221,7 +15669,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4004</v>
+        <v>4820</v>
       </c>
       <c r="C9">
         <v>6290383</v>
@@ -13242,7 +15690,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4005</v>
+        <v>4821</v>
       </c>
       <c r="C10">
         <v>6290383</v>
@@ -13263,7 +15711,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4006</v>
+        <v>4822</v>
       </c>
       <c r="C11">
         <v>6290383</v>
@@ -13292,25 +15740,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4012</v>
+        <v>4828</v>
       </c>
       <c r="B1" t="s">
-        <v>4013</v>
+        <v>4829</v>
       </c>
       <c r="C1" t="s">
-        <v>4024</v>
+        <v>4840</v>
       </c>
       <c r="D1" t="s">
-        <v>4025</v>
+        <v>4841</v>
       </c>
       <c r="E1" t="s">
-        <v>4026</v>
+        <v>4842</v>
       </c>
       <c r="F1" t="s">
-        <v>4027</v>
+        <v>4843</v>
       </c>
       <c r="G1" t="s">
-        <v>4028</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="2">
@@ -13318,7 +15766,7 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>4014</v>
+        <v>4830</v>
       </c>
       <c r="C2">
         <v>6401415</v>
@@ -13339,7 +15787,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4015</v>
+        <v>4831</v>
       </c>
       <c r="C3">
         <v>6401415</v>
@@ -13360,7 +15808,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4016</v>
+        <v>4832</v>
       </c>
       <c r="C4">
         <v>6401415</v>
@@ -13381,7 +15829,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4017</v>
+        <v>4833</v>
       </c>
       <c r="C5">
         <v>6401415</v>
@@ -13402,7 +15850,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4018</v>
+        <v>4834</v>
       </c>
       <c r="C6">
         <v>6401415</v>
@@ -13423,7 +15871,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4019</v>
+        <v>4835</v>
       </c>
       <c r="C7">
         <v>6401415</v>
@@ -13444,7 +15892,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4020</v>
+        <v>4836</v>
       </c>
       <c r="C8">
         <v>6401415</v>
@@ -13465,7 +15913,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4021</v>
+        <v>4837</v>
       </c>
       <c r="C9">
         <v>6401415</v>
@@ -13486,7 +15934,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4022</v>
+        <v>4838</v>
       </c>
       <c r="C10">
         <v>6401415</v>
@@ -13507,7 +15955,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4023</v>
+        <v>4839</v>
       </c>
       <c r="C11">
         <v>6401415</v>
@@ -13536,25 +15984,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4029</v>
+        <v>4845</v>
       </c>
       <c r="B1" t="s">
-        <v>4030</v>
+        <v>4846</v>
       </c>
       <c r="C1" t="s">
-        <v>4041</v>
+        <v>4857</v>
       </c>
       <c r="D1" t="s">
-        <v>4042</v>
+        <v>4858</v>
       </c>
       <c r="E1" t="s">
-        <v>4043</v>
+        <v>4859</v>
       </c>
       <c r="F1" t="s">
-        <v>4044</v>
+        <v>4860</v>
       </c>
       <c r="G1" t="s">
-        <v>4045</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="2">
@@ -13562,7 +16010,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>4031</v>
+        <v>4847</v>
       </c>
       <c r="C2">
         <v>6459911</v>
@@ -13583,7 +16031,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4032</v>
+        <v>4848</v>
       </c>
       <c r="C3">
         <v>6459911</v>
@@ -13604,7 +16052,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4033</v>
+        <v>4849</v>
       </c>
       <c r="C4">
         <v>6459911</v>
@@ -13625,7 +16073,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4034</v>
+        <v>4850</v>
       </c>
       <c r="C5">
         <v>6459911</v>
@@ -13646,7 +16094,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4035</v>
+        <v>4851</v>
       </c>
       <c r="C6">
         <v>6459911</v>
@@ -13667,7 +16115,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4036</v>
+        <v>4852</v>
       </c>
       <c r="C7">
         <v>6459911</v>
@@ -13688,7 +16136,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4037</v>
+        <v>4853</v>
       </c>
       <c r="C8">
         <v>6459911</v>
@@ -13709,7 +16157,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4038</v>
+        <v>4854</v>
       </c>
       <c r="C9">
         <v>6459911</v>
@@ -13730,7 +16178,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4039</v>
+        <v>4855</v>
       </c>
       <c r="C10">
         <v>6459911</v>
@@ -13751,7 +16199,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4040</v>
+        <v>4856</v>
       </c>
       <c r="C11">
         <v>6459911</v>
@@ -13780,25 +16228,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4046</v>
+        <v>4862</v>
       </c>
       <c r="B1" t="s">
-        <v>4047</v>
+        <v>4863</v>
       </c>
       <c r="C1" t="s">
-        <v>4058</v>
+        <v>4874</v>
       </c>
       <c r="D1" t="s">
-        <v>4059</v>
+        <v>4875</v>
       </c>
       <c r="E1" t="s">
-        <v>4060</v>
+        <v>4876</v>
       </c>
       <c r="F1" t="s">
-        <v>4061</v>
+        <v>4877</v>
       </c>
       <c r="G1" t="s">
-        <v>4062</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="2">
@@ -13806,7 +16254,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>4048</v>
+        <v>4864</v>
       </c>
       <c r="C2">
         <v>6522419</v>
@@ -13827,7 +16275,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4049</v>
+        <v>4865</v>
       </c>
       <c r="C3">
         <v>6522419</v>
@@ -13848,7 +16296,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4050</v>
+        <v>4866</v>
       </c>
       <c r="C4">
         <v>6522419</v>
@@ -13869,7 +16317,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4051</v>
+        <v>4867</v>
       </c>
       <c r="C5">
         <v>6522419</v>
@@ -13890,7 +16338,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4052</v>
+        <v>4868</v>
       </c>
       <c r="C6">
         <v>6522419</v>
@@ -13911,7 +16359,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4053</v>
+        <v>4869</v>
       </c>
       <c r="C7">
         <v>6522419</v>
@@ -13932,7 +16380,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4054</v>
+        <v>4870</v>
       </c>
       <c r="C8">
         <v>6522419</v>
@@ -13953,7 +16401,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4055</v>
+        <v>4871</v>
       </c>
       <c r="C9">
         <v>6522419</v>
@@ -13974,7 +16422,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4056</v>
+        <v>4872</v>
       </c>
       <c r="C10">
         <v>6522419</v>
@@ -13995,7 +16443,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4057</v>
+        <v>4873</v>
       </c>
       <c r="C11">
         <v>6522419</v>
@@ -14024,25 +16472,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4063</v>
+        <v>4879</v>
       </c>
       <c r="B1" t="s">
-        <v>4064</v>
+        <v>4880</v>
       </c>
       <c r="C1" t="s">
-        <v>4075</v>
+        <v>4891</v>
       </c>
       <c r="D1" t="s">
-        <v>4076</v>
+        <v>4892</v>
       </c>
       <c r="E1" t="s">
-        <v>4077</v>
+        <v>4893</v>
       </c>
       <c r="F1" t="s">
-        <v>4078</v>
+        <v>4894</v>
       </c>
       <c r="G1" t="s">
-        <v>4079</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="2">
@@ -14050,7 +16498,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>4065</v>
+        <v>4881</v>
       </c>
       <c r="C2">
         <v>6581860</v>
@@ -14071,7 +16519,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4066</v>
+        <v>4882</v>
       </c>
       <c r="C3">
         <v>6581860</v>
@@ -14092,7 +16540,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4067</v>
+        <v>4883</v>
       </c>
       <c r="C4">
         <v>6581860</v>
@@ -14113,7 +16561,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4068</v>
+        <v>4884</v>
       </c>
       <c r="C5">
         <v>6581860</v>
@@ -14134,7 +16582,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4069</v>
+        <v>4885</v>
       </c>
       <c r="C6">
         <v>6581860</v>
@@ -14155,7 +16603,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4070</v>
+        <v>4886</v>
       </c>
       <c r="C7">
         <v>6581860</v>
@@ -14176,7 +16624,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4071</v>
+        <v>4887</v>
       </c>
       <c r="C8">
         <v>6581860</v>
@@ -14197,7 +16645,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4072</v>
+        <v>4888</v>
       </c>
       <c r="C9">
         <v>6581860</v>
@@ -14218,7 +16666,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4073</v>
+        <v>4889</v>
       </c>
       <c r="C10">
         <v>6581860</v>
@@ -14239,7 +16687,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4074</v>
+        <v>4890</v>
       </c>
       <c r="C11">
         <v>6581860</v>
@@ -14268,25 +16716,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3825</v>
+        <v>4641</v>
       </c>
       <c r="B1" t="s">
-        <v>3826</v>
+        <v>4642</v>
       </c>
       <c r="C1" t="s">
-        <v>3837</v>
+        <v>4653</v>
       </c>
       <c r="D1" t="s">
-        <v>3838</v>
+        <v>4654</v>
       </c>
       <c r="E1" t="s">
-        <v>3839</v>
+        <v>4655</v>
       </c>
       <c r="F1" t="s">
-        <v>3840</v>
+        <v>4656</v>
       </c>
       <c r="G1" t="s">
-        <v>3841</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="2">
@@ -14294,7 +16742,7 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>3827</v>
+        <v>4643</v>
       </c>
       <c r="C2">
         <v>6428672</v>
@@ -14315,7 +16763,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3828</v>
+        <v>4644</v>
       </c>
       <c r="C3">
         <v>6428672</v>
@@ -14336,7 +16784,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3829</v>
+        <v>4645</v>
       </c>
       <c r="C4">
         <v>6428672</v>
@@ -14357,7 +16805,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3830</v>
+        <v>4646</v>
       </c>
       <c r="C5">
         <v>6428672</v>
@@ -14378,7 +16826,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3831</v>
+        <v>4647</v>
       </c>
       <c r="C6">
         <v>6428672</v>
@@ -14399,7 +16847,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3832</v>
+        <v>4648</v>
       </c>
       <c r="C7">
         <v>6428672</v>
@@ -14420,7 +16868,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3833</v>
+        <v>4649</v>
       </c>
       <c r="C8">
         <v>6428672</v>
@@ -14441,7 +16889,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3834</v>
+        <v>4650</v>
       </c>
       <c r="C9">
         <v>6428672</v>
@@ -14462,7 +16910,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3835</v>
+        <v>4651</v>
       </c>
       <c r="C10">
         <v>6428672</v>
@@ -14483,7 +16931,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3836</v>
+        <v>4652</v>
       </c>
       <c r="C11">
         <v>6428672</v>
@@ -14512,25 +16960,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3842</v>
+        <v>4658</v>
       </c>
       <c r="B1" t="s">
-        <v>3843</v>
+        <v>4659</v>
       </c>
       <c r="C1" t="s">
-        <v>3854</v>
+        <v>4670</v>
       </c>
       <c r="D1" t="s">
-        <v>3855</v>
+        <v>4671</v>
       </c>
       <c r="E1" t="s">
-        <v>3856</v>
+        <v>4672</v>
       </c>
       <c r="F1" t="s">
-        <v>3857</v>
+        <v>4673</v>
       </c>
       <c r="G1" t="s">
-        <v>3858</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="2">
@@ -14538,7 +16986,7 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>3844</v>
+        <v>4660</v>
       </c>
       <c r="C2">
         <v>6510348</v>
@@ -14559,7 +17007,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3845</v>
+        <v>4661</v>
       </c>
       <c r="C3">
         <v>6510348</v>
@@ -14580,7 +17028,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3846</v>
+        <v>4662</v>
       </c>
       <c r="C4">
         <v>6510348</v>
@@ -14601,7 +17049,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3847</v>
+        <v>4663</v>
       </c>
       <c r="C5">
         <v>6510348</v>
@@ -14622,7 +17070,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3848</v>
+        <v>4664</v>
       </c>
       <c r="C6">
         <v>6510348</v>
@@ -14643,7 +17091,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3849</v>
+        <v>4665</v>
       </c>
       <c r="C7">
         <v>6510348</v>
@@ -14664,7 +17112,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3850</v>
+        <v>4666</v>
       </c>
       <c r="C8">
         <v>6510348</v>
@@ -14685,7 +17133,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3851</v>
+        <v>4667</v>
       </c>
       <c r="C9">
         <v>6510348</v>
@@ -14706,7 +17154,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3852</v>
+        <v>4668</v>
       </c>
       <c r="C10">
         <v>6510348</v>
@@ -14727,7 +17175,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3853</v>
+        <v>4669</v>
       </c>
       <c r="C11">
         <v>6510348</v>
@@ -14756,25 +17204,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3859</v>
+        <v>4675</v>
       </c>
       <c r="B1" t="s">
-        <v>3860</v>
+        <v>4676</v>
       </c>
       <c r="C1" t="s">
-        <v>3871</v>
+        <v>4687</v>
       </c>
       <c r="D1" t="s">
-        <v>3872</v>
+        <v>4688</v>
       </c>
       <c r="E1" t="s">
-        <v>3873</v>
+        <v>4689</v>
       </c>
       <c r="F1" t="s">
-        <v>3874</v>
+        <v>4690</v>
       </c>
       <c r="G1" t="s">
-        <v>3875</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="2">
@@ -14782,7 +17230,7 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>3861</v>
+        <v>4677</v>
       </c>
       <c r="C2">
         <v>6639010</v>
@@ -14803,7 +17251,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3862</v>
+        <v>4678</v>
       </c>
       <c r="C3">
         <v>6639010</v>
@@ -14824,7 +17272,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3863</v>
+        <v>4679</v>
       </c>
       <c r="C4">
         <v>6639010</v>
@@ -14845,7 +17293,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3864</v>
+        <v>4680</v>
       </c>
       <c r="C5">
         <v>6639010</v>
@@ -14866,7 +17314,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3865</v>
+        <v>4681</v>
       </c>
       <c r="C6">
         <v>6639010</v>
@@ -14887,7 +17335,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3866</v>
+        <v>4682</v>
       </c>
       <c r="C7">
         <v>6639010</v>
@@ -14908,7 +17356,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3867</v>
+        <v>4683</v>
       </c>
       <c r="C8">
         <v>6639010</v>
@@ -14929,7 +17377,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3868</v>
+        <v>4684</v>
       </c>
       <c r="C9">
         <v>6639010</v>
@@ -14950,7 +17398,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3869</v>
+        <v>4685</v>
       </c>
       <c r="C10">
         <v>6639010</v>
@@ -14971,7 +17419,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3870</v>
+        <v>4686</v>
       </c>
       <c r="C11">
         <v>6639010</v>
@@ -15000,25 +17448,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3876</v>
+        <v>4692</v>
       </c>
       <c r="B1" t="s">
-        <v>3877</v>
+        <v>4693</v>
       </c>
       <c r="C1" t="s">
-        <v>3888</v>
+        <v>4704</v>
       </c>
       <c r="D1" t="s">
-        <v>3889</v>
+        <v>4705</v>
       </c>
       <c r="E1" t="s">
-        <v>3890</v>
+        <v>4706</v>
       </c>
       <c r="F1" t="s">
-        <v>3891</v>
+        <v>4707</v>
       </c>
       <c r="G1" t="s">
-        <v>3892</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="2">
@@ -15026,7 +17474,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>3878</v>
+        <v>4694</v>
       </c>
       <c r="C2">
         <v>6756786</v>
@@ -15047,7 +17495,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3879</v>
+        <v>4695</v>
       </c>
       <c r="C3">
         <v>6756786</v>
@@ -15068,7 +17516,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3880</v>
+        <v>4696</v>
       </c>
       <c r="C4">
         <v>6756786</v>
@@ -15089,7 +17537,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3881</v>
+        <v>4697</v>
       </c>
       <c r="C5">
         <v>6756786</v>
@@ -15110,7 +17558,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3882</v>
+        <v>4698</v>
       </c>
       <c r="C6">
         <v>6756786</v>
@@ -15131,7 +17579,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3883</v>
+        <v>4699</v>
       </c>
       <c r="C7">
         <v>6756786</v>
@@ -15152,7 +17600,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3884</v>
+        <v>4700</v>
       </c>
       <c r="C8">
         <v>6756786</v>
@@ -15173,7 +17621,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3885</v>
+        <v>4701</v>
       </c>
       <c r="C9">
         <v>6756786</v>
@@ -15194,7 +17642,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3886</v>
+        <v>4702</v>
       </c>
       <c r="C10">
         <v>6756786</v>
@@ -15215,7 +17663,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3887</v>
+        <v>4703</v>
       </c>
       <c r="C11">
         <v>6756786</v>
@@ -15244,25 +17692,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3893</v>
+        <v>4709</v>
       </c>
       <c r="B1" t="s">
-        <v>3894</v>
+        <v>4710</v>
       </c>
       <c r="C1" t="s">
-        <v>3905</v>
+        <v>4721</v>
       </c>
       <c r="D1" t="s">
-        <v>3906</v>
+        <v>4722</v>
       </c>
       <c r="E1" t="s">
-        <v>3907</v>
+        <v>4723</v>
       </c>
       <c r="F1" t="s">
-        <v>3908</v>
+        <v>4724</v>
       </c>
       <c r="G1" t="s">
-        <v>3909</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="2">
@@ -15270,7 +17718,7 @@
         <v>2005</v>
       </c>
       <c r="B2" t="s">
-        <v>3895</v>
+        <v>4711</v>
       </c>
       <c r="C2">
         <v>6864080</v>
@@ -15291,7 +17739,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3896</v>
+        <v>4712</v>
       </c>
       <c r="C3">
         <v>6864080</v>
@@ -15312,7 +17760,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3897</v>
+        <v>4713</v>
       </c>
       <c r="C4">
         <v>6864080</v>
@@ -15333,7 +17781,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3898</v>
+        <v>4714</v>
       </c>
       <c r="C5">
         <v>6864080</v>
@@ -15354,7 +17802,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3899</v>
+        <v>4715</v>
       </c>
       <c r="C6">
         <v>6864080</v>
@@ -15375,7 +17823,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3900</v>
+        <v>4716</v>
       </c>
       <c r="C7">
         <v>6864080</v>
@@ -15396,7 +17844,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3901</v>
+        <v>4717</v>
       </c>
       <c r="C8">
         <v>6864080</v>
@@ -15417,7 +17865,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3902</v>
+        <v>4718</v>
       </c>
       <c r="C9">
         <v>6864080</v>
@@ -15438,7 +17886,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3903</v>
+        <v>4719</v>
       </c>
       <c r="C10">
         <v>6864080</v>
@@ -15459,7 +17907,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3904</v>
+        <v>4720</v>
       </c>
       <c r="C11">
         <v>6864080</v>
@@ -15488,25 +17936,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3910</v>
+        <v>4726</v>
       </c>
       <c r="B1" t="s">
-        <v>3911</v>
+        <v>4727</v>
       </c>
       <c r="C1" t="s">
-        <v>3922</v>
+        <v>4738</v>
       </c>
       <c r="D1" t="s">
-        <v>3923</v>
+        <v>4739</v>
       </c>
       <c r="E1" t="s">
-        <v>3924</v>
+        <v>4740</v>
       </c>
       <c r="F1" t="s">
-        <v>3925</v>
+        <v>4741</v>
       </c>
       <c r="G1" t="s">
-        <v>3926</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="2">
@@ -15514,7 +17962,7 @@
         <v>2006</v>
       </c>
       <c r="B2" t="s">
-        <v>3912</v>
+        <v>4728</v>
       </c>
       <c r="C2">
         <v>6980279</v>
@@ -15535,7 +17983,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3913</v>
+        <v>4729</v>
       </c>
       <c r="C3">
         <v>6980279</v>
@@ -15556,7 +18004,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3914</v>
+        <v>4730</v>
       </c>
       <c r="C4">
         <v>6980279</v>
@@ -15577,7 +18025,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3915</v>
+        <v>4731</v>
       </c>
       <c r="C5">
         <v>6980279</v>
@@ -15598,7 +18046,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3916</v>
+        <v>4732</v>
       </c>
       <c r="C6">
         <v>6980279</v>
@@ -15619,7 +18067,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3917</v>
+        <v>4733</v>
       </c>
       <c r="C7">
         <v>6980279</v>
@@ -15640,7 +18088,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3918</v>
+        <v>4734</v>
       </c>
       <c r="C8">
         <v>6980279</v>
@@ -15661,7 +18109,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3919</v>
+        <v>4735</v>
       </c>
       <c r="C9">
         <v>6980279</v>
@@ -15682,7 +18130,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3920</v>
+        <v>4736</v>
       </c>
       <c r="C10">
         <v>6980279</v>
@@ -15703,7 +18151,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3921</v>
+        <v>4737</v>
       </c>
       <c r="C11">
         <v>6980279</v>
@@ -15732,25 +18180,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3927</v>
+        <v>4743</v>
       </c>
       <c r="B1" t="s">
-        <v>3928</v>
+        <v>4744</v>
       </c>
       <c r="C1" t="s">
-        <v>3939</v>
+        <v>4755</v>
       </c>
       <c r="D1" t="s">
-        <v>3940</v>
+        <v>4756</v>
       </c>
       <c r="E1" t="s">
-        <v>3941</v>
+        <v>4757</v>
       </c>
       <c r="F1" t="s">
-        <v>3942</v>
+        <v>4758</v>
       </c>
       <c r="G1" t="s">
-        <v>3943</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="2">
@@ -15758,7 +18206,7 @@
         <v>2007</v>
       </c>
       <c r="B2" t="s">
-        <v>3929</v>
+        <v>4745</v>
       </c>
       <c r="C2">
         <v>5744575</v>
@@ -15779,7 +18227,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3930</v>
+        <v>4746</v>
       </c>
       <c r="C3">
         <v>5744575</v>
@@ -15800,7 +18248,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3931</v>
+        <v>4747</v>
       </c>
       <c r="C4">
         <v>5744575</v>
@@ -15821,7 +18269,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3932</v>
+        <v>4748</v>
       </c>
       <c r="C5">
         <v>5744575</v>
@@ -15842,7 +18290,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3933</v>
+        <v>4749</v>
       </c>
       <c r="C6">
         <v>5744575</v>
@@ -15863,7 +18311,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3934</v>
+        <v>4750</v>
       </c>
       <c r="C7">
         <v>5744575</v>
@@ -15884,7 +18332,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3935</v>
+        <v>4751</v>
       </c>
       <c r="C8">
         <v>5744575</v>
@@ -15905,7 +18353,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3936</v>
+        <v>4752</v>
       </c>
       <c r="C9">
         <v>5744575</v>
@@ -15926,7 +18374,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3937</v>
+        <v>4753</v>
       </c>
       <c r="C10">
         <v>5744575</v>
@@ -15947,7 +18395,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3938</v>
+        <v>4754</v>
       </c>
       <c r="C11">
         <v>5744575</v>
@@ -15976,25 +18424,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3944</v>
+        <v>4760</v>
       </c>
       <c r="B1" t="s">
-        <v>3945</v>
+        <v>4761</v>
       </c>
       <c r="C1" t="s">
-        <v>3956</v>
+        <v>4772</v>
       </c>
       <c r="D1" t="s">
-        <v>3957</v>
+        <v>4773</v>
       </c>
       <c r="E1" t="s">
-        <v>3958</v>
+        <v>4774</v>
       </c>
       <c r="F1" t="s">
-        <v>3959</v>
+        <v>4775</v>
       </c>
       <c r="G1" t="s">
-        <v>3960</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="2">
@@ -16002,7 +18450,7 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>3946</v>
+        <v>4762</v>
       </c>
       <c r="C2">
         <v>6150953</v>
@@ -16023,7 +18471,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3947</v>
+        <v>4763</v>
       </c>
       <c r="C3">
         <v>6150953</v>
@@ -16044,7 +18492,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3948</v>
+        <v>4764</v>
       </c>
       <c r="C4">
         <v>6150953</v>
@@ -16065,7 +18513,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3949</v>
+        <v>4765</v>
       </c>
       <c r="C5">
         <v>6150953</v>
@@ -16086,7 +18534,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3950</v>
+        <v>4766</v>
       </c>
       <c r="C6">
         <v>6150953</v>
@@ -16107,7 +18555,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3951</v>
+        <v>4767</v>
       </c>
       <c r="C7">
         <v>6150953</v>
@@ -16128,7 +18576,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3952</v>
+        <v>4768</v>
       </c>
       <c r="C8">
         <v>6150953</v>
@@ -16149,7 +18597,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3953</v>
+        <v>4769</v>
       </c>
       <c r="C9">
         <v>6150953</v>
@@ -16170,7 +18618,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3954</v>
+        <v>4770</v>
       </c>
       <c r="C10">
         <v>6150953</v>
@@ -16191,7 +18639,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3955</v>
+        <v>4771</v>
       </c>
       <c r="C11">
         <v>6150953</v>

--- a/input_data/admin_data/SLV/_clean/total-SLV.xlsx
+++ b/input_data/admin_data/SLV/_clean/total-SLV.xlsx
@@ -28,7 +28,823 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4896" uniqueCount="4896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5168" uniqueCount="5168">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -14764,25 +15580,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4624</v>
+        <v>4896</v>
       </c>
       <c r="B1" t="s">
-        <v>4625</v>
+        <v>4897</v>
       </c>
       <c r="C1" t="s">
-        <v>4636</v>
+        <v>4908</v>
       </c>
       <c r="D1" t="s">
-        <v>4637</v>
+        <v>4909</v>
       </c>
       <c r="E1" t="s">
-        <v>4638</v>
+        <v>4910</v>
       </c>
       <c r="F1" t="s">
-        <v>4639</v>
+        <v>4911</v>
       </c>
       <c r="G1" t="s">
-        <v>4640</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="2">
@@ -14790,7 +15606,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>4626</v>
+        <v>4898</v>
       </c>
       <c r="C2">
         <v>6272353</v>
@@ -14811,7 +15627,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4627</v>
+        <v>4899</v>
       </c>
       <c r="C3">
         <v>6272353</v>
@@ -14832,7 +15648,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4628</v>
+        <v>4900</v>
       </c>
       <c r="C4">
         <v>6272353</v>
@@ -14853,7 +15669,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4629</v>
+        <v>4901</v>
       </c>
       <c r="C5">
         <v>6272353</v>
@@ -14874,7 +15690,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4630</v>
+        <v>4902</v>
       </c>
       <c r="C6">
         <v>6272353</v>
@@ -14895,7 +15711,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4631</v>
+        <v>4903</v>
       </c>
       <c r="C7">
         <v>6272353</v>
@@ -14916,7 +15732,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4632</v>
+        <v>4904</v>
       </c>
       <c r="C8">
         <v>6272353</v>
@@ -14937,7 +15753,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4633</v>
+        <v>4905</v>
       </c>
       <c r="C9">
         <v>6272353</v>
@@ -14958,7 +15774,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4634</v>
+        <v>4906</v>
       </c>
       <c r="C10">
         <v>6272353</v>
@@ -14979,7 +15795,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4635</v>
+        <v>4907</v>
       </c>
       <c r="C11">
         <v>6272353</v>
@@ -15008,25 +15824,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4777</v>
+        <v>5049</v>
       </c>
       <c r="B1" t="s">
-        <v>4778</v>
+        <v>5050</v>
       </c>
       <c r="C1" t="s">
-        <v>4789</v>
+        <v>5061</v>
       </c>
       <c r="D1" t="s">
-        <v>4790</v>
+        <v>5062</v>
       </c>
       <c r="E1" t="s">
-        <v>4791</v>
+        <v>5063</v>
       </c>
       <c r="F1" t="s">
-        <v>4792</v>
+        <v>5064</v>
       </c>
       <c r="G1" t="s">
-        <v>4793</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="2">
@@ -15034,7 +15850,7 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>4779</v>
+        <v>5051</v>
       </c>
       <c r="C2">
         <v>6181405</v>
@@ -15055,7 +15871,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4780</v>
+        <v>5052</v>
       </c>
       <c r="C3">
         <v>6181405</v>
@@ -15076,7 +15892,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4781</v>
+        <v>5053</v>
       </c>
       <c r="C4">
         <v>6181405</v>
@@ -15097,7 +15913,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4782</v>
+        <v>5054</v>
       </c>
       <c r="C5">
         <v>6181405</v>
@@ -15118,7 +15934,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4783</v>
+        <v>5055</v>
       </c>
       <c r="C6">
         <v>6181405</v>
@@ -15139,7 +15955,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4784</v>
+        <v>5056</v>
       </c>
       <c r="C7">
         <v>6181405</v>
@@ -15160,7 +15976,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4785</v>
+        <v>5057</v>
       </c>
       <c r="C8">
         <v>6181405</v>
@@ -15181,7 +15997,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4786</v>
+        <v>5058</v>
       </c>
       <c r="C9">
         <v>6181405</v>
@@ -15202,7 +16018,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4787</v>
+        <v>5059</v>
       </c>
       <c r="C10">
         <v>6181405</v>
@@ -15223,7 +16039,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4788</v>
+        <v>5060</v>
       </c>
       <c r="C11">
         <v>6181405</v>
@@ -15252,25 +16068,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4794</v>
+        <v>5066</v>
       </c>
       <c r="B1" t="s">
-        <v>4795</v>
+        <v>5067</v>
       </c>
       <c r="C1" t="s">
-        <v>4806</v>
+        <v>5078</v>
       </c>
       <c r="D1" t="s">
-        <v>4807</v>
+        <v>5079</v>
       </c>
       <c r="E1" t="s">
-        <v>4808</v>
+        <v>5080</v>
       </c>
       <c r="F1" t="s">
-        <v>4809</v>
+        <v>5081</v>
       </c>
       <c r="G1" t="s">
-        <v>4810</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="2">
@@ -15278,7 +16094,7 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>4796</v>
+        <v>5068</v>
       </c>
       <c r="C2">
         <v>6249262</v>
@@ -15299,7 +16115,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4797</v>
+        <v>5069</v>
       </c>
       <c r="C3">
         <v>6249262</v>
@@ -15320,7 +16136,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4798</v>
+        <v>5070</v>
       </c>
       <c r="C4">
         <v>6249262</v>
@@ -15341,7 +16157,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4799</v>
+        <v>5071</v>
       </c>
       <c r="C5">
         <v>6249262</v>
@@ -15362,7 +16178,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4800</v>
+        <v>5072</v>
       </c>
       <c r="C6">
         <v>6249262</v>
@@ -15383,7 +16199,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4801</v>
+        <v>5073</v>
       </c>
       <c r="C7">
         <v>6249262</v>
@@ -15404,7 +16220,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4802</v>
+        <v>5074</v>
       </c>
       <c r="C8">
         <v>6249262</v>
@@ -15425,7 +16241,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4803</v>
+        <v>5075</v>
       </c>
       <c r="C9">
         <v>6249262</v>
@@ -15446,7 +16262,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4804</v>
+        <v>5076</v>
       </c>
       <c r="C10">
         <v>6249262</v>
@@ -15467,7 +16283,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4805</v>
+        <v>5077</v>
       </c>
       <c r="C11">
         <v>6249262</v>
@@ -15496,25 +16312,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4811</v>
+        <v>5083</v>
       </c>
       <c r="B1" t="s">
-        <v>4812</v>
+        <v>5084</v>
       </c>
       <c r="C1" t="s">
-        <v>4823</v>
+        <v>5095</v>
       </c>
       <c r="D1" t="s">
-        <v>4824</v>
+        <v>5096</v>
       </c>
       <c r="E1" t="s">
-        <v>4825</v>
+        <v>5097</v>
       </c>
       <c r="F1" t="s">
-        <v>4826</v>
+        <v>5098</v>
       </c>
       <c r="G1" t="s">
-        <v>4827</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="2">
@@ -15522,7 +16338,7 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>4813</v>
+        <v>5085</v>
       </c>
       <c r="C2">
         <v>6290383</v>
@@ -15543,7 +16359,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4814</v>
+        <v>5086</v>
       </c>
       <c r="C3">
         <v>6290383</v>
@@ -15564,7 +16380,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4815</v>
+        <v>5087</v>
       </c>
       <c r="C4">
         <v>6290383</v>
@@ -15585,7 +16401,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4816</v>
+        <v>5088</v>
       </c>
       <c r="C5">
         <v>6290383</v>
@@ -15606,7 +16422,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4817</v>
+        <v>5089</v>
       </c>
       <c r="C6">
         <v>6290383</v>
@@ -15627,7 +16443,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4818</v>
+        <v>5090</v>
       </c>
       <c r="C7">
         <v>6290383</v>
@@ -15648,7 +16464,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4819</v>
+        <v>5091</v>
       </c>
       <c r="C8">
         <v>6290383</v>
@@ -15669,7 +16485,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4820</v>
+        <v>5092</v>
       </c>
       <c r="C9">
         <v>6290383</v>
@@ -15690,7 +16506,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4821</v>
+        <v>5093</v>
       </c>
       <c r="C10">
         <v>6290383</v>
@@ -15711,7 +16527,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4822</v>
+        <v>5094</v>
       </c>
       <c r="C11">
         <v>6290383</v>
@@ -15740,25 +16556,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4828</v>
+        <v>5100</v>
       </c>
       <c r="B1" t="s">
-        <v>4829</v>
+        <v>5101</v>
       </c>
       <c r="C1" t="s">
-        <v>4840</v>
+        <v>5112</v>
       </c>
       <c r="D1" t="s">
-        <v>4841</v>
+        <v>5113</v>
       </c>
       <c r="E1" t="s">
-        <v>4842</v>
+        <v>5114</v>
       </c>
       <c r="F1" t="s">
-        <v>4843</v>
+        <v>5115</v>
       </c>
       <c r="G1" t="s">
-        <v>4844</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="2">
@@ -15766,7 +16582,7 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>4830</v>
+        <v>5102</v>
       </c>
       <c r="C2">
         <v>6401415</v>
@@ -15787,7 +16603,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4831</v>
+        <v>5103</v>
       </c>
       <c r="C3">
         <v>6401415</v>
@@ -15808,7 +16624,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4832</v>
+        <v>5104</v>
       </c>
       <c r="C4">
         <v>6401415</v>
@@ -15829,7 +16645,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4833</v>
+        <v>5105</v>
       </c>
       <c r="C5">
         <v>6401415</v>
@@ -15850,7 +16666,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4834</v>
+        <v>5106</v>
       </c>
       <c r="C6">
         <v>6401415</v>
@@ -15871,7 +16687,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4835</v>
+        <v>5107</v>
       </c>
       <c r="C7">
         <v>6401415</v>
@@ -15892,7 +16708,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4836</v>
+        <v>5108</v>
       </c>
       <c r="C8">
         <v>6401415</v>
@@ -15913,7 +16729,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4837</v>
+        <v>5109</v>
       </c>
       <c r="C9">
         <v>6401415</v>
@@ -15934,7 +16750,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4838</v>
+        <v>5110</v>
       </c>
       <c r="C10">
         <v>6401415</v>
@@ -15955,7 +16771,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4839</v>
+        <v>5111</v>
       </c>
       <c r="C11">
         <v>6401415</v>
@@ -15984,25 +16800,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4845</v>
+        <v>5117</v>
       </c>
       <c r="B1" t="s">
-        <v>4846</v>
+        <v>5118</v>
       </c>
       <c r="C1" t="s">
-        <v>4857</v>
+        <v>5129</v>
       </c>
       <c r="D1" t="s">
-        <v>4858</v>
+        <v>5130</v>
       </c>
       <c r="E1" t="s">
-        <v>4859</v>
+        <v>5131</v>
       </c>
       <c r="F1" t="s">
-        <v>4860</v>
+        <v>5132</v>
       </c>
       <c r="G1" t="s">
-        <v>4861</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="2">
@@ -16010,7 +16826,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>4847</v>
+        <v>5119</v>
       </c>
       <c r="C2">
         <v>6459911</v>
@@ -16031,7 +16847,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4848</v>
+        <v>5120</v>
       </c>
       <c r="C3">
         <v>6459911</v>
@@ -16052,7 +16868,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4849</v>
+        <v>5121</v>
       </c>
       <c r="C4">
         <v>6459911</v>
@@ -16073,7 +16889,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4850</v>
+        <v>5122</v>
       </c>
       <c r="C5">
         <v>6459911</v>
@@ -16094,7 +16910,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4851</v>
+        <v>5123</v>
       </c>
       <c r="C6">
         <v>6459911</v>
@@ -16115,7 +16931,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4852</v>
+        <v>5124</v>
       </c>
       <c r="C7">
         <v>6459911</v>
@@ -16136,7 +16952,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4853</v>
+        <v>5125</v>
       </c>
       <c r="C8">
         <v>6459911</v>
@@ -16157,7 +16973,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4854</v>
+        <v>5126</v>
       </c>
       <c r="C9">
         <v>6459911</v>
@@ -16178,7 +16994,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4855</v>
+        <v>5127</v>
       </c>
       <c r="C10">
         <v>6459911</v>
@@ -16199,7 +17015,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4856</v>
+        <v>5128</v>
       </c>
       <c r="C11">
         <v>6459911</v>
@@ -16228,25 +17044,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4862</v>
+        <v>5134</v>
       </c>
       <c r="B1" t="s">
-        <v>4863</v>
+        <v>5135</v>
       </c>
       <c r="C1" t="s">
-        <v>4874</v>
+        <v>5146</v>
       </c>
       <c r="D1" t="s">
-        <v>4875</v>
+        <v>5147</v>
       </c>
       <c r="E1" t="s">
-        <v>4876</v>
+        <v>5148</v>
       </c>
       <c r="F1" t="s">
-        <v>4877</v>
+        <v>5149</v>
       </c>
       <c r="G1" t="s">
-        <v>4878</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="2">
@@ -16254,7 +17070,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>4864</v>
+        <v>5136</v>
       </c>
       <c r="C2">
         <v>6522419</v>
@@ -16275,7 +17091,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4865</v>
+        <v>5137</v>
       </c>
       <c r="C3">
         <v>6522419</v>
@@ -16296,7 +17112,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4866</v>
+        <v>5138</v>
       </c>
       <c r="C4">
         <v>6522419</v>
@@ -16317,7 +17133,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4867</v>
+        <v>5139</v>
       </c>
       <c r="C5">
         <v>6522419</v>
@@ -16338,7 +17154,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4868</v>
+        <v>5140</v>
       </c>
       <c r="C6">
         <v>6522419</v>
@@ -16359,7 +17175,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4869</v>
+        <v>5141</v>
       </c>
       <c r="C7">
         <v>6522419</v>
@@ -16380,7 +17196,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4870</v>
+        <v>5142</v>
       </c>
       <c r="C8">
         <v>6522419</v>
@@ -16401,7 +17217,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4871</v>
+        <v>5143</v>
       </c>
       <c r="C9">
         <v>6522419</v>
@@ -16422,7 +17238,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4872</v>
+        <v>5144</v>
       </c>
       <c r="C10">
         <v>6522419</v>
@@ -16443,7 +17259,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4873</v>
+        <v>5145</v>
       </c>
       <c r="C11">
         <v>6522419</v>
@@ -16472,25 +17288,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4879</v>
+        <v>5151</v>
       </c>
       <c r="B1" t="s">
-        <v>4880</v>
+        <v>5152</v>
       </c>
       <c r="C1" t="s">
-        <v>4891</v>
+        <v>5163</v>
       </c>
       <c r="D1" t="s">
-        <v>4892</v>
+        <v>5164</v>
       </c>
       <c r="E1" t="s">
-        <v>4893</v>
+        <v>5165</v>
       </c>
       <c r="F1" t="s">
-        <v>4894</v>
+        <v>5166</v>
       </c>
       <c r="G1" t="s">
-        <v>4895</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2">
@@ -16498,7 +17314,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>4881</v>
+        <v>5153</v>
       </c>
       <c r="C2">
         <v>6581860</v>
@@ -16519,7 +17335,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4882</v>
+        <v>5154</v>
       </c>
       <c r="C3">
         <v>6581860</v>
@@ -16540,7 +17356,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4883</v>
+        <v>5155</v>
       </c>
       <c r="C4">
         <v>6581860</v>
@@ -16561,7 +17377,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4884</v>
+        <v>5156</v>
       </c>
       <c r="C5">
         <v>6581860</v>
@@ -16582,7 +17398,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4885</v>
+        <v>5157</v>
       </c>
       <c r="C6">
         <v>6581860</v>
@@ -16603,7 +17419,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4886</v>
+        <v>5158</v>
       </c>
       <c r="C7">
         <v>6581860</v>
@@ -16624,7 +17440,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4887</v>
+        <v>5159</v>
       </c>
       <c r="C8">
         <v>6581860</v>
@@ -16645,7 +17461,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4888</v>
+        <v>5160</v>
       </c>
       <c r="C9">
         <v>6581860</v>
@@ -16666,7 +17482,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4889</v>
+        <v>5161</v>
       </c>
       <c r="C10">
         <v>6581860</v>
@@ -16687,7 +17503,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4890</v>
+        <v>5162</v>
       </c>
       <c r="C11">
         <v>6581860</v>
@@ -16716,25 +17532,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4641</v>
+        <v>4913</v>
       </c>
       <c r="B1" t="s">
-        <v>4642</v>
+        <v>4914</v>
       </c>
       <c r="C1" t="s">
-        <v>4653</v>
+        <v>4925</v>
       </c>
       <c r="D1" t="s">
-        <v>4654</v>
+        <v>4926</v>
       </c>
       <c r="E1" t="s">
-        <v>4655</v>
+        <v>4927</v>
       </c>
       <c r="F1" t="s">
-        <v>4656</v>
+        <v>4928</v>
       </c>
       <c r="G1" t="s">
-        <v>4657</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="2">
@@ -16742,7 +17558,7 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>4643</v>
+        <v>4915</v>
       </c>
       <c r="C2">
         <v>6428672</v>
@@ -16763,7 +17579,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4644</v>
+        <v>4916</v>
       </c>
       <c r="C3">
         <v>6428672</v>
@@ -16784,7 +17600,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4645</v>
+        <v>4917</v>
       </c>
       <c r="C4">
         <v>6428672</v>
@@ -16805,7 +17621,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4646</v>
+        <v>4918</v>
       </c>
       <c r="C5">
         <v>6428672</v>
@@ -16826,7 +17642,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4647</v>
+        <v>4919</v>
       </c>
       <c r="C6">
         <v>6428672</v>
@@ -16847,7 +17663,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4648</v>
+        <v>4920</v>
       </c>
       <c r="C7">
         <v>6428672</v>
@@ -16868,7 +17684,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4649</v>
+        <v>4921</v>
       </c>
       <c r="C8">
         <v>6428672</v>
@@ -16889,7 +17705,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4650</v>
+        <v>4922</v>
       </c>
       <c r="C9">
         <v>6428672</v>
@@ -16910,7 +17726,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4651</v>
+        <v>4923</v>
       </c>
       <c r="C10">
         <v>6428672</v>
@@ -16931,7 +17747,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4652</v>
+        <v>4924</v>
       </c>
       <c r="C11">
         <v>6428672</v>
@@ -16960,25 +17776,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4658</v>
+        <v>4930</v>
       </c>
       <c r="B1" t="s">
-        <v>4659</v>
+        <v>4931</v>
       </c>
       <c r="C1" t="s">
-        <v>4670</v>
+        <v>4942</v>
       </c>
       <c r="D1" t="s">
-        <v>4671</v>
+        <v>4943</v>
       </c>
       <c r="E1" t="s">
-        <v>4672</v>
+        <v>4944</v>
       </c>
       <c r="F1" t="s">
-        <v>4673</v>
+        <v>4945</v>
       </c>
       <c r="G1" t="s">
-        <v>4674</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="2">
@@ -16986,7 +17802,7 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>4660</v>
+        <v>4932</v>
       </c>
       <c r="C2">
         <v>6510348</v>
@@ -17007,7 +17823,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4661</v>
+        <v>4933</v>
       </c>
       <c r="C3">
         <v>6510348</v>
@@ -17028,7 +17844,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4662</v>
+        <v>4934</v>
       </c>
       <c r="C4">
         <v>6510348</v>
@@ -17049,7 +17865,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4663</v>
+        <v>4935</v>
       </c>
       <c r="C5">
         <v>6510348</v>
@@ -17070,7 +17886,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4664</v>
+        <v>4936</v>
       </c>
       <c r="C6">
         <v>6510348</v>
@@ -17091,7 +17907,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4665</v>
+        <v>4937</v>
       </c>
       <c r="C7">
         <v>6510348</v>
@@ -17112,7 +17928,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4666</v>
+        <v>4938</v>
       </c>
       <c r="C8">
         <v>6510348</v>
@@ -17133,7 +17949,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4667</v>
+        <v>4939</v>
       </c>
       <c r="C9">
         <v>6510348</v>
@@ -17154,7 +17970,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4668</v>
+        <v>4940</v>
       </c>
       <c r="C10">
         <v>6510348</v>
@@ -17175,7 +17991,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4669</v>
+        <v>4941</v>
       </c>
       <c r="C11">
         <v>6510348</v>
@@ -17204,25 +18020,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4675</v>
+        <v>4947</v>
       </c>
       <c r="B1" t="s">
-        <v>4676</v>
+        <v>4948</v>
       </c>
       <c r="C1" t="s">
-        <v>4687</v>
+        <v>4959</v>
       </c>
       <c r="D1" t="s">
-        <v>4688</v>
+        <v>4960</v>
       </c>
       <c r="E1" t="s">
-        <v>4689</v>
+        <v>4961</v>
       </c>
       <c r="F1" t="s">
-        <v>4690</v>
+        <v>4962</v>
       </c>
       <c r="G1" t="s">
-        <v>4691</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="2">
@@ -17230,7 +18046,7 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>4677</v>
+        <v>4949</v>
       </c>
       <c r="C2">
         <v>6639010</v>
@@ -17251,7 +18067,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4678</v>
+        <v>4950</v>
       </c>
       <c r="C3">
         <v>6639010</v>
@@ -17272,7 +18088,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4679</v>
+        <v>4951</v>
       </c>
       <c r="C4">
         <v>6639010</v>
@@ -17293,7 +18109,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4680</v>
+        <v>4952</v>
       </c>
       <c r="C5">
         <v>6639010</v>
@@ -17314,7 +18130,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4681</v>
+        <v>4953</v>
       </c>
       <c r="C6">
         <v>6639010</v>
@@ -17335,7 +18151,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4682</v>
+        <v>4954</v>
       </c>
       <c r="C7">
         <v>6639010</v>
@@ -17356,7 +18172,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4683</v>
+        <v>4955</v>
       </c>
       <c r="C8">
         <v>6639010</v>
@@ -17377,7 +18193,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4684</v>
+        <v>4956</v>
       </c>
       <c r="C9">
         <v>6639010</v>
@@ -17398,7 +18214,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4685</v>
+        <v>4957</v>
       </c>
       <c r="C10">
         <v>6639010</v>
@@ -17419,7 +18235,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4686</v>
+        <v>4958</v>
       </c>
       <c r="C11">
         <v>6639010</v>
@@ -17448,25 +18264,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4692</v>
+        <v>4964</v>
       </c>
       <c r="B1" t="s">
-        <v>4693</v>
+        <v>4965</v>
       </c>
       <c r="C1" t="s">
-        <v>4704</v>
+        <v>4976</v>
       </c>
       <c r="D1" t="s">
-        <v>4705</v>
+        <v>4977</v>
       </c>
       <c r="E1" t="s">
-        <v>4706</v>
+        <v>4978</v>
       </c>
       <c r="F1" t="s">
-        <v>4707</v>
+        <v>4979</v>
       </c>
       <c r="G1" t="s">
-        <v>4708</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="2">
@@ -17474,7 +18290,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>4694</v>
+        <v>4966</v>
       </c>
       <c r="C2">
         <v>6756786</v>
@@ -17495,7 +18311,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4695</v>
+        <v>4967</v>
       </c>
       <c r="C3">
         <v>6756786</v>
@@ -17516,7 +18332,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4696</v>
+        <v>4968</v>
       </c>
       <c r="C4">
         <v>6756786</v>
@@ -17537,7 +18353,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4697</v>
+        <v>4969</v>
       </c>
       <c r="C5">
         <v>6756786</v>
@@ -17558,7 +18374,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4698</v>
+        <v>4970</v>
       </c>
       <c r="C6">
         <v>6756786</v>
@@ -17579,7 +18395,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4699</v>
+        <v>4971</v>
       </c>
       <c r="C7">
         <v>6756786</v>
@@ -17600,7 +18416,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4700</v>
+        <v>4972</v>
       </c>
       <c r="C8">
         <v>6756786</v>
@@ -17621,7 +18437,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4701</v>
+        <v>4973</v>
       </c>
       <c r="C9">
         <v>6756786</v>
@@ -17642,7 +18458,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4702</v>
+        <v>4974</v>
       </c>
       <c r="C10">
         <v>6756786</v>
@@ -17663,7 +18479,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4703</v>
+        <v>4975</v>
       </c>
       <c r="C11">
         <v>6756786</v>
@@ -17692,25 +18508,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4709</v>
+        <v>4981</v>
       </c>
       <c r="B1" t="s">
-        <v>4710</v>
+        <v>4982</v>
       </c>
       <c r="C1" t="s">
-        <v>4721</v>
+        <v>4993</v>
       </c>
       <c r="D1" t="s">
-        <v>4722</v>
+        <v>4994</v>
       </c>
       <c r="E1" t="s">
-        <v>4723</v>
+        <v>4995</v>
       </c>
       <c r="F1" t="s">
-        <v>4724</v>
+        <v>4996</v>
       </c>
       <c r="G1" t="s">
-        <v>4725</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="2">
@@ -17718,7 +18534,7 @@
         <v>2005</v>
       </c>
       <c r="B2" t="s">
-        <v>4711</v>
+        <v>4983</v>
       </c>
       <c r="C2">
         <v>6864080</v>
@@ -17739,7 +18555,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4712</v>
+        <v>4984</v>
       </c>
       <c r="C3">
         <v>6864080</v>
@@ -17760,7 +18576,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4713</v>
+        <v>4985</v>
       </c>
       <c r="C4">
         <v>6864080</v>
@@ -17781,7 +18597,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4714</v>
+        <v>4986</v>
       </c>
       <c r="C5">
         <v>6864080</v>
@@ -17802,7 +18618,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4715</v>
+        <v>4987</v>
       </c>
       <c r="C6">
         <v>6864080</v>
@@ -17823,7 +18639,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4716</v>
+        <v>4988</v>
       </c>
       <c r="C7">
         <v>6864080</v>
@@ -17844,7 +18660,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4717</v>
+        <v>4989</v>
       </c>
       <c r="C8">
         <v>6864080</v>
@@ -17865,7 +18681,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4718</v>
+        <v>4990</v>
       </c>
       <c r="C9">
         <v>6864080</v>
@@ -17886,7 +18702,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4719</v>
+        <v>4991</v>
       </c>
       <c r="C10">
         <v>6864080</v>
@@ -17907,7 +18723,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4720</v>
+        <v>4992</v>
       </c>
       <c r="C11">
         <v>6864080</v>
@@ -17936,25 +18752,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4726</v>
+        <v>4998</v>
       </c>
       <c r="B1" t="s">
-        <v>4727</v>
+        <v>4999</v>
       </c>
       <c r="C1" t="s">
-        <v>4738</v>
+        <v>5010</v>
       </c>
       <c r="D1" t="s">
-        <v>4739</v>
+        <v>5011</v>
       </c>
       <c r="E1" t="s">
-        <v>4740</v>
+        <v>5012</v>
       </c>
       <c r="F1" t="s">
-        <v>4741</v>
+        <v>5013</v>
       </c>
       <c r="G1" t="s">
-        <v>4742</v>
+        <v>5014</v>
       </c>
     </row>
     <row r="2">
@@ -17962,7 +18778,7 @@
         <v>2006</v>
       </c>
       <c r="B2" t="s">
-        <v>4728</v>
+        <v>5000</v>
       </c>
       <c r="C2">
         <v>6980279</v>
@@ -17983,7 +18799,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4729</v>
+        <v>5001</v>
       </c>
       <c r="C3">
         <v>6980279</v>
@@ -18004,7 +18820,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4730</v>
+        <v>5002</v>
       </c>
       <c r="C4">
         <v>6980279</v>
@@ -18025,7 +18841,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4731</v>
+        <v>5003</v>
       </c>
       <c r="C5">
         <v>6980279</v>
@@ -18046,7 +18862,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4732</v>
+        <v>5004</v>
       </c>
       <c r="C6">
         <v>6980279</v>
@@ -18067,7 +18883,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4733</v>
+        <v>5005</v>
       </c>
       <c r="C7">
         <v>6980279</v>
@@ -18088,7 +18904,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4734</v>
+        <v>5006</v>
       </c>
       <c r="C8">
         <v>6980279</v>
@@ -18109,7 +18925,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4735</v>
+        <v>5007</v>
       </c>
       <c r="C9">
         <v>6980279</v>
@@ -18130,7 +18946,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4736</v>
+        <v>5008</v>
       </c>
       <c r="C10">
         <v>6980279</v>
@@ -18151,7 +18967,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4737</v>
+        <v>5009</v>
       </c>
       <c r="C11">
         <v>6980279</v>
@@ -18180,25 +18996,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4743</v>
+        <v>5015</v>
       </c>
       <c r="B1" t="s">
-        <v>4744</v>
+        <v>5016</v>
       </c>
       <c r="C1" t="s">
-        <v>4755</v>
+        <v>5027</v>
       </c>
       <c r="D1" t="s">
-        <v>4756</v>
+        <v>5028</v>
       </c>
       <c r="E1" t="s">
-        <v>4757</v>
+        <v>5029</v>
       </c>
       <c r="F1" t="s">
-        <v>4758</v>
+        <v>5030</v>
       </c>
       <c r="G1" t="s">
-        <v>4759</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="2">
@@ -18206,7 +19022,7 @@
         <v>2007</v>
       </c>
       <c r="B2" t="s">
-        <v>4745</v>
+        <v>5017</v>
       </c>
       <c r="C2">
         <v>5744575</v>
@@ -18227,7 +19043,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4746</v>
+        <v>5018</v>
       </c>
       <c r="C3">
         <v>5744575</v>
@@ -18248,7 +19064,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4747</v>
+        <v>5019</v>
       </c>
       <c r="C4">
         <v>5744575</v>
@@ -18269,7 +19085,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4748</v>
+        <v>5020</v>
       </c>
       <c r="C5">
         <v>5744575</v>
@@ -18290,7 +19106,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4749</v>
+        <v>5021</v>
       </c>
       <c r="C6">
         <v>5744575</v>
@@ -18311,7 +19127,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4750</v>
+        <v>5022</v>
       </c>
       <c r="C7">
         <v>5744575</v>
@@ -18332,7 +19148,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4751</v>
+        <v>5023</v>
       </c>
       <c r="C8">
         <v>5744575</v>
@@ -18353,7 +19169,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4752</v>
+        <v>5024</v>
       </c>
       <c r="C9">
         <v>5744575</v>
@@ -18374,7 +19190,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4753</v>
+        <v>5025</v>
       </c>
       <c r="C10">
         <v>5744575</v>
@@ -18395,7 +19211,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4754</v>
+        <v>5026</v>
       </c>
       <c r="C11">
         <v>5744575</v>
@@ -18424,25 +19240,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4760</v>
+        <v>5032</v>
       </c>
       <c r="B1" t="s">
-        <v>4761</v>
+        <v>5033</v>
       </c>
       <c r="C1" t="s">
-        <v>4772</v>
+        <v>5044</v>
       </c>
       <c r="D1" t="s">
-        <v>4773</v>
+        <v>5045</v>
       </c>
       <c r="E1" t="s">
-        <v>4774</v>
+        <v>5046</v>
       </c>
       <c r="F1" t="s">
-        <v>4775</v>
+        <v>5047</v>
       </c>
       <c r="G1" t="s">
-        <v>4776</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="2">
@@ -18450,7 +19266,7 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>4762</v>
+        <v>5034</v>
       </c>
       <c r="C2">
         <v>6150953</v>
@@ -18471,7 +19287,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4763</v>
+        <v>5035</v>
       </c>
       <c r="C3">
         <v>6150953</v>
@@ -18492,7 +19308,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4764</v>
+        <v>5036</v>
       </c>
       <c r="C4">
         <v>6150953</v>
@@ -18513,7 +19329,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4765</v>
+        <v>5037</v>
       </c>
       <c r="C5">
         <v>6150953</v>
@@ -18534,7 +19350,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4766</v>
+        <v>5038</v>
       </c>
       <c r="C6">
         <v>6150953</v>
@@ -18555,7 +19371,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4767</v>
+        <v>5039</v>
       </c>
       <c r="C7">
         <v>6150953</v>
@@ -18576,7 +19392,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4768</v>
+        <v>5040</v>
       </c>
       <c r="C8">
         <v>6150953</v>
@@ -18597,7 +19413,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4769</v>
+        <v>5041</v>
       </c>
       <c r="C9">
         <v>6150953</v>
@@ -18618,7 +19434,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4770</v>
+        <v>5042</v>
       </c>
       <c r="C10">
         <v>6150953</v>
@@ -18639,7 +19455,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4771</v>
+        <v>5043</v>
       </c>
       <c r="C11">
         <v>6150953</v>

--- a/input_data/admin_data/SLV/_clean/total-SLV.xlsx
+++ b/input_data/admin_data/SLV/_clean/total-SLV.xlsx
@@ -28,7 +28,3271 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5168" uniqueCount="5168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6256" uniqueCount="6256">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -15580,25 +18844,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4896</v>
+        <v>5984</v>
       </c>
       <c r="B1" t="s">
-        <v>4897</v>
+        <v>5985</v>
       </c>
       <c r="C1" t="s">
-        <v>4908</v>
+        <v>5996</v>
       </c>
       <c r="D1" t="s">
-        <v>4909</v>
+        <v>5997</v>
       </c>
       <c r="E1" t="s">
-        <v>4910</v>
+        <v>5998</v>
       </c>
       <c r="F1" t="s">
-        <v>4911</v>
+        <v>5999</v>
       </c>
       <c r="G1" t="s">
-        <v>4912</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="2">
@@ -15606,7 +18870,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>4898</v>
+        <v>5986</v>
       </c>
       <c r="C2">
         <v>6272353</v>
@@ -15627,7 +18891,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4899</v>
+        <v>5987</v>
       </c>
       <c r="C3">
         <v>6272353</v>
@@ -15648,7 +18912,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4900</v>
+        <v>5988</v>
       </c>
       <c r="C4">
         <v>6272353</v>
@@ -15669,7 +18933,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4901</v>
+        <v>5989</v>
       </c>
       <c r="C5">
         <v>6272353</v>
@@ -15690,7 +18954,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4902</v>
+        <v>5990</v>
       </c>
       <c r="C6">
         <v>6272353</v>
@@ -15711,7 +18975,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4903</v>
+        <v>5991</v>
       </c>
       <c r="C7">
         <v>6272353</v>
@@ -15732,7 +18996,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4904</v>
+        <v>5992</v>
       </c>
       <c r="C8">
         <v>6272353</v>
@@ -15753,7 +19017,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4905</v>
+        <v>5993</v>
       </c>
       <c r="C9">
         <v>6272353</v>
@@ -15774,7 +19038,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4906</v>
+        <v>5994</v>
       </c>
       <c r="C10">
         <v>6272353</v>
@@ -15795,7 +19059,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4907</v>
+        <v>5995</v>
       </c>
       <c r="C11">
         <v>6272353</v>
@@ -15824,25 +19088,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5049</v>
+        <v>6137</v>
       </c>
       <c r="B1" t="s">
-        <v>5050</v>
+        <v>6138</v>
       </c>
       <c r="C1" t="s">
-        <v>5061</v>
+        <v>6149</v>
       </c>
       <c r="D1" t="s">
-        <v>5062</v>
+        <v>6150</v>
       </c>
       <c r="E1" t="s">
-        <v>5063</v>
+        <v>6151</v>
       </c>
       <c r="F1" t="s">
-        <v>5064</v>
+        <v>6152</v>
       </c>
       <c r="G1" t="s">
-        <v>5065</v>
+        <v>6153</v>
       </c>
     </row>
     <row r="2">
@@ -15850,7 +19114,7 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>5051</v>
+        <v>6139</v>
       </c>
       <c r="C2">
         <v>6181405</v>
@@ -15871,7 +19135,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5052</v>
+        <v>6140</v>
       </c>
       <c r="C3">
         <v>6181405</v>
@@ -15892,7 +19156,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5053</v>
+        <v>6141</v>
       </c>
       <c r="C4">
         <v>6181405</v>
@@ -15913,7 +19177,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5054</v>
+        <v>6142</v>
       </c>
       <c r="C5">
         <v>6181405</v>
@@ -15934,7 +19198,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5055</v>
+        <v>6143</v>
       </c>
       <c r="C6">
         <v>6181405</v>
@@ -15955,7 +19219,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5056</v>
+        <v>6144</v>
       </c>
       <c r="C7">
         <v>6181405</v>
@@ -15976,7 +19240,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5057</v>
+        <v>6145</v>
       </c>
       <c r="C8">
         <v>6181405</v>
@@ -15997,7 +19261,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5058</v>
+        <v>6146</v>
       </c>
       <c r="C9">
         <v>6181405</v>
@@ -16018,7 +19282,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5059</v>
+        <v>6147</v>
       </c>
       <c r="C10">
         <v>6181405</v>
@@ -16039,7 +19303,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5060</v>
+        <v>6148</v>
       </c>
       <c r="C11">
         <v>6181405</v>
@@ -16068,25 +19332,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5066</v>
+        <v>6154</v>
       </c>
       <c r="B1" t="s">
-        <v>5067</v>
+        <v>6155</v>
       </c>
       <c r="C1" t="s">
-        <v>5078</v>
+        <v>6166</v>
       </c>
       <c r="D1" t="s">
-        <v>5079</v>
+        <v>6167</v>
       </c>
       <c r="E1" t="s">
-        <v>5080</v>
+        <v>6168</v>
       </c>
       <c r="F1" t="s">
-        <v>5081</v>
+        <v>6169</v>
       </c>
       <c r="G1" t="s">
-        <v>5082</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="2">
@@ -16094,7 +19358,7 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>5068</v>
+        <v>6156</v>
       </c>
       <c r="C2">
         <v>6249262</v>
@@ -16115,7 +19379,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5069</v>
+        <v>6157</v>
       </c>
       <c r="C3">
         <v>6249262</v>
@@ -16136,7 +19400,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5070</v>
+        <v>6158</v>
       </c>
       <c r="C4">
         <v>6249262</v>
@@ -16157,7 +19421,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5071</v>
+        <v>6159</v>
       </c>
       <c r="C5">
         <v>6249262</v>
@@ -16178,7 +19442,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5072</v>
+        <v>6160</v>
       </c>
       <c r="C6">
         <v>6249262</v>
@@ -16199,7 +19463,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5073</v>
+        <v>6161</v>
       </c>
       <c r="C7">
         <v>6249262</v>
@@ -16220,7 +19484,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5074</v>
+        <v>6162</v>
       </c>
       <c r="C8">
         <v>6249262</v>
@@ -16241,7 +19505,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5075</v>
+        <v>6163</v>
       </c>
       <c r="C9">
         <v>6249262</v>
@@ -16262,7 +19526,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5076</v>
+        <v>6164</v>
       </c>
       <c r="C10">
         <v>6249262</v>
@@ -16283,7 +19547,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5077</v>
+        <v>6165</v>
       </c>
       <c r="C11">
         <v>6249262</v>
@@ -16312,25 +19576,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5083</v>
+        <v>6171</v>
       </c>
       <c r="B1" t="s">
-        <v>5084</v>
+        <v>6172</v>
       </c>
       <c r="C1" t="s">
-        <v>5095</v>
+        <v>6183</v>
       </c>
       <c r="D1" t="s">
-        <v>5096</v>
+        <v>6184</v>
       </c>
       <c r="E1" t="s">
-        <v>5097</v>
+        <v>6185</v>
       </c>
       <c r="F1" t="s">
-        <v>5098</v>
+        <v>6186</v>
       </c>
       <c r="G1" t="s">
-        <v>5099</v>
+        <v>6187</v>
       </c>
     </row>
     <row r="2">
@@ -16338,7 +19602,7 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>5085</v>
+        <v>6173</v>
       </c>
       <c r="C2">
         <v>6290383</v>
@@ -16359,7 +19623,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5086</v>
+        <v>6174</v>
       </c>
       <c r="C3">
         <v>6290383</v>
@@ -16380,7 +19644,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5087</v>
+        <v>6175</v>
       </c>
       <c r="C4">
         <v>6290383</v>
@@ -16401,7 +19665,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5088</v>
+        <v>6176</v>
       </c>
       <c r="C5">
         <v>6290383</v>
@@ -16422,7 +19686,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5089</v>
+        <v>6177</v>
       </c>
       <c r="C6">
         <v>6290383</v>
@@ -16443,7 +19707,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5090</v>
+        <v>6178</v>
       </c>
       <c r="C7">
         <v>6290383</v>
@@ -16464,7 +19728,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5091</v>
+        <v>6179</v>
       </c>
       <c r="C8">
         <v>6290383</v>
@@ -16485,7 +19749,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5092</v>
+        <v>6180</v>
       </c>
       <c r="C9">
         <v>6290383</v>
@@ -16506,7 +19770,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5093</v>
+        <v>6181</v>
       </c>
       <c r="C10">
         <v>6290383</v>
@@ -16527,7 +19791,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5094</v>
+        <v>6182</v>
       </c>
       <c r="C11">
         <v>6290383</v>
@@ -16556,25 +19820,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5100</v>
+        <v>6188</v>
       </c>
       <c r="B1" t="s">
-        <v>5101</v>
+        <v>6189</v>
       </c>
       <c r="C1" t="s">
-        <v>5112</v>
+        <v>6200</v>
       </c>
       <c r="D1" t="s">
-        <v>5113</v>
+        <v>6201</v>
       </c>
       <c r="E1" t="s">
-        <v>5114</v>
+        <v>6202</v>
       </c>
       <c r="F1" t="s">
-        <v>5115</v>
+        <v>6203</v>
       </c>
       <c r="G1" t="s">
-        <v>5116</v>
+        <v>6204</v>
       </c>
     </row>
     <row r="2">
@@ -16582,7 +19846,7 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>5102</v>
+        <v>6190</v>
       </c>
       <c r="C2">
         <v>6401415</v>
@@ -16603,7 +19867,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5103</v>
+        <v>6191</v>
       </c>
       <c r="C3">
         <v>6401415</v>
@@ -16624,7 +19888,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5104</v>
+        <v>6192</v>
       </c>
       <c r="C4">
         <v>6401415</v>
@@ -16645,7 +19909,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5105</v>
+        <v>6193</v>
       </c>
       <c r="C5">
         <v>6401415</v>
@@ -16666,7 +19930,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5106</v>
+        <v>6194</v>
       </c>
       <c r="C6">
         <v>6401415</v>
@@ -16687,7 +19951,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5107</v>
+        <v>6195</v>
       </c>
       <c r="C7">
         <v>6401415</v>
@@ -16708,7 +19972,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5108</v>
+        <v>6196</v>
       </c>
       <c r="C8">
         <v>6401415</v>
@@ -16729,7 +19993,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5109</v>
+        <v>6197</v>
       </c>
       <c r="C9">
         <v>6401415</v>
@@ -16750,7 +20014,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5110</v>
+        <v>6198</v>
       </c>
       <c r="C10">
         <v>6401415</v>
@@ -16771,7 +20035,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5111</v>
+        <v>6199</v>
       </c>
       <c r="C11">
         <v>6401415</v>
@@ -16800,25 +20064,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5117</v>
+        <v>6205</v>
       </c>
       <c r="B1" t="s">
-        <v>5118</v>
+        <v>6206</v>
       </c>
       <c r="C1" t="s">
-        <v>5129</v>
+        <v>6217</v>
       </c>
       <c r="D1" t="s">
-        <v>5130</v>
+        <v>6218</v>
       </c>
       <c r="E1" t="s">
-        <v>5131</v>
+        <v>6219</v>
       </c>
       <c r="F1" t="s">
-        <v>5132</v>
+        <v>6220</v>
       </c>
       <c r="G1" t="s">
-        <v>5133</v>
+        <v>6221</v>
       </c>
     </row>
     <row r="2">
@@ -16826,7 +20090,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>5119</v>
+        <v>6207</v>
       </c>
       <c r="C2">
         <v>6459911</v>
@@ -16847,7 +20111,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5120</v>
+        <v>6208</v>
       </c>
       <c r="C3">
         <v>6459911</v>
@@ -16868,7 +20132,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5121</v>
+        <v>6209</v>
       </c>
       <c r="C4">
         <v>6459911</v>
@@ -16889,7 +20153,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5122</v>
+        <v>6210</v>
       </c>
       <c r="C5">
         <v>6459911</v>
@@ -16910,7 +20174,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5123</v>
+        <v>6211</v>
       </c>
       <c r="C6">
         <v>6459911</v>
@@ -16931,7 +20195,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5124</v>
+        <v>6212</v>
       </c>
       <c r="C7">
         <v>6459911</v>
@@ -16952,7 +20216,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5125</v>
+        <v>6213</v>
       </c>
       <c r="C8">
         <v>6459911</v>
@@ -16973,7 +20237,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5126</v>
+        <v>6214</v>
       </c>
       <c r="C9">
         <v>6459911</v>
@@ -16994,7 +20258,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5127</v>
+        <v>6215</v>
       </c>
       <c r="C10">
         <v>6459911</v>
@@ -17015,7 +20279,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5128</v>
+        <v>6216</v>
       </c>
       <c r="C11">
         <v>6459911</v>
@@ -17044,25 +20308,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5134</v>
+        <v>6222</v>
       </c>
       <c r="B1" t="s">
-        <v>5135</v>
+        <v>6223</v>
       </c>
       <c r="C1" t="s">
-        <v>5146</v>
+        <v>6234</v>
       </c>
       <c r="D1" t="s">
-        <v>5147</v>
+        <v>6235</v>
       </c>
       <c r="E1" t="s">
-        <v>5148</v>
+        <v>6236</v>
       </c>
       <c r="F1" t="s">
-        <v>5149</v>
+        <v>6237</v>
       </c>
       <c r="G1" t="s">
-        <v>5150</v>
+        <v>6238</v>
       </c>
     </row>
     <row r="2">
@@ -17070,7 +20334,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>5136</v>
+        <v>6224</v>
       </c>
       <c r="C2">
         <v>6522419</v>
@@ -17091,7 +20355,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5137</v>
+        <v>6225</v>
       </c>
       <c r="C3">
         <v>6522419</v>
@@ -17112,7 +20376,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5138</v>
+        <v>6226</v>
       </c>
       <c r="C4">
         <v>6522419</v>
@@ -17133,7 +20397,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5139</v>
+        <v>6227</v>
       </c>
       <c r="C5">
         <v>6522419</v>
@@ -17154,7 +20418,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5140</v>
+        <v>6228</v>
       </c>
       <c r="C6">
         <v>6522419</v>
@@ -17175,7 +20439,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5141</v>
+        <v>6229</v>
       </c>
       <c r="C7">
         <v>6522419</v>
@@ -17196,7 +20460,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5142</v>
+        <v>6230</v>
       </c>
       <c r="C8">
         <v>6522419</v>
@@ -17217,7 +20481,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5143</v>
+        <v>6231</v>
       </c>
       <c r="C9">
         <v>6522419</v>
@@ -17238,7 +20502,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5144</v>
+        <v>6232</v>
       </c>
       <c r="C10">
         <v>6522419</v>
@@ -17259,7 +20523,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5145</v>
+        <v>6233</v>
       </c>
       <c r="C11">
         <v>6522419</v>
@@ -17288,25 +20552,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5151</v>
+        <v>6239</v>
       </c>
       <c r="B1" t="s">
-        <v>5152</v>
+        <v>6240</v>
       </c>
       <c r="C1" t="s">
-        <v>5163</v>
+        <v>6251</v>
       </c>
       <c r="D1" t="s">
-        <v>5164</v>
+        <v>6252</v>
       </c>
       <c r="E1" t="s">
-        <v>5165</v>
+        <v>6253</v>
       </c>
       <c r="F1" t="s">
-        <v>5166</v>
+        <v>6254</v>
       </c>
       <c r="G1" t="s">
-        <v>5167</v>
+        <v>6255</v>
       </c>
     </row>
     <row r="2">
@@ -17314,7 +20578,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>5153</v>
+        <v>6241</v>
       </c>
       <c r="C2">
         <v>6581860</v>
@@ -17335,7 +20599,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5154</v>
+        <v>6242</v>
       </c>
       <c r="C3">
         <v>6581860</v>
@@ -17356,7 +20620,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5155</v>
+        <v>6243</v>
       </c>
       <c r="C4">
         <v>6581860</v>
@@ -17377,7 +20641,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5156</v>
+        <v>6244</v>
       </c>
       <c r="C5">
         <v>6581860</v>
@@ -17398,7 +20662,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5157</v>
+        <v>6245</v>
       </c>
       <c r="C6">
         <v>6581860</v>
@@ -17419,7 +20683,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5158</v>
+        <v>6246</v>
       </c>
       <c r="C7">
         <v>6581860</v>
@@ -17440,7 +20704,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5159</v>
+        <v>6247</v>
       </c>
       <c r="C8">
         <v>6581860</v>
@@ -17461,7 +20725,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5160</v>
+        <v>6248</v>
       </c>
       <c r="C9">
         <v>6581860</v>
@@ -17482,7 +20746,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5161</v>
+        <v>6249</v>
       </c>
       <c r="C10">
         <v>6581860</v>
@@ -17503,7 +20767,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5162</v>
+        <v>6250</v>
       </c>
       <c r="C11">
         <v>6581860</v>
@@ -17532,25 +20796,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4913</v>
+        <v>6001</v>
       </c>
       <c r="B1" t="s">
-        <v>4914</v>
+        <v>6002</v>
       </c>
       <c r="C1" t="s">
-        <v>4925</v>
+        <v>6013</v>
       </c>
       <c r="D1" t="s">
-        <v>4926</v>
+        <v>6014</v>
       </c>
       <c r="E1" t="s">
-        <v>4927</v>
+        <v>6015</v>
       </c>
       <c r="F1" t="s">
-        <v>4928</v>
+        <v>6016</v>
       </c>
       <c r="G1" t="s">
-        <v>4929</v>
+        <v>6017</v>
       </c>
     </row>
     <row r="2">
@@ -17558,7 +20822,7 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>4915</v>
+        <v>6003</v>
       </c>
       <c r="C2">
         <v>6428672</v>
@@ -17579,7 +20843,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4916</v>
+        <v>6004</v>
       </c>
       <c r="C3">
         <v>6428672</v>
@@ -17600,7 +20864,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4917</v>
+        <v>6005</v>
       </c>
       <c r="C4">
         <v>6428672</v>
@@ -17621,7 +20885,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4918</v>
+        <v>6006</v>
       </c>
       <c r="C5">
         <v>6428672</v>
@@ -17642,7 +20906,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4919</v>
+        <v>6007</v>
       </c>
       <c r="C6">
         <v>6428672</v>
@@ -17663,7 +20927,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4920</v>
+        <v>6008</v>
       </c>
       <c r="C7">
         <v>6428672</v>
@@ -17684,7 +20948,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4921</v>
+        <v>6009</v>
       </c>
       <c r="C8">
         <v>6428672</v>
@@ -17705,7 +20969,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4922</v>
+        <v>6010</v>
       </c>
       <c r="C9">
         <v>6428672</v>
@@ -17726,7 +20990,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4923</v>
+        <v>6011</v>
       </c>
       <c r="C10">
         <v>6428672</v>
@@ -17747,7 +21011,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4924</v>
+        <v>6012</v>
       </c>
       <c r="C11">
         <v>6428672</v>
@@ -17776,25 +21040,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4930</v>
+        <v>6018</v>
       </c>
       <c r="B1" t="s">
-        <v>4931</v>
+        <v>6019</v>
       </c>
       <c r="C1" t="s">
-        <v>4942</v>
+        <v>6030</v>
       </c>
       <c r="D1" t="s">
-        <v>4943</v>
+        <v>6031</v>
       </c>
       <c r="E1" t="s">
-        <v>4944</v>
+        <v>6032</v>
       </c>
       <c r="F1" t="s">
-        <v>4945</v>
+        <v>6033</v>
       </c>
       <c r="G1" t="s">
-        <v>4946</v>
+        <v>6034</v>
       </c>
     </row>
     <row r="2">
@@ -17802,7 +21066,7 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>4932</v>
+        <v>6020</v>
       </c>
       <c r="C2">
         <v>6510348</v>
@@ -17823,7 +21087,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4933</v>
+        <v>6021</v>
       </c>
       <c r="C3">
         <v>6510348</v>
@@ -17844,7 +21108,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4934</v>
+        <v>6022</v>
       </c>
       <c r="C4">
         <v>6510348</v>
@@ -17865,7 +21129,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4935</v>
+        <v>6023</v>
       </c>
       <c r="C5">
         <v>6510348</v>
@@ -17886,7 +21150,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4936</v>
+        <v>6024</v>
       </c>
       <c r="C6">
         <v>6510348</v>
@@ -17907,7 +21171,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4937</v>
+        <v>6025</v>
       </c>
       <c r="C7">
         <v>6510348</v>
@@ -17928,7 +21192,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4938</v>
+        <v>6026</v>
       </c>
       <c r="C8">
         <v>6510348</v>
@@ -17949,7 +21213,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4939</v>
+        <v>6027</v>
       </c>
       <c r="C9">
         <v>6510348</v>
@@ -17970,7 +21234,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4940</v>
+        <v>6028</v>
       </c>
       <c r="C10">
         <v>6510348</v>
@@ -17991,7 +21255,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4941</v>
+        <v>6029</v>
       </c>
       <c r="C11">
         <v>6510348</v>
@@ -18020,25 +21284,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4947</v>
+        <v>6035</v>
       </c>
       <c r="B1" t="s">
-        <v>4948</v>
+        <v>6036</v>
       </c>
       <c r="C1" t="s">
-        <v>4959</v>
+        <v>6047</v>
       </c>
       <c r="D1" t="s">
-        <v>4960</v>
+        <v>6048</v>
       </c>
       <c r="E1" t="s">
-        <v>4961</v>
+        <v>6049</v>
       </c>
       <c r="F1" t="s">
-        <v>4962</v>
+        <v>6050</v>
       </c>
       <c r="G1" t="s">
-        <v>4963</v>
+        <v>6051</v>
       </c>
     </row>
     <row r="2">
@@ -18046,7 +21310,7 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>4949</v>
+        <v>6037</v>
       </c>
       <c r="C2">
         <v>6639010</v>
@@ -18067,7 +21331,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4950</v>
+        <v>6038</v>
       </c>
       <c r="C3">
         <v>6639010</v>
@@ -18088,7 +21352,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4951</v>
+        <v>6039</v>
       </c>
       <c r="C4">
         <v>6639010</v>
@@ -18109,7 +21373,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4952</v>
+        <v>6040</v>
       </c>
       <c r="C5">
         <v>6639010</v>
@@ -18130,7 +21394,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4953</v>
+        <v>6041</v>
       </c>
       <c r="C6">
         <v>6639010</v>
@@ -18151,7 +21415,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4954</v>
+        <v>6042</v>
       </c>
       <c r="C7">
         <v>6639010</v>
@@ -18172,7 +21436,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4955</v>
+        <v>6043</v>
       </c>
       <c r="C8">
         <v>6639010</v>
@@ -18193,7 +21457,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4956</v>
+        <v>6044</v>
       </c>
       <c r="C9">
         <v>6639010</v>
@@ -18214,7 +21478,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4957</v>
+        <v>6045</v>
       </c>
       <c r="C10">
         <v>6639010</v>
@@ -18235,7 +21499,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4958</v>
+        <v>6046</v>
       </c>
       <c r="C11">
         <v>6639010</v>
@@ -18264,25 +21528,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4964</v>
+        <v>6052</v>
       </c>
       <c r="B1" t="s">
-        <v>4965</v>
+        <v>6053</v>
       </c>
       <c r="C1" t="s">
-        <v>4976</v>
+        <v>6064</v>
       </c>
       <c r="D1" t="s">
-        <v>4977</v>
+        <v>6065</v>
       </c>
       <c r="E1" t="s">
-        <v>4978</v>
+        <v>6066</v>
       </c>
       <c r="F1" t="s">
-        <v>4979</v>
+        <v>6067</v>
       </c>
       <c r="G1" t="s">
-        <v>4980</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="2">
@@ -18290,7 +21554,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>4966</v>
+        <v>6054</v>
       </c>
       <c r="C2">
         <v>6756786</v>
@@ -18311,7 +21575,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4967</v>
+        <v>6055</v>
       </c>
       <c r="C3">
         <v>6756786</v>
@@ -18332,7 +21596,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4968</v>
+        <v>6056</v>
       </c>
       <c r="C4">
         <v>6756786</v>
@@ -18353,7 +21617,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4969</v>
+        <v>6057</v>
       </c>
       <c r="C5">
         <v>6756786</v>
@@ -18374,7 +21638,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4970</v>
+        <v>6058</v>
       </c>
       <c r="C6">
         <v>6756786</v>
@@ -18395,7 +21659,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4971</v>
+        <v>6059</v>
       </c>
       <c r="C7">
         <v>6756786</v>
@@ -18416,7 +21680,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4972</v>
+        <v>6060</v>
       </c>
       <c r="C8">
         <v>6756786</v>
@@ -18437,7 +21701,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4973</v>
+        <v>6061</v>
       </c>
       <c r="C9">
         <v>6756786</v>
@@ -18458,7 +21722,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4974</v>
+        <v>6062</v>
       </c>
       <c r="C10">
         <v>6756786</v>
@@ -18479,7 +21743,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4975</v>
+        <v>6063</v>
       </c>
       <c r="C11">
         <v>6756786</v>
@@ -18508,25 +21772,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4981</v>
+        <v>6069</v>
       </c>
       <c r="B1" t="s">
-        <v>4982</v>
+        <v>6070</v>
       </c>
       <c r="C1" t="s">
-        <v>4993</v>
+        <v>6081</v>
       </c>
       <c r="D1" t="s">
-        <v>4994</v>
+        <v>6082</v>
       </c>
       <c r="E1" t="s">
-        <v>4995</v>
+        <v>6083</v>
       </c>
       <c r="F1" t="s">
-        <v>4996</v>
+        <v>6084</v>
       </c>
       <c r="G1" t="s">
-        <v>4997</v>
+        <v>6085</v>
       </c>
     </row>
     <row r="2">
@@ -18534,7 +21798,7 @@
         <v>2005</v>
       </c>
       <c r="B2" t="s">
-        <v>4983</v>
+        <v>6071</v>
       </c>
       <c r="C2">
         <v>6864080</v>
@@ -18555,7 +21819,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4984</v>
+        <v>6072</v>
       </c>
       <c r="C3">
         <v>6864080</v>
@@ -18576,7 +21840,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4985</v>
+        <v>6073</v>
       </c>
       <c r="C4">
         <v>6864080</v>
@@ -18597,7 +21861,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4986</v>
+        <v>6074</v>
       </c>
       <c r="C5">
         <v>6864080</v>
@@ -18618,7 +21882,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4987</v>
+        <v>6075</v>
       </c>
       <c r="C6">
         <v>6864080</v>
@@ -18639,7 +21903,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4988</v>
+        <v>6076</v>
       </c>
       <c r="C7">
         <v>6864080</v>
@@ -18660,7 +21924,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4989</v>
+        <v>6077</v>
       </c>
       <c r="C8">
         <v>6864080</v>
@@ -18681,7 +21945,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4990</v>
+        <v>6078</v>
       </c>
       <c r="C9">
         <v>6864080</v>
@@ -18702,7 +21966,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4991</v>
+        <v>6079</v>
       </c>
       <c r="C10">
         <v>6864080</v>
@@ -18723,7 +21987,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4992</v>
+        <v>6080</v>
       </c>
       <c r="C11">
         <v>6864080</v>
@@ -18752,25 +22016,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4998</v>
+        <v>6086</v>
       </c>
       <c r="B1" t="s">
-        <v>4999</v>
+        <v>6087</v>
       </c>
       <c r="C1" t="s">
-        <v>5010</v>
+        <v>6098</v>
       </c>
       <c r="D1" t="s">
-        <v>5011</v>
+        <v>6099</v>
       </c>
       <c r="E1" t="s">
-        <v>5012</v>
+        <v>6100</v>
       </c>
       <c r="F1" t="s">
-        <v>5013</v>
+        <v>6101</v>
       </c>
       <c r="G1" t="s">
-        <v>5014</v>
+        <v>6102</v>
       </c>
     </row>
     <row r="2">
@@ -18778,7 +22042,7 @@
         <v>2006</v>
       </c>
       <c r="B2" t="s">
-        <v>5000</v>
+        <v>6088</v>
       </c>
       <c r="C2">
         <v>6980279</v>
@@ -18799,7 +22063,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5001</v>
+        <v>6089</v>
       </c>
       <c r="C3">
         <v>6980279</v>
@@ -18820,7 +22084,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5002</v>
+        <v>6090</v>
       </c>
       <c r="C4">
         <v>6980279</v>
@@ -18841,7 +22105,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5003</v>
+        <v>6091</v>
       </c>
       <c r="C5">
         <v>6980279</v>
@@ -18862,7 +22126,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5004</v>
+        <v>6092</v>
       </c>
       <c r="C6">
         <v>6980279</v>
@@ -18883,7 +22147,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5005</v>
+        <v>6093</v>
       </c>
       <c r="C7">
         <v>6980279</v>
@@ -18904,7 +22168,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5006</v>
+        <v>6094</v>
       </c>
       <c r="C8">
         <v>6980279</v>
@@ -18925,7 +22189,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5007</v>
+        <v>6095</v>
       </c>
       <c r="C9">
         <v>6980279</v>
@@ -18946,7 +22210,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5008</v>
+        <v>6096</v>
       </c>
       <c r="C10">
         <v>6980279</v>
@@ -18967,7 +22231,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5009</v>
+        <v>6097</v>
       </c>
       <c r="C11">
         <v>6980279</v>
@@ -18996,25 +22260,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5015</v>
+        <v>6103</v>
       </c>
       <c r="B1" t="s">
-        <v>5016</v>
+        <v>6104</v>
       </c>
       <c r="C1" t="s">
-        <v>5027</v>
+        <v>6115</v>
       </c>
       <c r="D1" t="s">
-        <v>5028</v>
+        <v>6116</v>
       </c>
       <c r="E1" t="s">
-        <v>5029</v>
+        <v>6117</v>
       </c>
       <c r="F1" t="s">
-        <v>5030</v>
+        <v>6118</v>
       </c>
       <c r="G1" t="s">
-        <v>5031</v>
+        <v>6119</v>
       </c>
     </row>
     <row r="2">
@@ -19022,7 +22286,7 @@
         <v>2007</v>
       </c>
       <c r="B2" t="s">
-        <v>5017</v>
+        <v>6105</v>
       </c>
       <c r="C2">
         <v>5744575</v>
@@ -19043,7 +22307,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5018</v>
+        <v>6106</v>
       </c>
       <c r="C3">
         <v>5744575</v>
@@ -19064,7 +22328,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5019</v>
+        <v>6107</v>
       </c>
       <c r="C4">
         <v>5744575</v>
@@ -19085,7 +22349,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5020</v>
+        <v>6108</v>
       </c>
       <c r="C5">
         <v>5744575</v>
@@ -19106,7 +22370,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5021</v>
+        <v>6109</v>
       </c>
       <c r="C6">
         <v>5744575</v>
@@ -19127,7 +22391,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5022</v>
+        <v>6110</v>
       </c>
       <c r="C7">
         <v>5744575</v>
@@ -19148,7 +22412,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5023</v>
+        <v>6111</v>
       </c>
       <c r="C8">
         <v>5744575</v>
@@ -19169,7 +22433,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5024</v>
+        <v>6112</v>
       </c>
       <c r="C9">
         <v>5744575</v>
@@ -19190,7 +22454,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5025</v>
+        <v>6113</v>
       </c>
       <c r="C10">
         <v>5744575</v>
@@ -19211,7 +22475,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5026</v>
+        <v>6114</v>
       </c>
       <c r="C11">
         <v>5744575</v>
@@ -19240,25 +22504,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5032</v>
+        <v>6120</v>
       </c>
       <c r="B1" t="s">
-        <v>5033</v>
+        <v>6121</v>
       </c>
       <c r="C1" t="s">
-        <v>5044</v>
+        <v>6132</v>
       </c>
       <c r="D1" t="s">
-        <v>5045</v>
+        <v>6133</v>
       </c>
       <c r="E1" t="s">
-        <v>5046</v>
+        <v>6134</v>
       </c>
       <c r="F1" t="s">
-        <v>5047</v>
+        <v>6135</v>
       </c>
       <c r="G1" t="s">
-        <v>5048</v>
+        <v>6136</v>
       </c>
     </row>
     <row r="2">
@@ -19266,7 +22530,7 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>5034</v>
+        <v>6122</v>
       </c>
       <c r="C2">
         <v>6150953</v>
@@ -19287,7 +22551,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5035</v>
+        <v>6123</v>
       </c>
       <c r="C3">
         <v>6150953</v>
@@ -19308,7 +22572,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>5036</v>
+        <v>6124</v>
       </c>
       <c r="C4">
         <v>6150953</v>
@@ -19329,7 +22593,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5037</v>
+        <v>6125</v>
       </c>
       <c r="C5">
         <v>6150953</v>
@@ -19350,7 +22614,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>5038</v>
+        <v>6126</v>
       </c>
       <c r="C6">
         <v>6150953</v>
@@ -19371,7 +22635,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5039</v>
+        <v>6127</v>
       </c>
       <c r="C7">
         <v>6150953</v>
@@ -19392,7 +22656,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>5040</v>
+        <v>6128</v>
       </c>
       <c r="C8">
         <v>6150953</v>
@@ -19413,7 +22677,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5041</v>
+        <v>6129</v>
       </c>
       <c r="C9">
         <v>6150953</v>
@@ -19434,7 +22698,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>5042</v>
+        <v>6130</v>
       </c>
       <c r="C10">
         <v>6150953</v>
@@ -19455,7 +22719,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5043</v>
+        <v>6131</v>
       </c>
       <c r="C11">
         <v>6150953</v>
